--- a/config/default/forms/app/hts_initial_test.xlsx
+++ b/config/default/forms/app/hts_initial_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="373">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -204,145 +204,133 @@
     <t xml:space="preserve">HIV Testing Session</t>
   </si>
   <si>
+    <t xml:space="preserve">alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${filled_population_type} ${filled_disability} ${filled_disability_type} ${filled_ever_tested}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one population_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple kp_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key population type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${population_type},'key_population')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple priority_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priority_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority population type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${population_type},'priority_population')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one yes_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does client have any disability?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple disability_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disability_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disability type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${disability},'yes')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_tested_by_provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the client ever been tested for HIV by a HTS provider?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months_since_last_test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration in months since the last test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${ever_tested_by_provider},'yes')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self_test_in_last_12_months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the client done HIV self test in the last 12 months?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one hts_strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hts_strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicate HTS strategy used?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one entry_point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry_point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicate HTS entry point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client_consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has client consented?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one test_mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">individual_couple_testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client tested as?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${filled_population_type} ${filled_disability} ${filled_disability_type} ${filled_ever_tested}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one population_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">population_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${filled_population_type}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple kp_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key population type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${population_type},'key_population')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple priority_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority population type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${population_type},'priority_population')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one yes_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does client have any disability?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${filled_disability}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple disability_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disability_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disability type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${disability},'yes')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${filled_disability_type}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_tested_by_provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has the client ever been tested for HIV by a HTS provider?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${filled_ever_tested}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">months_since_last_test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration in months since the last test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${ever_tested_by_provider},'yes')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">self_test_in_last_12_months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has the client done HIV self test in the last 12 months?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one hts_strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hts_strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicate HTS strategy used?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one entry_point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entry_point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicate HTS entry point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client_consent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has client consented?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one test_mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">individual_couple_testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client tested as?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1</t>
   </si>
   <si>
     <t xml:space="preserve">test_1_note</t>
@@ -1432,16 +1420,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -1469,6 +1447,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1543,28 +1531,28 @@
   </sheetPr>
   <dimension ref="A1:Y65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="H3" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="topRight" activeCell="I36" activeCellId="0" sqref="I36:I38"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.6020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1377551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.5612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="82.9591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.1377551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.1479591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="33.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="16.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="75.0561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.3265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="92.2448979591837"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.7295918367347"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="37.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="17.7295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,7 +2429,7 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
@@ -2564,15 +2552,15 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2597,26 +2585,24 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="M33" s="5"/>
@@ -2633,19 +2619,19 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -2668,19 +2654,19 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2703,26 +2689,24 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="D36" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="M36" s="5"/>
@@ -2739,26 +2723,24 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="M37" s="5"/>
@@ -2775,26 +2757,24 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="M38" s="5"/>
@@ -2813,17 +2793,17 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -2848,16 +2828,16 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -2883,16 +2863,16 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2918,16 +2898,16 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -2953,16 +2933,16 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -2988,16 +2968,16 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -3026,10 +3006,10 @@
         <v>13</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -3056,13 +3036,13 @@
     </row>
     <row r="46" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -3089,16 +3069,16 @@
     </row>
     <row r="47" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -3124,16 +3104,16 @@
     </row>
     <row r="48" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -3159,16 +3139,16 @@
     </row>
     <row r="49" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -3194,16 +3174,16 @@
     </row>
     <row r="50" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -3261,14 +3241,14 @@
         <v>13</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -3293,13 +3273,13 @@
     </row>
     <row r="53" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -3326,13 +3306,13 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -3359,13 +3339,13 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -3392,13 +3372,13 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -3425,13 +3405,13 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -3487,16 +3467,16 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -3522,16 +3502,16 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -3557,16 +3537,16 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -3592,13 +3572,13 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -3657,15 +3637,15 @@
         <v>13</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -3689,13 +3669,13 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -3722,18 +3702,18 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -3757,13 +3737,13 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -3790,18 +3770,18 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -3825,13 +3805,13 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -3858,20 +3838,20 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -3895,20 +3875,20 @@
     </row>
     <row r="71" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -3932,20 +3912,20 @@
     </row>
     <row r="72" customFormat="false" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -3969,13 +3949,13 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -4002,20 +3982,20 @@
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -4039,20 +4019,20 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -4076,20 +4056,20 @@
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -4113,20 +4093,20 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -4150,20 +4130,20 @@
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -4187,20 +4167,20 @@
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -4224,20 +4204,20 @@
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -4261,20 +4241,20 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -4298,13 +4278,13 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -4331,20 +4311,20 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -4368,20 +4348,20 @@
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -4405,20 +4385,20 @@
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -4442,20 +4422,20 @@
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -4479,20 +4459,20 @@
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -4516,20 +4496,20 @@
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -4553,20 +4533,20 @@
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -4590,20 +4570,20 @@
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -4627,20 +4607,20 @@
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -4664,20 +4644,20 @@
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -4701,20 +4681,20 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -4738,13 +4718,13 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="4"/>
@@ -4771,20 +4751,20 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -4808,20 +4788,20 @@
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
@@ -4845,20 +4825,20 @@
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
@@ -4882,13 +4862,13 @@
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="4"/>
@@ -4915,20 +4895,20 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
@@ -4952,20 +4932,20 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -4989,20 +4969,20 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -5026,13 +5006,13 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="4"/>
@@ -5059,20 +5039,20 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
@@ -5096,20 +5076,20 @@
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -5133,20 +5113,20 @@
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -5170,13 +5150,13 @@
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -5203,20 +5183,20 @@
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
@@ -5240,20 +5220,20 @@
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
@@ -5277,20 +5257,20 @@
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
@@ -5314,13 +5294,13 @@
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -5347,20 +5327,20 @@
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
@@ -5384,20 +5364,20 @@
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
@@ -5421,20 +5401,20 @@
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
@@ -5458,20 +5438,20 @@
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -5617,1930 +5597,1930 @@
       <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C35:C36">
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $C35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B36">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $B35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A36">
+    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B36">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1062,B35)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:H36">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G35 = ""), $H35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E36">
+    <cfRule type="containsText" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E36">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E36">
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E36">
+    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E36">
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E36">
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="containsText" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $C38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1061,B38)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G38 = ""), $H38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="containsText" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $I38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $I38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="containsText" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $I37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $I37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I40 = "", $A40 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $C40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $B40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1060,B40)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G40 = ""), $H40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="containsText" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I41 = "", $A41 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $C41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $B41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1059,B41)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G41 = ""), $H41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="containsText" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I43 = "", $A43 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1059,B43)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="containsText" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I44 = "", $A44 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1058,B44)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="containsText" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="containsText" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="cellIs" priority="108" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="containsText" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="cellIs" priority="116" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:Y50">
+    <cfRule type="containsText" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:Y50">
+    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:Y50">
+    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:Y50">
+    <cfRule type="cellIs" priority="122" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:I50">
+    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I48 = "", $A48 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C50">
+    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $C48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:B50">
+    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $B48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:A50">
+    <cfRule type="cellIs" priority="126" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:B50">
+    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1049,B48)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:H50">
+    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G48 = ""), $H48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:Y50">
+    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:Y50">
+    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="cellIs" priority="131" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="containsText" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="cellIs" priority="135" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="cellIs" priority="136" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="containsText" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="cellIs" priority="142" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="cellIs" priority="143" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y57">
+    <cfRule type="containsText" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y57">
+    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y57">
+    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y57">
+    <cfRule type="cellIs" priority="149" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:I57">
+    <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I55 = "", $A55 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55:C57">
+    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55:B57">
+    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:A57">
+    <cfRule type="cellIs" priority="153" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55:B57">
+    <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1043,B55)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:H57">
+    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y57">
+    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y57">
+    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="containsText" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" priority="161" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:Y59">
+    <cfRule type="containsText" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:Y59">
+    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:Y59">
+    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:Y59">
+    <cfRule type="cellIs" priority="167" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I59 = "", $A59 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $C59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $B59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="cellIs" priority="171" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1049,B59)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G59 = ""), $H59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:Y59">
+    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:Y59">
+    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I60 = "", $A60 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="cellIs" priority="179" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1058,B60)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="containsText" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" priority="185" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61:I62">
+    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I61 = "", $A61 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:C62">
+    <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $C61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:B62">
+    <cfRule type="expression" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $B61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:A62">
+    <cfRule type="cellIs" priority="191" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:B62">
+    <cfRule type="expression" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1057,B61)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61:H62">
+    <cfRule type="expression" priority="193" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G61 = ""), $H61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="containsText" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="expression" priority="195" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="expression" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="cellIs" priority="197" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="expression" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:Y53">
+    <cfRule type="containsText" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:Y53">
+    <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:Y53">
+    <cfRule type="expression" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:Y53">
+    <cfRule type="cellIs" priority="203" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="expression" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I53 = "", $A53 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" priority="205" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" priority="207" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" priority="208" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1061,B53)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" priority="209" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:Y53">
+    <cfRule type="expression" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:Y53">
+    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
+    <cfRule type="containsText" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
+    <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
+    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
+    <cfRule type="cellIs" priority="215" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I46 = "", $A46 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $B46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="cellIs" priority="219" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1060,B46)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="expression" priority="221" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G46 = ""), $H46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
+    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:Y46">
+    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E94">
+    <cfRule type="containsText" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E94">
+    <cfRule type="expression" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A83="begin group", NOT($B83 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E94">
+    <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A83="end group", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E94">
+    <cfRule type="cellIs" priority="227" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E94">
+    <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A83="begin repeat", NOT($B83 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E94">
+    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A83="end repeat", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I94">
+    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I94 = "", $A94 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A94 = "end group"), NOT($A94 = "end repeat"), NOT($A94 = "")), $C94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94">
+    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A94 = "end group"), NOT($A94 = "end repeat"), NOT($A94 = "")), $B94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="cellIs" priority="233" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94">
+    <cfRule type="expression" priority="234" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1061,B94)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G94 = ""), $H94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:Y96">
+    <cfRule type="containsText" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:Y96">
+    <cfRule type="expression" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A96="begin group", NOT($B96 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:Y96">
+    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A96="end group", $B96 = "", $C96 = "", $D96 = "", $E96 = "", $F96 = "", $G96 = "", $H96 = "", $I96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:Y96">
+    <cfRule type="cellIs" priority="239" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I96">
+    <cfRule type="expression" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I96 = "", $A96 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A96 = "end group"), NOT($A96 = "end repeat"), NOT($A96 = "")), $C96 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96">
+    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A96 = "end group"), NOT($A96 = "end repeat"), NOT($A96 = "")), $B96 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="cellIs" priority="243" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96">
+    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1061,B96)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G96 = ""), $H96 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:Y96">
+    <cfRule type="expression" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A96="begin repeat", NOT($B96 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:Y96">
+    <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A96="end repeat", $B96 = "", $C96 = "", $D96 = "", $E96 = "", $F96 = "", $G96 = "", $H96 = "", $I96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:Y97">
+    <cfRule type="containsText" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:Y97">
+    <cfRule type="expression" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A97="begin group", NOT($B97 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:Y97">
+    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A97="end group", $B97 = "", $C97 = "", $D97 = "", $E97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:Y97">
+    <cfRule type="cellIs" priority="251" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I97">
+    <cfRule type="expression" priority="252" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I97 = "", $A97 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="expression" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A97 = "end group"), NOT($A97 = "end repeat"), NOT($A97 = "")), $C97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B97">
+    <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A97 = "end group"), NOT($A97 = "end repeat"), NOT($A97 = "")), $B97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="cellIs" priority="255" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B97">
+    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1060,B97)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97">
+    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G97 = ""), $H97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:Y97">
+    <cfRule type="expression" priority="258" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A97="begin repeat", NOT($B97 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:Y97">
+    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A97="end repeat", $B97 = "", $C97 = "", $D97 = "", $E97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:Y99">
+    <cfRule type="containsText" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:Y99">
+    <cfRule type="expression" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A99="begin group", NOT($B99 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:Y99">
+    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A99="end group", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:Y99">
+    <cfRule type="cellIs" priority="263" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I99">
+    <cfRule type="expression" priority="264" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I99 = "", $A99 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A99 = "end group"), NOT($A99 = "end repeat"), NOT($A99 = "")), $C99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99">
+    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A99 = "end group"), NOT($A99 = "end repeat"), NOT($A99 = "")), $B99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99">
+    <cfRule type="cellIs" priority="267" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99">
+    <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1059,B99)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99">
+    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G99 = ""), $H99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:Y99">
+    <cfRule type="expression" priority="270" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A99="begin repeat", NOT($B99 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:Y99">
+    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A99="end repeat", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:Y100">
+    <cfRule type="containsText" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:Y100">
+    <cfRule type="expression" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A100="begin group", NOT($B100 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:Y100">
+    <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A100="end group", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:Y100">
+    <cfRule type="cellIs" priority="275" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I100">
+    <cfRule type="expression" priority="276" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I100 = "", $A100 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100">
+    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A100 = "end group"), NOT($A100 = "end repeat"), NOT($A100 = "")), $C100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A100 = "end group"), NOT($A100 = "end repeat"), NOT($A100 = "")), $B100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="cellIs" priority="279" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1058,B100)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100">
+    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G100 = ""), $H100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:Y100">
+    <cfRule type="expression" priority="282" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A100="begin repeat", NOT($B100 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:Y100">
+    <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A100="end repeat", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:Y101">
+    <cfRule type="containsText" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:Y101">
+    <cfRule type="expression" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A101="begin group", NOT($B101 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:Y101">
+    <cfRule type="expression" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A101="end group", $B101 = "", $C101 = "", $D101 = "", $E101 = "", $F101 = "", $G101 = "", $H101 = "", $I101 = "", $J101 = "", $K101 = "", $L101 = "", $M101 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:Y101">
+    <cfRule type="cellIs" priority="287" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I101">
+    <cfRule type="expression" priority="288" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I101 = "", $A101 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="expression" priority="289" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A101 = "end group"), NOT($A101 = "end repeat"), NOT($A101 = "")), $C101 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A101 = "end group"), NOT($A101 = "end repeat"), NOT($A101 = "")), $B101 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="cellIs" priority="291" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1057,B101)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101">
+    <cfRule type="expression" priority="293" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G101 = ""), $H101 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:Y101">
+    <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A101="begin repeat", NOT($B101 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:Y101">
+    <cfRule type="expression" priority="295" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A101="end repeat", $B101 = "", $C101 = "", $D101 = "", $E101 = "", $F101 = "", $G101 = "", $H101 = "", $I101 = "", $J101 = "", $K101 = "", $L101 = "", $M101 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103:Y103">
+    <cfRule type="containsText" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103:Y103">
+    <cfRule type="expression" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A103="begin group", NOT($B103 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103:Y103">
+    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A103="end group", $B103 = "", $C103 = "", $D103 = "", $E103 = "", $F103 = "", $G103 = "", $H103 = "", $I103 = "", $J103 = "", $K103 = "", $L103 = "", $M103 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103:Y103">
+    <cfRule type="cellIs" priority="299" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103">
+    <cfRule type="expression" priority="300" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I103 = "", $A103 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="expression" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A103 = "end group"), NOT($A103 = "end repeat"), NOT($A103 = "")), $C103 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103">
+    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A103 = "end group"), NOT($A103 = "end repeat"), NOT($A103 = "")), $B103 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="cellIs" priority="303" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103">
+    <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1056,B103)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H103">
+    <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G103 = ""), $H103 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103:Y103">
+    <cfRule type="expression" priority="306" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A103="begin repeat", NOT($B103 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103:Y103">
+    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A103="end repeat", $B103 = "", $C103 = "", $D103 = "", $E103 = "", $F103 = "", $G103 = "", $H103 = "", $I103 = "", $J103 = "", $K103 = "", $L103 = "", $M103 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:Y104">
+    <cfRule type="containsText" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:Y104">
+    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A104="begin group", NOT($B104 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:Y104">
+    <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A104="end group", $B104 = "", $C104 = "", $D104 = "", $E104 = "", $F104 = "", $G104 = "", $H104 = "", $I104 = "", $J104 = "", $K104 = "", $L104 = "", $M104 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:Y104">
+    <cfRule type="cellIs" priority="311" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I104">
+    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I104 = "", $A104 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="expression" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A104 = "end group"), NOT($A104 = "end repeat"), NOT($A104 = "")), $C104 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104">
+    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A104 = "end group"), NOT($A104 = "end repeat"), NOT($A104 = "")), $B104 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="cellIs" priority="315" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104">
+    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1055,B104)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104">
+    <cfRule type="expression" priority="317" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G104 = ""), $H104 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:Y104">
+    <cfRule type="expression" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A104="begin repeat", NOT($B104 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:Y104">
+    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A104="end repeat", $B104 = "", $C104 = "", $D104 = "", $E104 = "", $F104 = "", $G104 = "", $H104 = "", $I104 = "", $J104 = "", $K104 = "", $L104 = "", $M104 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:Y105">
+    <cfRule type="containsText" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:Y105">
+    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A105="begin group", NOT($B105 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:Y105">
+    <cfRule type="expression" priority="322" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A105="end group", $B105 = "", $C105 = "", $D105 = "", $E105 = "", $F105 = "", $G105 = "", $H105 = "", $I105 = "", $J105 = "", $K105 = "", $L105 = "", $M105 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:Y105">
+    <cfRule type="cellIs" priority="323" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I105">
+    <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I105 = "", $A105 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105">
+    <cfRule type="expression" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A105 = "end group"), NOT($A105 = "end repeat"), NOT($A105 = "")), $C105 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105">
+    <cfRule type="expression" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A105 = "end group"), NOT($A105 = "end repeat"), NOT($A105 = "")), $B105 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="cellIs" priority="327" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105">
+    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1054,B105)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H105">
+    <cfRule type="expression" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G105 = ""), $H105 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:Y105">
+    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A105="begin repeat", NOT($B105 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:Y105">
+    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A105="end repeat", $B105 = "", $C105 = "", $D105 = "", $E105 = "", $F105 = "", $G105 = "", $H105 = "", $I105 = "", $J105 = "", $K105 = "", $L105 = "", $M105 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:Y110">
+    <cfRule type="containsText" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:Y110">
+    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A110="begin group", NOT($B110 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:Y110">
+    <cfRule type="expression" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A110="end group", $B110 = "", $C110 = "", $D110 = "", $E110 = "", $F110 = "", $G110 = "", $H110 = "", $I110 = "", $J110 = "", $K110 = "", $L110 = "", $M110 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:Y110">
+    <cfRule type="cellIs" priority="335" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I110">
+    <cfRule type="expression" priority="336" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I110 = "", $A110 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110">
+    <cfRule type="expression" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A110 = "end group"), NOT($A110 = "end repeat"), NOT($A110 = "")), $C110 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B110">
+    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A110 = "end group"), NOT($A110 = "end repeat"), NOT($A110 = "")), $B110 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110">
+    <cfRule type="cellIs" priority="339" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B110">
+    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1061,B110)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H110">
+    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G110 = ""), $H110 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:Y110">
+    <cfRule type="expression" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A110="begin repeat", NOT($B110 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:Y110">
+    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A110="end repeat", $B110 = "", $C110 = "", $D110 = "", $E110 = "", $F110 = "", $G110 = "", $H110 = "", $I110 = "", $J110 = "", $K110 = "", $L110 = "", $M110 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="containsText" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="expression" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A115="begin group", NOT($B115 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="expression" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A115="end group", $B115 = "", $C115 = "", $D115 = "", $E115 = "", $F115 = "", $G115 = "", $H115 = "", $I115 = "", $J115 = "", $K115 = "", $L115 = "", $M115 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="cellIs" priority="347" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="cellIs" priority="348" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="expression" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A115="begin repeat", NOT($B115 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A115="end repeat", $B115 = "", $C115 = "", $D115 = "", $E115 = "", $F115 = "", $G115 = "", $H115 = "", $I115 = "", $J115 = "", $K115 = "", $L115 = "", $M115 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I107:I109">
+    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I107 = "", $A107 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108:C109">
+    <cfRule type="expression" priority="352" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A108 = "end group"), NOT($A108 = "end repeat"), NOT($A108 = "")), $C108 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B108:B109">
+    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A108 = "end group"), NOT($A108 = "end repeat"), NOT($A108 = "")), $B108 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107:A109">
+    <cfRule type="cellIs" priority="354" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B108:B109">
+    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1057,B108)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107:H109">
+    <cfRule type="expression" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G107 = ""), $H107 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106:Y106">
+    <cfRule type="containsText" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106:Y106">
+    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A106="begin group", NOT($B106 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106:Y106">
+    <cfRule type="expression" priority="359" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A106="end group", $B106 = "", $C106 = "", $D106 = "", $E106 = "", $F106 = "", $G106 = "", $H106 = "", $I106 = "", $J106 = "", $K106 = "", $L106 = "", $M106 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106:Y106">
+    <cfRule type="cellIs" priority="360" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I106">
+    <cfRule type="expression" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I106 = "", $A106 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="expression" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A106 = "end group"), NOT($A106 = "end repeat"), NOT($A106 = "")), $C106 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106">
+    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A106 = "end group"), NOT($A106 = "end repeat"), NOT($A106 = "")), $B106 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="cellIs" priority="364" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106">
+    <cfRule type="expression" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1056,B106)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106">
+    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G106 = ""), $H106 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106:Y106">
+    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A106="begin repeat", NOT($B106 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106:Y106">
+    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A106="end repeat", $B106 = "", $C106 = "", $D106 = "", $E106 = "", $F106 = "", $G106 = "", $H106 = "", $I106 = "", $J106 = "", $K106 = "", $L106 = "", $M106 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I42 = "", $A42 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $C42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="cellIs" priority="372" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1058,B42)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G42 = ""), $H42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="containsText" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" priority="378" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="containsText" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A98="end group", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" priority="384" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="containsText" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A98="end group", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" priority="390" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98">
+    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I98 = "", $A98 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98">
+    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A98 = "end group"), NOT($A98 = "end repeat"), NOT($A98 = "")), $C98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98">
+    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A98 = "end group"), NOT($A98 = "end repeat"), NOT($A98 = "")), $B98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="cellIs" priority="396" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98">
+    <cfRule type="expression" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1061,B98)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G98 = ""), $H98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="containsText" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" priority="400" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A102="begin group", NOT($B102 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A102="end group", $B102 = "", $C102 = "", $D102 = "", $E102 = "", $F102 = "", $G102 = "", $H102 = "", $I102 = "", $J102 = "", $K102 = "", $L102 = "", $M102 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" priority="402" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A102="begin repeat", NOT($B102 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A102="end repeat", $B102 = "", $C102 = "", $D102 = "", $E102 = "", $F102 = "", $G102 = "", $H102 = "", $I102 = "", $J102 = "", $K102 = "", $L102 = "", $M102 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="containsText" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($A102="begin group", NOT($B102 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A102="end group", $B102 = "", $C102 = "", $D102 = "", $E102 = "", $F102 = "", $G102 = "", $H102 = "", $I102 = "", $J102 = "", $K102 = "", $L102 = "", $M102 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" priority="408" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A102="begin repeat", NOT($B102 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A102="end repeat", $B102 = "", $C102 = "", $D102 = "", $E102 = "", $F102 = "", $G102 = "", $H102 = "", $I102 = "", $J102 = "", $K102 = "", $L102 = "", $M102 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I102">
+    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($I102 = "", $A102 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A102 = "end group"), NOT($A102 = "end repeat"), NOT($A102 = "")), $C102 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102">
+    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A102 = "end group"), NOT($A102 = "end repeat"), NOT($A102 = "")), $B102 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="cellIs" priority="414" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102">
+    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1060,B102)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H102">
+    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G102 = ""), $H102 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:C30">
+    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:B30">
+    <cfRule type="expression" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:B30">
+    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>COUNTIF($B$2:$B$1062,B29)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H30">
+    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(NOT($G29 = ""), $H29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>AND($I35 = "", $A35 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C36">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $C35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $B35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A36">
-    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1062,B35)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H36">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G35 = ""), $H35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E36">
-    <cfRule type="containsText" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E36">
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E36">
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E36">
-    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E36">
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E36">
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="containsText" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $C38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1061,B38)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G38 = ""), $H38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="containsText" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $I38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $I38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="containsText" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $I37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $I37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I40 = "", $A40 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $C40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $B40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1060,B40)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G40 = ""), $H40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="containsText" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I41 = "", $A41 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $C41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $B41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1059,B41)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G41 = ""), $H41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I43 = "", $A43 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1059,B43)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="containsText" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I44 = "", $A44 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1058,B44)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" priority="105" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="containsText" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" priority="110" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="containsText" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" priority="116" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" priority="117" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:Y50">
-    <cfRule type="containsText" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:Y50">
-    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:Y50">
-    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:Y50">
-    <cfRule type="cellIs" priority="123" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48:I50">
-    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I48 = "", $A48 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C50">
-    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $C48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:B50">
-    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $B48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:A50">
-    <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:B50">
-    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1049,B48)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H50">
-    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G48 = ""), $H48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:Y50">
-    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:Y50">
-    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" priority="132" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="containsText" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" priority="136" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" priority="137" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="containsText" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="expression" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" priority="143" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" priority="144" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y57">
-    <cfRule type="containsText" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y57">
-    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y57">
-    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y57">
-    <cfRule type="cellIs" priority="150" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:I57">
-    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I55 = "", $A55 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55:C57">
-    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55:B57">
-    <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:A57">
-    <cfRule type="cellIs" priority="154" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55:B57">
-    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1043,B55)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H57">
-    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y57">
-    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y57">
-    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" priority="162" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:Y59">
-    <cfRule type="containsText" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:Y59">
-    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:Y59">
-    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:Y59">
-    <cfRule type="cellIs" priority="168" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
-    <cfRule type="expression" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I59 = "", $A59 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $C59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $B59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="cellIs" priority="172" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1049,B59)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G59 = ""), $H59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:Y59">
-    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:Y59">
-    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
-    <cfRule type="expression" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I60 = "", $A60 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" priority="180" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1058,B60)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="containsText" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" priority="186" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61:I62">
-    <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I61 = "", $A61 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C62">
-    <cfRule type="expression" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $C61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B62">
-    <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $B61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62">
-    <cfRule type="cellIs" priority="192" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B62">
-    <cfRule type="expression" priority="193" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1057,B61)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:H62">
-    <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G61 = ""), $H61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E62">
-    <cfRule type="containsText" priority="195" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E62">
-    <cfRule type="expression" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E62">
-    <cfRule type="expression" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E62">
-    <cfRule type="cellIs" priority="198" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E62">
-    <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E62">
-    <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="containsText" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="expression" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="cellIs" priority="204" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="expression" priority="205" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I53 = "", $A53 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="expression" priority="207" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" priority="208" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="expression" priority="209" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1061,B53)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="expression" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y46">
-    <cfRule type="containsText" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y46">
-    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y46">
-    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y46">
-    <cfRule type="cellIs" priority="216" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I46 = "", $A46 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $B46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" priority="220" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="expression" priority="221" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1060,B46)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G46 = ""), $H46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y46">
-    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y46">
-    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E94">
-    <cfRule type="containsText" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E94">
-    <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A83="begin group", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E94">
-    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A83="end group", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E94">
-    <cfRule type="cellIs" priority="228" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E94">
-    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A83="begin repeat", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E94">
-    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A83="end repeat", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I94">
-    <cfRule type="expression" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I94 = "", $A94 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A94 = "end group"), NOT($A94 = "end repeat"), NOT($A94 = "")), $C94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B94">
-    <cfRule type="expression" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A94 = "end group"), NOT($A94 = "end repeat"), NOT($A94 = "")), $B94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
-    <cfRule type="cellIs" priority="234" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B94">
-    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1061,B94)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="expression" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G94 = ""), $H94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="containsText" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A96="begin group", NOT($B96 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="expression" priority="239" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A96="end group", $B96 = "", $C96 = "", $D96 = "", $E96 = "", $F96 = "", $G96 = "", $H96 = "", $I96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="cellIs" priority="240" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I96">
-    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I96 = "", $A96 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
-    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A96 = "end group"), NOT($A96 = "end repeat"), NOT($A96 = "")), $C96 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
-    <cfRule type="expression" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A96 = "end group"), NOT($A96 = "end repeat"), NOT($A96 = "")), $B96 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="cellIs" priority="244" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
-    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1061,B96)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
-    <cfRule type="expression" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G96 = ""), $H96 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A96="begin repeat", NOT($B96 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A96="end repeat", $B96 = "", $C96 = "", $D96 = "", $E96 = "", $F96 = "", $G96 = "", $H96 = "", $I96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:Y97">
-    <cfRule type="containsText" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:Y97">
-    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A97="begin group", NOT($B97 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:Y97">
-    <cfRule type="expression" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A97="end group", $B97 = "", $C97 = "", $D97 = "", $E97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:Y97">
-    <cfRule type="cellIs" priority="252" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I97">
-    <cfRule type="expression" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I97 = "", $A97 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A97 = "end group"), NOT($A97 = "end repeat"), NOT($A97 = "")), $C97 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
-    <cfRule type="expression" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A97 = "end group"), NOT($A97 = "end repeat"), NOT($A97 = "")), $B97 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="cellIs" priority="256" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
-    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1060,B97)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
-    <cfRule type="expression" priority="258" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G97 = ""), $H97 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:Y97">
-    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A97="begin repeat", NOT($B97 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:Y97">
-    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A97="end repeat", $B97 = "", $C97 = "", $D97 = "", $E97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="containsText" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A99="begin group", NOT($B99 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A99="end group", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="cellIs" priority="264" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I99">
-    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I99 = "", $A99 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
-    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A99 = "end group"), NOT($A99 = "end repeat"), NOT($A99 = "")), $C99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
-    <cfRule type="expression" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A99 = "end group"), NOT($A99 = "end repeat"), NOT($A99 = "")), $B99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="cellIs" priority="268" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
-    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1059,B99)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H99">
-    <cfRule type="expression" priority="270" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G99 = ""), $H99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A99="begin repeat", NOT($B99 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A99="end repeat", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100:Y100">
-    <cfRule type="containsText" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100:Y100">
-    <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A100="begin group", NOT($B100 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100:Y100">
-    <cfRule type="expression" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A100="end group", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100:Y100">
-    <cfRule type="cellIs" priority="276" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I100">
-    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I100 = "", $A100 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
-    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A100 = "end group"), NOT($A100 = "end repeat"), NOT($A100 = "")), $C100 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="expression" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A100 = "end group"), NOT($A100 = "end repeat"), NOT($A100 = "")), $B100 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
-    <cfRule type="cellIs" priority="280" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1058,B100)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H100">
-    <cfRule type="expression" priority="282" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G100 = ""), $H100 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100:Y100">
-    <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A100="begin repeat", NOT($B100 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100:Y100">
-    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A100="end repeat", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101:Y101">
-    <cfRule type="containsText" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101:Y101">
-    <cfRule type="expression" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A101="begin group", NOT($B101 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101:Y101">
-    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A101="end group", $B101 = "", $C101 = "", $D101 = "", $E101 = "", $F101 = "", $G101 = "", $H101 = "", $I101 = "", $J101 = "", $K101 = "", $L101 = "", $M101 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101:Y101">
-    <cfRule type="cellIs" priority="288" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I101">
-    <cfRule type="expression" priority="289" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I101 = "", $A101 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C101">
-    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A101 = "end group"), NOT($A101 = "end repeat"), NOT($A101 = "")), $C101 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
-    <cfRule type="expression" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A101 = "end group"), NOT($A101 = "end repeat"), NOT($A101 = "")), $B101 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="cellIs" priority="292" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
-    <cfRule type="expression" priority="293" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1057,B101)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H101">
-    <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G101 = ""), $H101 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101:Y101">
-    <cfRule type="expression" priority="295" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A101="begin repeat", NOT($B101 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101:Y101">
-    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A101="end repeat", $B101 = "", $C101 = "", $D101 = "", $E101 = "", $F101 = "", $G101 = "", $H101 = "", $I101 = "", $J101 = "", $K101 = "", $L101 = "", $M101 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103:Y103">
-    <cfRule type="containsText" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103:Y103">
-    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A103="begin group", NOT($B103 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103:Y103">
-    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A103="end group", $B103 = "", $C103 = "", $D103 = "", $E103 = "", $F103 = "", $G103 = "", $H103 = "", $I103 = "", $J103 = "", $K103 = "", $L103 = "", $M103 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103:Y103">
-    <cfRule type="cellIs" priority="300" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I103">
-    <cfRule type="expression" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I103 = "", $A103 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A103 = "end group"), NOT($A103 = "end repeat"), NOT($A103 = "")), $C103 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103">
-    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A103 = "end group"), NOT($A103 = "end repeat"), NOT($A103 = "")), $B103 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
-    <cfRule type="cellIs" priority="304" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103">
-    <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1056,B103)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
-    <cfRule type="expression" priority="306" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G103 = ""), $H103 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103:Y103">
-    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A103="begin repeat", NOT($B103 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103:Y103">
-    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A103="end repeat", $B103 = "", $C103 = "", $D103 = "", $E103 = "", $F103 = "", $G103 = "", $H103 = "", $I103 = "", $J103 = "", $K103 = "", $L103 = "", $M103 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104:Y104">
-    <cfRule type="containsText" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104:Y104">
-    <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A104="begin group", NOT($B104 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104:Y104">
-    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A104="end group", $B104 = "", $C104 = "", $D104 = "", $E104 = "", $F104 = "", $G104 = "", $H104 = "", $I104 = "", $J104 = "", $K104 = "", $L104 = "", $M104 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104:Y104">
-    <cfRule type="cellIs" priority="312" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I104">
-    <cfRule type="expression" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I104 = "", $A104 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
-    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A104 = "end group"), NOT($A104 = "end repeat"), NOT($A104 = "")), $C104 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104">
-    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A104 = "end group"), NOT($A104 = "end repeat"), NOT($A104 = "")), $B104 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
-    <cfRule type="cellIs" priority="316" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104">
-    <cfRule type="expression" priority="317" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1055,B104)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H104">
-    <cfRule type="expression" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G104 = ""), $H104 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104:Y104">
-    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A104="begin repeat", NOT($B104 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104:Y104">
-    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A104="end repeat", $B104 = "", $C104 = "", $D104 = "", $E104 = "", $F104 = "", $G104 = "", $H104 = "", $I104 = "", $J104 = "", $K104 = "", $L104 = "", $M104 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105:Y105">
-    <cfRule type="containsText" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105:Y105">
-    <cfRule type="expression" priority="322" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A105="begin group", NOT($B105 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105:Y105">
-    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A105="end group", $B105 = "", $C105 = "", $D105 = "", $E105 = "", $F105 = "", $G105 = "", $H105 = "", $I105 = "", $J105 = "", $K105 = "", $L105 = "", $M105 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105:Y105">
-    <cfRule type="cellIs" priority="324" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I105">
-    <cfRule type="expression" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I105 = "", $A105 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="expression" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A105 = "end group"), NOT($A105 = "end repeat"), NOT($A105 = "")), $C105 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B105">
-    <cfRule type="expression" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A105 = "end group"), NOT($A105 = "end repeat"), NOT($A105 = "")), $B105 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
-    <cfRule type="cellIs" priority="328" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B105">
-    <cfRule type="expression" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1054,B105)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H105">
-    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G105 = ""), $H105 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105:Y105">
-    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A105="begin repeat", NOT($B105 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105:Y105">
-    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A105="end repeat", $B105 = "", $C105 = "", $D105 = "", $E105 = "", $F105 = "", $G105 = "", $H105 = "", $I105 = "", $J105 = "", $K105 = "", $L105 = "", $M105 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110:Y110">
-    <cfRule type="containsText" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110:Y110">
-    <cfRule type="expression" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A110="begin group", NOT($B110 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110:Y110">
-    <cfRule type="expression" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A110="end group", $B110 = "", $C110 = "", $D110 = "", $E110 = "", $F110 = "", $G110 = "", $H110 = "", $I110 = "", $J110 = "", $K110 = "", $L110 = "", $M110 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110:Y110">
-    <cfRule type="cellIs" priority="336" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I110">
-    <cfRule type="expression" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I110 = "", $A110 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
-    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A110 = "end group"), NOT($A110 = "end repeat"), NOT($A110 = "")), $C110 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B110">
-    <cfRule type="expression" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A110 = "end group"), NOT($A110 = "end repeat"), NOT($A110 = "")), $B110 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
-    <cfRule type="cellIs" priority="340" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B110">
-    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1061,B110)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H110">
-    <cfRule type="expression" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G110 = ""), $H110 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110:Y110">
-    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A110="begin repeat", NOT($B110 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110:Y110">
-    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A110="end repeat", $B110 = "", $C110 = "", $D110 = "", $E110 = "", $F110 = "", $G110 = "", $H110 = "", $I110 = "", $J110 = "", $K110 = "", $L110 = "", $M110 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="containsText" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="expression" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A115="begin group", NOT($B115 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A115="end group", $B115 = "", $C115 = "", $D115 = "", $E115 = "", $F115 = "", $G115 = "", $H115 = "", $I115 = "", $J115 = "", $K115 = "", $L115 = "", $M115 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="cellIs" priority="348" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="cellIs" priority="349" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A115="begin repeat", NOT($B115 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A115="end repeat", $B115 = "", $C115 = "", $D115 = "", $E115 = "", $F115 = "", $G115 = "", $H115 = "", $I115 = "", $J115 = "", $K115 = "", $L115 = "", $M115 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I107:I109">
-    <cfRule type="expression" priority="352" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I107 = "", $A107 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A108 = "end group"), NOT($A108 = "end repeat"), NOT($A108 = "")), $C108 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B108:B109">
-    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A108 = "end group"), NOT($A108 = "end repeat"), NOT($A108 = "")), $B108 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A107:A109">
-    <cfRule type="cellIs" priority="355" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B108:B109">
-    <cfRule type="expression" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1057,B108)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H107:H109">
-    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G107 = ""), $H107 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106:Y106">
-    <cfRule type="containsText" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106:Y106">
-    <cfRule type="expression" priority="359" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A106="begin group", NOT($B106 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106:Y106">
-    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A106="end group", $B106 = "", $C106 = "", $D106 = "", $E106 = "", $F106 = "", $G106 = "", $H106 = "", $I106 = "", $J106 = "", $K106 = "", $L106 = "", $M106 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106:Y106">
-    <cfRule type="cellIs" priority="361" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I106">
-    <cfRule type="expression" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I106 = "", $A106 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A106 = "end group"), NOT($A106 = "end repeat"), NOT($A106 = "")), $C106 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B106">
-    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A106 = "end group"), NOT($A106 = "end repeat"), NOT($A106 = "")), $B106 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
-    <cfRule type="cellIs" priority="365" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B106">
-    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1056,B106)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H106">
-    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G106 = ""), $H106 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106:Y106">
-    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A106="begin repeat", NOT($B106 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106:Y106">
-    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A106="end repeat", $B106 = "", $C106 = "", $D106 = "", $E106 = "", $F106 = "", $G106 = "", $H106 = "", $I106 = "", $J106 = "", $K106 = "", $L106 = "", $M106 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I42 = "", $A42 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $C42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" priority="373" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1058,B42)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="expression" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G42 = ""), $H42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" priority="379" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="containsText" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A98="end group", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" priority="385" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="containsText" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A98="end group", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" priority="391" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I98">
-    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I98 = "", $A98 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A98 = "end group"), NOT($A98 = "end repeat"), NOT($A98 = "")), $C98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
-    <cfRule type="expression" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A98 = "end group"), NOT($A98 = "end repeat"), NOT($A98 = "")), $B98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
-    <cfRule type="cellIs" priority="397" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
-    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1061,B98)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G98 = ""), $H98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="containsText" priority="400" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A102="begin group", NOT($B102 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A102="end group", $B102 = "", $C102 = "", $D102 = "", $E102 = "", $F102 = "", $G102 = "", $H102 = "", $I102 = "", $J102 = "", $K102 = "", $L102 = "", $M102 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" priority="403" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="expression" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A102="begin repeat", NOT($B102 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A102="end repeat", $B102 = "", $C102 = "", $D102 = "", $E102 = "", $F102 = "", $G102 = "", $H102 = "", $I102 = "", $J102 = "", $K102 = "", $L102 = "", $M102 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="containsText" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A102="begin group", NOT($B102 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A102="end group", $B102 = "", $C102 = "", $D102 = "", $E102 = "", $F102 = "", $G102 = "", $H102 = "", $I102 = "", $J102 = "", $K102 = "", $L102 = "", $M102 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" priority="409" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A102="begin repeat", NOT($B102 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A102="end repeat", $B102 = "", $C102 = "", $D102 = "", $E102 = "", $F102 = "", $G102 = "", $H102 = "", $I102 = "", $J102 = "", $K102 = "", $L102 = "", $M102 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I102">
-    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND($I102 = "", $A102 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
-    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A102 = "end group"), NOT($A102 = "end repeat"), NOT($A102 = "")), $C102 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B102">
-    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A102 = "end group"), NOT($A102 = "end repeat"), NOT($A102 = "")), $B102 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
-    <cfRule type="cellIs" priority="415" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B102">
-    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1060,B102)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H102">
-    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G102 = ""), $H102 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C30">
-    <cfRule type="expression" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B30">
-    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B30">
-    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>COUNTIF($B$2:$B$1062,B29)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H30">
-    <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT($G29 = ""), $H29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7566,23 +7546,23 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A59" activeCellId="1" sqref="I36:I38 A59"/>
+      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.9336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.7755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="17.7295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -7596,13 +7576,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -7610,13 +7590,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -7632,13 +7612,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -7646,13 +7626,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -7660,13 +7640,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -7674,13 +7654,13 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -7688,13 +7668,13 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -7702,13 +7682,13 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>290</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>294</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -7716,13 +7696,13 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -7730,13 +7710,13 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -7744,13 +7724,13 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>296</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>300</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -7758,13 +7738,13 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -7772,13 +7752,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -7786,13 +7766,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>302</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>306</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -7800,13 +7780,13 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -7830,13 +7810,13 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -7844,13 +7824,13 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -7858,13 +7838,13 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -7880,13 +7860,13 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -7894,13 +7874,13 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -7908,13 +7888,13 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -7930,13 +7910,13 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -7944,13 +7924,13 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -7958,13 +7938,13 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -7972,13 +7952,13 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -7986,13 +7966,13 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -8008,13 +7988,13 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -8022,13 +8002,13 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -8036,13 +8016,13 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -8050,13 +8030,13 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -8064,13 +8044,13 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -8086,13 +8066,13 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -8100,13 +8080,13 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -8114,13 +8094,13 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -8128,13 +8108,13 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -8142,13 +8122,13 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -8156,13 +8136,13 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -8170,13 +8150,13 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -8184,13 +8164,13 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -8206,13 +8186,13 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -8220,13 +8200,13 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -8234,13 +8214,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -8248,13 +8228,13 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -8262,13 +8242,13 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -8276,13 +8256,13 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -8290,13 +8270,13 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -8304,13 +8284,13 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -8318,13 +8298,13 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -8332,13 +8312,13 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -8346,13 +8326,13 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -8368,13 +8348,13 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -8382,13 +8362,13 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>347</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>351</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -8404,13 +8384,13 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -8418,13 +8398,13 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>352</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>356</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -8432,13 +8412,13 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -8454,13 +8434,13 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -8468,13 +8448,13 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -8482,13 +8462,13 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -8503,13 +8483,13 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -8517,13 +8497,13 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -8531,13 +8511,13 @@
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -8553,13 +8533,13 @@
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -8567,13 +8547,13 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -8581,13 +8561,13 @@
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -8603,13 +8583,13 @@
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -8617,13 +8597,13 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
@@ -8631,13 +8611,13 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -8645,13 +8625,13 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -8679,55 +8659,55 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="1" sqref="I36:I38 B2"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="16.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.8571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.1377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="17.7295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="17.7295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>368</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C2" s="14" t="n">
         <f aca="true">NOW()</f>
-        <v>43970.0284440184</v>
+        <v>44035.9674017583</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F2" s="9"/>
     </row>

--- a/config/default/forms/app/hts_initial_test.xlsx
+++ b/config/default/forms/app/hts_initial_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="413">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -312,7 +312,10 @@
     <t xml:space="preserve">selected(${_164401_everTestedByProvider_99DCT},'_1065_yes_99DCT')</t>
   </si>
   <si>
-    <t xml:space="preserve">.&gt;=0 and .&lt;=12</t>
+    <t xml:space="preserve">.&gt;=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepts values above 0</t>
   </si>
   <si>
     <t xml:space="preserve">_164952_HasClientdoneHIVselfTestInlast12months_99DCT</t>
@@ -5729,28 +5732,26 @@
   </sheetPr>
   <dimension ref="A1:Y65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="I106" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A106" activeCellId="0" sqref="A106"/>
-      <selection pane="topRight" activeCell="A132" activeCellId="0" sqref="A132"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="H37" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="topRight" activeCell="H44" activeCellId="0" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.0051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="87.2040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="71.0969387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.8469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="135.709183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="45.5357142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="54.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.5357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.3520408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.9897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.6173469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="61.9183673469388"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="140.663265306122"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="47.1581632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="44.7295918367347"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="56.4285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7157,7 +7158,7 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
         <v>92</v>
       </c>
@@ -7175,7 +7176,9 @@
       <c r="G44" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="H44" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -7199,10 +7202,10 @@
         <v>80</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>60</v>
@@ -7231,13 +7234,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>60</v>
@@ -7269,16 +7272,16 @@
         <v>71</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="4"/>
@@ -7303,13 +7306,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>60</v>
@@ -7341,16 +7344,16 @@
         <v>71</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="4"/>
@@ -7378,10 +7381,10 @@
         <v>80</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>60</v>
@@ -7410,19 +7413,19 @@
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -7477,14 +7480,14 @@
         <v>13</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -7509,13 +7512,13 @@
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>60</v>
@@ -7547,10 +7550,10 @@
         <v>71</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>60</v>
@@ -7582,10 +7585,10 @@
         <v>57</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>60</v>
@@ -7593,10 +7596,10 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -7618,13 +7621,13 @@
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>60</v>
@@ -7653,19 +7656,19 @@
     </row>
     <row r="58" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -7722,14 +7725,14 @@
         <v>13</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -7754,17 +7757,17 @@
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -7792,14 +7795,14 @@
         <v>71</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -7827,21 +7830,21 @@
         <v>57</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
@@ -7863,17 +7866,17 @@
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -7930,7 +7933,7 @@
         <v>44</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -7939,7 +7942,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -7963,7 +7966,7 @@
         <v>44</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -7972,7 +7975,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -7993,17 +7996,17 @@
     </row>
     <row r="68" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -8031,16 +8034,16 @@
         <v>80</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -8065,19 +8068,19 @@
     </row>
     <row r="70" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -8102,19 +8105,19 @@
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -8142,10 +8145,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -8204,15 +8207,15 @@
         <v>13</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -8236,13 +8239,13 @@
     </row>
     <row r="75" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -8269,18 +8272,18 @@
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -8304,13 +8307,13 @@
     </row>
     <row r="77" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -8337,18 +8340,18 @@
     </row>
     <row r="78" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -8372,13 +8375,13 @@
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -8405,20 +8408,20 @@
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -8442,20 +8445,20 @@
     </row>
     <row r="81" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -8479,20 +8482,20 @@
     </row>
     <row r="82" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -8516,13 +8519,13 @@
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -8549,20 +8552,20 @@
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -8586,20 +8589,20 @@
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -8623,20 +8626,20 @@
     </row>
     <row r="86" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -8660,20 +8663,20 @@
     </row>
     <row r="87" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -8697,20 +8700,20 @@
     </row>
     <row r="88" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -8734,20 +8737,20 @@
     </row>
     <row r="89" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -8771,20 +8774,20 @@
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -8808,20 +8811,20 @@
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -8845,13 +8848,13 @@
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -8878,20 +8881,20 @@
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -8915,20 +8918,20 @@
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -8952,20 +8955,20 @@
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -8989,20 +8992,20 @@
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -9026,20 +9029,20 @@
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -9063,20 +9066,20 @@
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -9100,20 +9103,20 @@
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -9137,20 +9140,20 @@
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -9174,20 +9177,20 @@
     </row>
     <row r="101" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -9211,20 +9214,20 @@
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -9248,20 +9251,20 @@
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -9285,13 +9288,13 @@
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="4"/>
@@ -9318,20 +9321,20 @@
     </row>
     <row r="105" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -9355,20 +9358,20 @@
     </row>
     <row r="106" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -9392,20 +9395,20 @@
     </row>
     <row r="107" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -9429,13 +9432,13 @@
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="4"/>
@@ -9462,20 +9465,20 @@
     </row>
     <row r="109" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -9499,20 +9502,20 @@
     </row>
     <row r="110" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
@@ -9536,20 +9539,20 @@
     </row>
     <row r="111" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
@@ -9573,13 +9576,13 @@
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="4"/>
@@ -9606,20 +9609,20 @@
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -9643,20 +9646,20 @@
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
@@ -9680,20 +9683,20 @@
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
@@ -9717,17 +9720,17 @@
     </row>
     <row r="116" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -9752,20 +9755,20 @@
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
@@ -9789,20 +9792,20 @@
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
@@ -9826,20 +9829,20 @@
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
@@ -9863,13 +9866,13 @@
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -9896,20 +9899,20 @@
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
@@ -9933,20 +9936,20 @@
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
@@ -9970,20 +9973,20 @@
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
@@ -10007,20 +10010,20 @@
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -10044,20 +10047,20 @@
     </row>
     <row r="125" s="15" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
@@ -10081,17 +10084,17 @@
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D126" s="17"/>
       <c r="E126" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
@@ -10116,20 +10119,20 @@
     </row>
     <row r="127" s="15" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D127" s="12"/>
       <c r="E127" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
@@ -10153,17 +10156,17 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D128" s="17"/>
       <c r="E128" s="18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
@@ -10188,20 +10191,20 @@
     </row>
     <row r="129" s="15" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D129" s="12"/>
       <c r="E129" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
@@ -10225,17 +10228,17 @@
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D130" s="17"/>
       <c r="E130" s="18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
@@ -10292,7 +10295,7 @@
         <v>13</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C132" s="19" t="s">
         <v>19</v>
@@ -10316,7 +10319,7 @@
         <v>44</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>19</v>
@@ -10327,7 +10330,7 @@
       <c r="G133" s="23"/>
       <c r="H133" s="23"/>
       <c r="I133" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J133" s="23"/>
       <c r="K133" s="23"/>
@@ -12477,15 +12480,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.3469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.6989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.6071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1</v>
@@ -12499,13 +12501,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -12513,13 +12515,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -12551,13 +12553,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -12565,13 +12567,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -12579,13 +12581,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -12601,13 +12603,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -12615,13 +12617,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -12629,13 +12631,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -12643,13 +12645,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -12665,13 +12667,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -12679,13 +12681,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -12693,13 +12695,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -12707,13 +12709,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -12721,13 +12723,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -12743,13 +12745,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -12757,13 +12759,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -12771,13 +12773,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -12785,13 +12787,13 @@
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -12799,13 +12801,13 @@
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -12821,13 +12823,13 @@
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -12835,13 +12837,13 @@
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -12849,13 +12851,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -12863,13 +12865,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -12877,13 +12879,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -12891,13 +12893,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -12905,13 +12907,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -12919,13 +12921,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -12941,13 +12943,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -12955,13 +12957,13 @@
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -12969,13 +12971,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -12983,13 +12985,13 @@
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -12997,13 +12999,13 @@
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -13011,13 +13013,13 @@
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -13025,13 +13027,13 @@
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -13039,13 +13041,13 @@
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -13053,13 +13055,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -13067,13 +13069,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -13081,13 +13083,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -13103,13 +13105,13 @@
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -13117,13 +13119,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -13139,13 +13141,13 @@
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -13153,13 +13155,13 @@
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -13175,13 +13177,13 @@
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -13197,13 +13199,13 @@
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -13211,13 +13213,13 @@
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -13225,13 +13227,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -13246,13 +13248,13 @@
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -13260,13 +13262,13 @@
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -13274,13 +13276,13 @@
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>391</v>
-      </c>
       <c r="C63" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -13296,13 +13298,13 @@
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -13310,13 +13312,13 @@
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -13324,13 +13326,13 @@
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -13346,13 +13348,13 @@
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -13360,13 +13362,13 @@
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -13374,13 +13376,13 @@
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -13388,13 +13390,13 @@
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -13402,13 +13404,13 @@
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -13416,13 +13418,13 @@
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -13430,13 +13432,13 @@
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -13472,47 +13474,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C2" s="27" t="n">
         <f aca="true">NOW()</f>
-        <v>44067.4618834305</v>
+        <v>44067.5452036865</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F2" s="9"/>
     </row>

--- a/config/default/forms/app/hts_initial_test.xlsx
+++ b/config/default/forms/app/hts_initial_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="463">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -405,6 +405,9 @@
     <t xml:space="preserve">selected(${_160540_htsEntryPoint_99DCT},'_5622_otherEntry_99DCT')</t>
   </si>
   <si>
+    <t xml:space="preserve">select_one client_consent</t>
+  </si>
+  <si>
     <t xml:space="preserve">_1710_clientConsented_99DCT</t>
   </si>
   <si>
@@ -420,7 +423,7 @@
     <t xml:space="preserve">Client tested as?</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${_1710_clientConsented_99DCT},'_1065_yes_99DCT')</t>
+    <t xml:space="preserve">selected(${_1710_clientConsented_99DCT},'1')</t>
   </si>
   <si>
     <t xml:space="preserve">_164410_firstTest_99DCT</t>
@@ -480,7 +483,7 @@
     <t xml:space="preserve">Test 2</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${_1040_testOneResults_99DCT},'_703_positive_99DCT') or selected(${_1040_testOneResults_99DCT},'_163611_invalid_99DCT') and selected(${_1710_clientConsented_99DCT},'_1065_yes_99DCT')</t>
+    <t xml:space="preserve">selected(${_1040_testOneResults_99DCT},'_703_positive_99DCT') or selected(${_1040_testOneResults_99DCT},'_163611_invalid_99DCT') and selected(${_1710_clientConsented_99DCT},'1')</t>
   </si>
   <si>
     <t xml:space="preserve">select_one kit2_name</t>
@@ -554,7 +557,7 @@
     <t xml:space="preserve">Couple is discordant</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${_1710_clientConsented_99DCT},'_1065_yes_99DCT') and selected(${_164959_clientTestedAs_99DCT},'_164958_couple_99DCT')</t>
+    <t xml:space="preserve">selected(${_1710_clientConsented_99DCT},'1') and selected(${_164959_clientTestedAs_99DCT},'_164958_couple_99DCT')</t>
   </si>
   <si>
     <t xml:space="preserve">select_one tb_screening_result</t>
@@ -1377,6 +1380,9 @@
   </si>
   <si>
     <t xml:space="preserve">Other facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client_consent</t>
   </si>
   <si>
     <t xml:space="preserve">form_title</t>
@@ -1418,7 +1424,7 @@
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="DD\-MM\-YYYY\ HH\-MM\-SS"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1486,12 +1492,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
@@ -1542,11 +1542,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1621,7 +1616,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1666,27 +1661,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1714,27 +1701,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1742,15 +1729,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1763,7 +1750,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="436">
+  <dxfs count="434">
     <dxf>
       <font>
         <strike val="1"/>
@@ -4575,6 +4562,110 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -4660,6 +4751,47 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFB7B7B7"/>
       </font>
       <fill>
@@ -4700,6 +4832,50 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
@@ -4709,11 +4885,58 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF76A5AF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
@@ -4831,6 +5054,327 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -4872,6 +5416,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFB7B7B7"/>
       </font>
       <fill>
@@ -4912,6 +5476,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF76A5AF"/>
       </font>
       <fill>
@@ -4932,6 +5506,76 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -4948,13 +5592,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -5028,730 +5665,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5840,6 +5753,66 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5914,26 +5887,26 @@
   </sheetPr>
   <dimension ref="A1:AL145"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="D69" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
-      <selection pane="topRight" activeCell="B78" activeCellId="0" sqref="B78"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="96.9234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3367346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.015306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="66.5051020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="151.010204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="50.6683673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="47.969387755102"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="60.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.4642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.4795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="104.035714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.780612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="84.7755102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="71.3673469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="162.081632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="54.3571428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.3877551020408"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="64.9744897959184"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7473,7 +7446,7 @@
       <c r="D47" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="11"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -7502,13 +7475,13 @@
       <c r="B48" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="8" t="s">
         <v>108</v>
       </c>
       <c r="F48" s="8"/>
@@ -7539,13 +7512,13 @@
       <c r="B49" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F49" s="8"/>
@@ -7650,13 +7623,13 @@
       <c r="B52" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="8" t="s">
         <v>119</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="8" t="s">
         <v>108</v>
       </c>
       <c r="F52" s="8"/>
@@ -7687,13 +7660,13 @@
       <c r="B53" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="8" t="s">
         <v>119</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F53" s="8"/>
@@ -7734,7 +7707,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J54" s="8"/>
@@ -7791,15 +7764,15 @@
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>62</v>
@@ -7826,21 +7799,21 @@
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -7895,16 +7868,16 @@
         <v>13</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -7929,13 +7902,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>62</v>
@@ -7967,10 +7940,10 @@
         <v>73</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>62</v>
@@ -8002,10 +7975,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>62</v>
@@ -8013,10 +7986,10 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
@@ -8038,13 +8011,13 @@
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>62</v>
@@ -8073,19 +8046,19 @@
     </row>
     <row r="64" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -8137,19 +8110,19 @@
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -8172,19 +8145,19 @@
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -8207,19 +8180,19 @@
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -8242,26 +8215,26 @@
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -8281,19 +8254,19 @@
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -8350,7 +8323,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -8359,7 +8332,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -8383,7 +8356,7 @@
         <v>46</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -8392,7 +8365,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -8411,19 +8384,19 @@
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -8451,16 +8424,16 @@
         <v>82</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -8483,21 +8456,21 @@
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -8520,21 +8493,21 @@
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -8562,16 +8535,16 @@
         <v>13</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E78" s="11" t="s">
-        <v>182</v>
+      <c r="E78" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -8596,18 +8569,18 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E79" s="11"/>
+      <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -8631,13 +8604,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B80" s="11" t="s">
         <v>187</v>
       </c>
+      <c r="B80" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="C80" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>62</v>
@@ -8668,17 +8641,17 @@
       <c r="A81" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>189</v>
+      <c r="B81" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E81" s="11" t="s">
-        <v>191</v>
+      <c r="E81" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -8735,10 +8708,10 @@
         <v>73</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -8797,15 +8770,15 @@
         <v>13</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -8829,13 +8802,13 @@
     </row>
     <row r="86" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -8862,18 +8835,18 @@
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
@@ -8897,13 +8870,13 @@
     </row>
     <row r="88" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -8930,18 +8903,18 @@
     </row>
     <row r="89" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -8965,13 +8938,13 @@
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>207</v>
+        <v>168</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -8998,20 +8971,20 @@
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C91" s="14" t="s">
         <v>210</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -9035,20 +9008,20 @@
     </row>
     <row r="92" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C92" s="14" t="s">
         <v>214</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -9072,20 +9045,20 @@
     </row>
     <row r="93" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C93" s="14" t="s">
         <v>217</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -9109,13 +9082,13 @@
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -9142,20 +9115,20 @@
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C95" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" s="12" t="s">
         <v>222</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -9179,20 +9152,20 @@
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C96" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="12" t="s">
         <v>225</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -9216,20 +9189,20 @@
     </row>
     <row r="97" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C97" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="12" t="s">
         <v>228</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -9253,20 +9226,20 @@
     </row>
     <row r="98" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C98" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>231</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -9290,20 +9263,20 @@
     </row>
     <row r="99" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="C99" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>234</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -9327,20 +9300,20 @@
     </row>
     <row r="100" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C100" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="12" t="s">
         <v>237</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -9364,20 +9337,20 @@
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C101" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>240</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -9401,20 +9374,20 @@
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C102" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102" s="12" t="s">
         <v>243</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -9438,13 +9411,13 @@
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -9471,20 +9444,20 @@
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="C104" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B104" s="12" t="s">
         <v>248</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -9508,20 +9481,20 @@
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="C105" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105" s="12" t="s">
         <v>251</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -9545,20 +9518,20 @@
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="C106" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" s="12" t="s">
         <v>254</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -9582,20 +9555,20 @@
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="C107" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>257</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -9619,20 +9592,20 @@
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C108" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B108" s="12" t="s">
         <v>260</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -9656,20 +9629,20 @@
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C109" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>263</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -9693,20 +9666,20 @@
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C110" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>266</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -9730,20 +9703,20 @@
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C111" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>269</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -9767,20 +9740,20 @@
     </row>
     <row r="112" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>234</v>
+        <v>168</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -9804,20 +9777,20 @@
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C113" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" s="12" t="s">
         <v>274</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -9841,20 +9814,20 @@
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>243</v>
+        <v>168</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -9878,13 +9851,13 @@
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="4"/>
@@ -9911,20 +9884,20 @@
     </row>
     <row r="116" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
@@ -9948,20 +9921,20 @@
     </row>
     <row r="117" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
@@ -9985,20 +9958,20 @@
     </row>
     <row r="118" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
@@ -10022,13 +9995,13 @@
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="4"/>
@@ -10055,20 +10028,20 @@
     </row>
     <row r="120" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
@@ -10092,20 +10065,20 @@
     </row>
     <row r="121" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
@@ -10129,20 +10102,20 @@
     </row>
     <row r="122" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
@@ -10166,13 +10139,13 @@
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="4"/>
@@ -10199,20 +10172,20 @@
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
@@ -10236,20 +10209,20 @@
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
@@ -10273,20 +10246,20 @@
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
@@ -10310,17 +10283,17 @@
     </row>
     <row r="127" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
@@ -10344,125 +10317,125 @@
       <c r="Y127" s="8"/>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C128" s="14" t="s">
+      <c r="A128" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B128" s="12" t="s">
         <v>310</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>311</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
-      <c r="J128" s="16"/>
-      <c r="K128" s="16"/>
-      <c r="L128" s="16"/>
-      <c r="M128" s="16"/>
-      <c r="N128" s="16"/>
-      <c r="O128" s="16"/>
-      <c r="P128" s="16"/>
-      <c r="Q128" s="16"/>
-      <c r="R128" s="16"/>
-      <c r="S128" s="16"/>
-      <c r="T128" s="16"/>
-      <c r="U128" s="16"/>
-      <c r="V128" s="16"/>
-      <c r="W128" s="16"/>
-      <c r="X128" s="16"/>
-      <c r="Y128" s="16"/>
+        <v>213</v>
+      </c>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="14"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="14"/>
+      <c r="O128" s="14"/>
+      <c r="P128" s="14"/>
+      <c r="Q128" s="14"/>
+      <c r="R128" s="14"/>
+      <c r="S128" s="14"/>
+      <c r="T128" s="14"/>
+      <c r="U128" s="14"/>
+      <c r="V128" s="14"/>
+      <c r="W128" s="14"/>
+      <c r="X128" s="14"/>
+      <c r="Y128" s="14"/>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="C129" s="14" t="s">
+      <c r="A129" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B129" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="D129" s="16"/>
+      <c r="C129" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D129" s="14"/>
       <c r="E129" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="16"/>
-      <c r="J129" s="16"/>
-      <c r="K129" s="16"/>
-      <c r="L129" s="16"/>
-      <c r="M129" s="16"/>
-      <c r="N129" s="16"/>
-      <c r="O129" s="16"/>
-      <c r="P129" s="16"/>
-      <c r="Q129" s="16"/>
-      <c r="R129" s="16"/>
-      <c r="S129" s="16"/>
-      <c r="T129" s="16"/>
-      <c r="U129" s="16"/>
-      <c r="V129" s="16"/>
-      <c r="W129" s="16"/>
-      <c r="X129" s="16"/>
-      <c r="Y129" s="16"/>
+        <v>213</v>
+      </c>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="14"/>
+      <c r="O129" s="14"/>
+      <c r="P129" s="14"/>
+      <c r="Q129" s="14"/>
+      <c r="R129" s="14"/>
+      <c r="S129" s="14"/>
+      <c r="T129" s="14"/>
+      <c r="U129" s="14"/>
+      <c r="V129" s="14"/>
+      <c r="W129" s="14"/>
+      <c r="X129" s="14"/>
+      <c r="Y129" s="14"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C130" s="14" t="s">
+      <c r="A130" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="D130" s="16"/>
+      <c r="C130" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D130" s="14"/>
       <c r="E130" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G130" s="16"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="16"/>
-      <c r="J130" s="16"/>
-      <c r="K130" s="16"/>
-      <c r="L130" s="16"/>
-      <c r="M130" s="16"/>
-      <c r="N130" s="16"/>
-      <c r="O130" s="16"/>
-      <c r="P130" s="16"/>
-      <c r="Q130" s="16"/>
-      <c r="R130" s="16"/>
-      <c r="S130" s="16"/>
-      <c r="T130" s="16"/>
-      <c r="U130" s="16"/>
-      <c r="V130" s="16"/>
-      <c r="W130" s="16"/>
-      <c r="X130" s="16"/>
-      <c r="Y130" s="16"/>
+        <v>213</v>
+      </c>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14"/>
+      <c r="O130" s="14"/>
+      <c r="P130" s="14"/>
+      <c r="Q130" s="14"/>
+      <c r="R130" s="14"/>
+      <c r="S130" s="14"/>
+      <c r="T130" s="14"/>
+      <c r="U130" s="14"/>
+      <c r="V130" s="14"/>
+      <c r="W130" s="14"/>
+      <c r="X130" s="14"/>
+      <c r="Y130" s="14"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -10488,132 +10461,132 @@
       <c r="Y131" s="8"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="C132" s="14" t="s">
+      <c r="A132" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B132" s="12" t="s">
         <v>321</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="16"/>
-      <c r="L132" s="16"/>
-      <c r="M132" s="16"/>
-      <c r="N132" s="16"/>
-      <c r="O132" s="16"/>
-      <c r="P132" s="16"/>
-      <c r="Q132" s="16"/>
-      <c r="R132" s="16"/>
-      <c r="S132" s="16"/>
-      <c r="T132" s="16"/>
-      <c r="U132" s="16"/>
-      <c r="V132" s="16"/>
-      <c r="W132" s="16"/>
-      <c r="X132" s="16"/>
-      <c r="Y132" s="16"/>
+        <v>213</v>
+      </c>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="14"/>
+      <c r="N132" s="14"/>
+      <c r="O132" s="14"/>
+      <c r="P132" s="14"/>
+      <c r="Q132" s="14"/>
+      <c r="R132" s="14"/>
+      <c r="S132" s="14"/>
+      <c r="T132" s="14"/>
+      <c r="U132" s="14"/>
+      <c r="V132" s="14"/>
+      <c r="W132" s="14"/>
+      <c r="X132" s="14"/>
+      <c r="Y132" s="14"/>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="C133" s="14" t="s">
+      <c r="A133" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B133" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="D133" s="16"/>
+      <c r="C133" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D133" s="14"/>
       <c r="E133" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16"/>
-      <c r="J133" s="16"/>
-      <c r="K133" s="16"/>
-      <c r="L133" s="16"/>
-      <c r="M133" s="16"/>
-      <c r="N133" s="16"/>
-      <c r="O133" s="16"/>
-      <c r="P133" s="16"/>
-      <c r="Q133" s="16"/>
-      <c r="R133" s="16"/>
-      <c r="S133" s="16"/>
-      <c r="T133" s="16"/>
-      <c r="U133" s="16"/>
-      <c r="V133" s="16"/>
-      <c r="W133" s="16"/>
-      <c r="X133" s="16"/>
-      <c r="Y133" s="16"/>
+        <v>213</v>
+      </c>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="14"/>
+      <c r="N133" s="14"/>
+      <c r="O133" s="14"/>
+      <c r="P133" s="14"/>
+      <c r="Q133" s="14"/>
+      <c r="R133" s="14"/>
+      <c r="S133" s="14"/>
+      <c r="T133" s="14"/>
+      <c r="U133" s="14"/>
+      <c r="V133" s="14"/>
+      <c r="W133" s="14"/>
+      <c r="X133" s="14"/>
+      <c r="Y133" s="14"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="C134" s="14" t="s">
+      <c r="A134" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B134" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="D134" s="16"/>
+      <c r="C134" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D134" s="14"/>
       <c r="E134" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="16"/>
-      <c r="L134" s="16"/>
-      <c r="M134" s="16"/>
-      <c r="N134" s="16"/>
-      <c r="O134" s="16"/>
-      <c r="P134" s="16"/>
-      <c r="Q134" s="16"/>
-      <c r="R134" s="16"/>
-      <c r="S134" s="16"/>
-      <c r="T134" s="16"/>
-      <c r="U134" s="16"/>
-      <c r="V134" s="16"/>
-      <c r="W134" s="16"/>
-      <c r="X134" s="16"/>
-      <c r="Y134" s="16"/>
+        <v>213</v>
+      </c>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="14"/>
+      <c r="L134" s="14"/>
+      <c r="M134" s="14"/>
+      <c r="N134" s="14"/>
+      <c r="O134" s="14"/>
+      <c r="P134" s="14"/>
+      <c r="Q134" s="14"/>
+      <c r="R134" s="14"/>
+      <c r="S134" s="14"/>
+      <c r="T134" s="14"/>
+      <c r="U134" s="14"/>
+      <c r="V134" s="14"/>
+      <c r="W134" s="14"/>
+      <c r="X134" s="14"/>
+      <c r="Y134" s="14"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C135" s="14" t="s">
+      <c r="A135" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" s="12" t="s">
         <v>330</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
@@ -10635,221 +10608,221 @@
       <c r="X135" s="4"/>
       <c r="Y135" s="4"/>
     </row>
-    <row r="136" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="C136" s="18" t="s">
+    <row r="136" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B136" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="D136" s="17"/>
-      <c r="E136" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="F136" s="17" t="s">
+      <c r="C136" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="G136" s="17"/>
-      <c r="H136" s="17"/>
-      <c r="I136" s="17"/>
-      <c r="J136" s="17"/>
-      <c r="K136" s="17"/>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
-      <c r="R136" s="17"/>
-      <c r="S136" s="17"/>
-      <c r="T136" s="17"/>
-      <c r="U136" s="17"/>
-      <c r="V136" s="17"/>
-      <c r="W136" s="17"/>
-      <c r="X136" s="17"/>
-      <c r="Y136" s="17"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="F136" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
+      <c r="O136" s="15"/>
+      <c r="P136" s="15"/>
+      <c r="Q136" s="15"/>
+      <c r="R136" s="15"/>
+      <c r="S136" s="15"/>
+      <c r="T136" s="15"/>
+      <c r="U136" s="15"/>
+      <c r="V136" s="15"/>
+      <c r="W136" s="15"/>
+      <c r="X136" s="15"/>
+      <c r="Y136" s="15"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B137" s="21" t="s">
+      <c r="A137" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19"/>
+      <c r="N137" s="19"/>
+      <c r="O137" s="19"/>
+      <c r="P137" s="19"/>
+      <c r="Q137" s="19"/>
+      <c r="R137" s="19"/>
+      <c r="S137" s="19"/>
+      <c r="T137" s="19"/>
+      <c r="U137" s="19"/>
+      <c r="V137" s="19"/>
+      <c r="W137" s="19"/>
+      <c r="X137" s="19"/>
+      <c r="Y137" s="19"/>
+    </row>
+    <row r="138" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="D138" s="15"/>
+      <c r="E138" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F138" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="C137" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="F137" s="21"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="21"/>
-      <c r="I137" s="21"/>
-      <c r="J137" s="21"/>
-      <c r="K137" s="21"/>
-      <c r="L137" s="21"/>
-      <c r="M137" s="21"/>
-      <c r="N137" s="21"/>
-      <c r="O137" s="21"/>
-      <c r="P137" s="21"/>
-      <c r="Q137" s="21"/>
-      <c r="R137" s="21"/>
-      <c r="S137" s="21"/>
-      <c r="T137" s="21"/>
-      <c r="U137" s="21"/>
-      <c r="V137" s="21"/>
-      <c r="W137" s="21"/>
-      <c r="X137" s="21"/>
-      <c r="Y137" s="21"/>
-    </row>
-    <row r="138" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="D138" s="17"/>
-      <c r="E138" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="F138" s="17" t="s">
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="15"/>
+      <c r="N138" s="15"/>
+      <c r="O138" s="15"/>
+      <c r="P138" s="15"/>
+      <c r="Q138" s="15"/>
+      <c r="R138" s="15"/>
+      <c r="S138" s="15"/>
+      <c r="T138" s="15"/>
+      <c r="U138" s="15"/>
+      <c r="V138" s="15"/>
+      <c r="W138" s="15"/>
+      <c r="X138" s="15"/>
+      <c r="Y138" s="15"/>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19"/>
+      <c r="N139" s="19"/>
+      <c r="O139" s="19"/>
+      <c r="P139" s="19"/>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="19"/>
+      <c r="S139" s="19"/>
+      <c r="T139" s="19"/>
+      <c r="U139" s="19"/>
+      <c r="V139" s="19"/>
+      <c r="W139" s="19"/>
+      <c r="X139" s="19"/>
+      <c r="Y139" s="19"/>
+    </row>
+    <row r="140" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C140" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17"/>
-      <c r="K138" s="17"/>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
-      <c r="R138" s="17"/>
-      <c r="S138" s="17"/>
-      <c r="T138" s="17"/>
-      <c r="U138" s="17"/>
-      <c r="V138" s="17"/>
-      <c r="W138" s="17"/>
-      <c r="X138" s="17"/>
-      <c r="Y138" s="17"/>
-    </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B139" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="C139" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D139" s="5"/>
-      <c r="E139" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="F139" s="21"/>
-      <c r="G139" s="21"/>
-      <c r="H139" s="21"/>
-      <c r="I139" s="21"/>
-      <c r="J139" s="21"/>
-      <c r="K139" s="21"/>
-      <c r="L139" s="21"/>
-      <c r="M139" s="21"/>
-      <c r="N139" s="21"/>
-      <c r="O139" s="21"/>
-      <c r="P139" s="21"/>
-      <c r="Q139" s="21"/>
-      <c r="R139" s="21"/>
-      <c r="S139" s="21"/>
-      <c r="T139" s="21"/>
-      <c r="U139" s="21"/>
-      <c r="V139" s="21"/>
-      <c r="W139" s="21"/>
-      <c r="X139" s="21"/>
-      <c r="Y139" s="21"/>
-    </row>
-    <row r="140" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B140" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="D140" s="17"/>
-      <c r="E140" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="F140" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="G140" s="17"/>
-      <c r="H140" s="17"/>
-      <c r="I140" s="17"/>
-      <c r="J140" s="17"/>
-      <c r="K140" s="17"/>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
-      <c r="R140" s="17"/>
-      <c r="S140" s="17"/>
-      <c r="T140" s="17"/>
-      <c r="U140" s="17"/>
-      <c r="V140" s="17"/>
-      <c r="W140" s="17"/>
-      <c r="X140" s="17"/>
-      <c r="Y140" s="17"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="F140" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="15"/>
+      <c r="M140" s="15"/>
+      <c r="N140" s="15"/>
+      <c r="O140" s="15"/>
+      <c r="P140" s="15"/>
+      <c r="Q140" s="15"/>
+      <c r="R140" s="15"/>
+      <c r="S140" s="15"/>
+      <c r="T140" s="15"/>
+      <c r="U140" s="15"/>
+      <c r="V140" s="15"/>
+      <c r="W140" s="15"/>
+      <c r="X140" s="15"/>
+      <c r="Y140" s="15"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B141" s="21" t="s">
+      <c r="A141" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="C141" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="F141" s="21"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="21"/>
-      <c r="I141" s="21"/>
-      <c r="J141" s="21"/>
-      <c r="K141" s="21"/>
-      <c r="L141" s="21"/>
-      <c r="M141" s="21"/>
-      <c r="N141" s="21"/>
-      <c r="O141" s="21"/>
-      <c r="P141" s="21"/>
-      <c r="Q141" s="21"/>
-      <c r="R141" s="21"/>
-      <c r="S141" s="21"/>
-      <c r="T141" s="21"/>
-      <c r="U141" s="21"/>
-      <c r="V141" s="21"/>
-      <c r="W141" s="21"/>
-      <c r="X141" s="21"/>
-      <c r="Y141" s="21"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="19"/>
+      <c r="L141" s="19"/>
+      <c r="M141" s="19"/>
+      <c r="N141" s="19"/>
+      <c r="O141" s="19"/>
+      <c r="P141" s="19"/>
+      <c r="Q141" s="19"/>
+      <c r="R141" s="19"/>
+      <c r="S141" s="19"/>
+      <c r="T141" s="19"/>
+      <c r="U141" s="19"/>
+      <c r="V141" s="19"/>
+      <c r="W141" s="19"/>
+      <c r="X141" s="19"/>
+      <c r="Y141" s="19"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
@@ -10881,70 +10854,70 @@
       <c r="Y142" s="8"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="23" t="s">
+      <c r="A143" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B143" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="C143" s="23" t="s">
+      <c r="B143" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C143" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="23" t="s">
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G143" s="24"/>
-      <c r="H143" s="24"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="24"/>
-      <c r="K143" s="24"/>
-      <c r="L143" s="24"/>
-      <c r="M143" s="24"/>
-      <c r="N143" s="24"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="22"/>
+      <c r="J143" s="22"/>
+      <c r="K143" s="22"/>
+      <c r="L143" s="22"/>
+      <c r="M143" s="22"/>
+      <c r="N143" s="22"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="25" t="s">
+      <c r="A144" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D144" s="26"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="25"/>
+      <c r="F144" s="25"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="25"/>
       <c r="I144" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="J144" s="27"/>
-      <c r="K144" s="27"/>
-      <c r="L144" s="27"/>
-      <c r="M144" s="27"/>
-      <c r="N144" s="27"/>
+        <v>347</v>
+      </c>
+      <c r="J144" s="25"/>
+      <c r="K144" s="25"/>
+      <c r="L144" s="25"/>
+      <c r="M144" s="25"/>
+      <c r="N144" s="25"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="28" t="s">
+      <c r="A145" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B145" s="24"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="24"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="24"/>
-      <c r="G145" s="24"/>
-      <c r="H145" s="24"/>
-      <c r="I145" s="24"/>
-      <c r="J145" s="24"/>
-      <c r="K145" s="24"/>
-      <c r="L145" s="24"/>
-      <c r="M145" s="24"/>
-      <c r="N145" s="24"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="22"/>
+      <c r="J145" s="22"/>
+      <c r="K145" s="22"/>
+      <c r="L145" s="22"/>
+      <c r="M145" s="22"/>
+      <c r="N145" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
@@ -12378,719 +12351,681 @@
       <formula>AND(AND(NOT($A77 = "end group"), NOT($A77 = "end repeat"), NOT($A77 = "")), $C77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80:B83,B77:B78">
-    <cfRule type="expression" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
-      <formula>AND(AND(NOT($A77 = "end group"), NOT($A77 = "end repeat"), NOT($A77 = "")), $B77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A77:A83">
-    <cfRule type="cellIs" priority="302" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
+    <cfRule type="cellIs" priority="301" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77:H83">
-    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="301">
+    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
       <formula>AND(NOT($G77 = ""), $H77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83,E77:E80">
-    <cfRule type="containsText" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="302"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83,E77:E80">
+  <conditionalFormatting sqref="A71">
+    <cfRule type="containsText" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="301"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
     <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
-      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83,E77:E80">
-    <cfRule type="expression" priority="306" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
-      <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83,E77:E80">
+      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="cellIs" priority="306" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
     <cfRule type="cellIs" priority="307" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="307">
+      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
+      <formula>AND($I39 = "", $A39 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
+      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $C39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
+      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="cellIs" priority="313" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
+      <formula>AND(NOT($G39 = ""), $H39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="containsText" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="313"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="314">
+      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" priority="317" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="315">
+      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" priority="318" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83,E77:E80">
-    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
-      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83,E77:E80">
-    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="307">
-      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="308"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
-      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
-      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" priority="313" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
+      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
+      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="319">
+      <formula>AND($I43 = "", $A43 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" priority="322" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="320">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="cellIs" priority="324" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="322">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="323">
+      <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="containsText" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="324"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="325">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="326">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" priority="329" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="327">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" priority="314" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="328">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="329">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:I53">
+    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="330">
+      <formula>AND($I51 = "", $A51 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:C53">
+    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="331">
+      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:B53">
+    <cfRule type="expression" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="332">
+      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $B51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="cellIs" priority="335" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="333">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="313">
-      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="314">
-      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="expression" priority="317" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="315">
-      <formula>AND($I39 = "", $A39 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
-      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $C39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
-      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" priority="320" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
+  <conditionalFormatting sqref="H51:H53">
+    <cfRule type="expression" priority="336" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="334">
+      <formula>AND(NOT($G51 = ""), $H51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="containsText" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="335"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
+      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="337">
+      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" priority="340" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="338">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="339">
+      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="340">
+      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
+      <formula>AND($I55 = "", $A55 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="expression" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="343">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="cellIs" priority="346" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="319">
-      <formula>AND(NOT($G39 = ""), $H39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="containsText" priority="322" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="320"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
-      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="322">
-      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" priority="325" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="323">
+  <conditionalFormatting sqref="H55">
+    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
+      <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="containsText" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="346"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
+      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" priority="351" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="349">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="324">
-      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="325">
-      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="326">
-      <formula>AND($I43 = "", $A43 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="327">
-      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="328">
-      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" priority="331" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="329">
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" priority="352" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="350">
+      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y35">
+    <cfRule type="containsText" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="352"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y35">
+    <cfRule type="cellIs" priority="355" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="cellIs" priority="356" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="330">
-      <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="containsText" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="331"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="332">
-      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="333">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" priority="336" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="334">
+  <conditionalFormatting sqref="I41:I42">
+    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="355">
+      <formula>AND($I41 = "", $A41 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="containsText" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="356"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" priority="359" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
+      <formula>AND($A74="begin group", NOT($B74 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
+      <formula>AND($A74="end group", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" priority="361" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="335">
-      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:I53">
-    <cfRule type="expression" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="337">
-      <formula>AND($I51 = "", $A51 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51:C53">
-    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="338">
-      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B53">
-    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="339">
-      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $B51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" priority="342" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="340">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:H53">
-    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
-      <formula>AND(NOT($G51 = ""), $H51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="342"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="343">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
-      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" priority="347" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="360">
+      <formula>AND($A74="begin repeat", NOT($B74 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
+      <formula>AND($A74="end repeat", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="containsText" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="362"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="expression" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="363">
+      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="364">
+      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="cellIs" priority="367" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="365">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
-      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
-      <formula>AND($I55 = "", $A55 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="349">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="352" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="350">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" priority="353" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="352">
-      <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="353"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="355">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" priority="358" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="359" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="containsText" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="359"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="cellIs" priority="362" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="360">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" priority="363" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I42">
-    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="362">
-      <formula>AND($I41 = "", $A41 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="containsText" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="363"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="364">
-      <formula>AND($A74="begin group", NOT($B74 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="365">
-      <formula>AND($A74="end group", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" priority="368" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="366">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
+  <conditionalFormatting sqref="B72">
+    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="366">
+      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $B72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
     <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="367">
-      <formula>AND($A74="begin repeat", NOT($B74 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
+      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
     <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="368">
-      <formula>AND($A74="end repeat", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
+      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
     <cfRule type="containsText" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="369"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
+  <conditionalFormatting sqref="A73">
     <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="370">
-      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
+      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
     <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="371">
-      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
+      <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
     <cfRule type="cellIs" priority="374" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="372">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="expression" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="373">
-      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $B72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
+  <conditionalFormatting sqref="A73">
+    <cfRule type="cellIs" priority="375" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="373">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
     <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="374">
-      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
+      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
     <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="375">
-      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
+      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
     <cfRule type="containsText" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="376"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
+  <conditionalFormatting sqref="B73">
     <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="377">
       <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
+  <conditionalFormatting sqref="B73">
     <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="378">
       <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
+  <conditionalFormatting sqref="B73">
     <cfRule type="cellIs" priority="381" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="379">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="cellIs" priority="382" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="380">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
+  <conditionalFormatting sqref="B73">
+    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="380">
+      <formula>AND(AND(NOT($A73 = "end group"), NOT($A73 = "end repeat"), NOT($A73 = "")), $B73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
     <cfRule type="expression" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="381">
       <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
+  <conditionalFormatting sqref="B73">
     <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="382">
       <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
+  <conditionalFormatting sqref="E120">
     <cfRule type="containsText" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="383"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
+  <conditionalFormatting sqref="E120">
     <cfRule type="expression" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="384">
-      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
+      <formula>AND($A120="begin group", NOT($B120 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
     <cfRule type="expression" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="385">
-      <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
+      <formula>AND($A120="end group", $B120 = "", $C120 = "", $D120 = "", $E120 = "", $F120 = "", $G120 = "", $H120 = "", $I120 = "", $J120 = "", $K120 = "", $L120 = "", $M120 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
     <cfRule type="cellIs" priority="388" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="386">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
+  <conditionalFormatting sqref="E120">
     <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="387">
-      <formula>AND(AND(NOT($A73 = "end group"), NOT($A73 = "end repeat"), NOT($A73 = "")), $B73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
+      <formula>AND($A120="begin repeat", NOT($B120 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
     <cfRule type="expression" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="388">
-      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="389">
-      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="containsText" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="390"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
+      <formula>AND($A120="end repeat", $B120 = "", $C120 = "", $D120 = "", $E120 = "", $F120 = "", $G120 = "", $H120 = "", $I120 = "", $J120 = "", $K120 = "", $L120 = "", $M120 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="containsText" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="389"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="390">
+      <formula>AND($A121="begin group", NOT($B121 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
     <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="391">
-      <formula>AND($A120="begin group", NOT($B120 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="392">
-      <formula>AND($A120="end group", $B120 = "", $C120 = "", $D120 = "", $E120 = "", $F120 = "", $G120 = "", $H120 = "", $I120 = "", $J120 = "", $K120 = "", $L120 = "", $M120 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" priority="395" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="393">
+      <formula>AND($A121="end group", $B121 = "", $C121 = "", $D121 = "", $E121 = "", $F121 = "", $G121 = "", $H121 = "", $I121 = "", $J121 = "", $K121 = "", $L121 = "", $M121 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" priority="394" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="392">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
+  <conditionalFormatting sqref="E121">
+    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="393">
+      <formula>AND($A121="begin repeat", NOT($B121 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
     <cfRule type="expression" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="394">
-      <formula>AND($A120="begin repeat", NOT($B120 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="expression" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="395">
-      <formula>AND($A120="end repeat", $B120 = "", $C120 = "", $D120 = "", $E120 = "", $F120 = "", $G120 = "", $H120 = "", $I120 = "", $J120 = "", $K120 = "", $L120 = "", $M120 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="containsText" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="396"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
+      <formula>AND($A121="end repeat", $B121 = "", $C121 = "", $D121 = "", $E121 = "", $F121 = "", $G121 = "", $H121 = "", $I121 = "", $J121 = "", $K121 = "", $L121 = "", $M121 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="containsText" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="395"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="396">
+      <formula>AND($A122="begin group", NOT($B122 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
     <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="397">
-      <formula>AND($A121="begin group", NOT($B121 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="expression" priority="400" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="398">
-      <formula>AND($A121="end group", $B121 = "", $C121 = "", $D121 = "", $E121 = "", $F121 = "", $G121 = "", $H121 = "", $I121 = "", $J121 = "", $K121 = "", $L121 = "", $M121 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" priority="401" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="399">
+      <formula>AND($A122="end group", $B122 = "", $C122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $J122 = "", $K122 = "", $L122 = "", $M122 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" priority="400" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="398">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
+  <conditionalFormatting sqref="E122">
+    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="399">
+      <formula>AND($A122="begin repeat", NOT($B122 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
     <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="400">
-      <formula>AND($A121="begin repeat", NOT($B121 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
+      <formula>AND($A122="end repeat", $B122 = "", $C122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $J122 = "", $K122 = "", $L122 = "", $M122 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
     <cfRule type="expression" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="401">
-      <formula>AND($A121="end repeat", $B121 = "", $C121 = "", $D121 = "", $E121 = "", $F121 = "", $G121 = "", $H121 = "", $I121 = "", $J121 = "", $K121 = "", $L121 = "", $M121 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="containsText" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="402"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
+      <formula>AND($I64 = "", $A64 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="402">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
     <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="403">
-      <formula>AND($A122="begin group", NOT($B122 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="expression" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="404">
-      <formula>AND($A122="end group", $B122 = "", $C122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $J122 = "", $K122 = "", $L122 = "", $M122 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" priority="407" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="405">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="cellIs" priority="406" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="404">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="405">
+      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75">
+    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="406">
+      <formula>AND($I75 = "", $A75 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="expression" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="407">
+      <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $C75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="cellIs" priority="410" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="408">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="409">
+      <formula>AND(NOT($G75 = ""), $H75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="containsText" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="410"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="411">
+      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="412">
+      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" priority="415" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="413">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="406">
-      <formula>AND($A122="begin repeat", NOT($B122 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="expression" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="407">
-      <formula>AND($A122="end repeat", $B122 = "", $C122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $J122 = "", $K122 = "", $L122 = "", $M122 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="408">
-      <formula>AND($I64 = "", $A64 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="409">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="410">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" priority="413" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="411">
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="414">
+      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="415">
+      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="expression" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="416">
+      <formula>COUNTIF($B$2:$B$1080,B125)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="417">
+      <formula>COUNTIF($B$2:$B$984,B39)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="418">
+      <formula>COUNTIF($B$2:$B$983,B43)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120">
+    <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="419">
+      <formula>COUNTIF($B$2:$B$1084,B120)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121">
+    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="420">
+      <formula>COUNTIF($B$2:$B$1083,B121)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:B58">
+    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="421">
+      <formula>COUNTIF($B$2:$B$1072,B57)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:B70">
+    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="422">
+      <formula>COUNTIF($B$2:$B$1063,B69)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:B53">
+    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="423">
+      <formula>COUNTIF($B$2:$B$982,B51)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="424">
+      <formula>COUNTIF($B$2:$B$981,B55)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="427" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="425">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1088, "begin group") = COUNTIF($A$1:$A$1088, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="426">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1079, "begin group") = COUNTIF($A$1:$A$1088, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:B73">
+    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="427">
+      <formula>COUNTIF($B$2:$B$1085,B72)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:A53">
+    <cfRule type="cellIs" priority="430" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="247">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="412">
-      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="413">
-      <formula>AND($I75 = "", $A75 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="414">
-      <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $C75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" priority="417" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="415">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="expression" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="416">
-      <formula>AND(NOT($G75 = ""), $H75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="containsText" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="417"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="418">
-      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="419">
-      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" priority="422" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="420">
+  <conditionalFormatting sqref="E52:E53">
+    <cfRule type="containsText" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="208"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:E53">
+    <cfRule type="expression" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="209">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:E53">
+    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="210">
+      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:E53">
+    <cfRule type="cellIs" priority="434" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="211">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="421">
-      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="422">
-      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="423">
-      <formula>COUNTIF($B$2:$B$1080,B125)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="424">
-      <formula>COUNTIF($B$2:$B$984,B39)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" priority="427" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="425">
-      <formula>COUNTIF($B$2:$B$983,B43)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120">
-    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="426">
-      <formula>COUNTIF($B$2:$B$1084,B120)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121">
-    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="427">
-      <formula>COUNTIF($B$2:$B$1083,B121)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B58">
-    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="428">
-      <formula>COUNTIF($B$2:$B$1072,B57)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80:B83,B77:B78">
-    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="429">
-      <formula>COUNTIF($B$2:$B$1078,B77)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69:B70">
-    <cfRule type="expression" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="430">
-      <formula>COUNTIF($B$2:$B$1063,B69)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B53">
-    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="431">
-      <formula>COUNTIF($B$2:$B$982,B51)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="432">
-      <formula>COUNTIF($B$2:$B$981,B55)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="433">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1088, "begin group") = COUNTIF($A$1:$A$1088, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="434">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1079, "begin group") = COUNTIF($A$1:$A$1088, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B73">
-    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="435">
-      <formula>COUNTIF($B$2:$B$1085,B72)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:A53">
-    <cfRule type="cellIs" priority="438" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="247">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E52:E53">
-    <cfRule type="containsText" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="208"/>
+    <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="212">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:E53">
-    <cfRule type="expression" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="209">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E53">
-    <cfRule type="expression" priority="441" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="210">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E53">
-    <cfRule type="cellIs" priority="442" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="211">
+    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="213">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="containsText" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="428"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" priority="438" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="429">
+      <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="430">
+      <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" priority="440" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="431">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E53">
-    <cfRule type="expression" priority="443" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="212">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E53">
-    <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="213">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="containsText" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="302"/>
+    <cfRule type="expression" priority="441" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="432">
+      <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
-      <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
-      <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" priority="448" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="449" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
-      <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="450" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="307">
+    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="433">
       <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13124,1382 +13059,1404 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A114" activeCellId="0" sqref="A114"/>
+      <selection pane="bottomLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.9948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.5867346938775"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="85.8571428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="A3" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="A9" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="C11" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="C12" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="C16" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="C17" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="C18" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="C19" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="C22" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="C23" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="C24" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="C25" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="A26" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="B28" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B30" s="14" t="s">
+      <c r="C41" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B31" s="14" t="s">
+      <c r="C42" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B32" s="14" t="s">
+      <c r="C43" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
+      <c r="C47" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="B37" s="14" t="s">
+      <c r="C48" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
+      <c r="C58" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B50" s="14" t="s">
+      <c r="C59" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="B60" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="B62" s="14" t="s">
+      <c r="A62" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="B62" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="C62" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="C63" s="14" t="s">
+      <c r="A63" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
+      <c r="C63" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="B65" s="14" t="s">
+      <c r="A65" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="B65" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
+      <c r="C65" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="C66" s="14" t="s">
+      <c r="A66" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
+      <c r="C66" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="B68" s="14" t="s">
+      <c r="A68" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="B68" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
+      <c r="C68" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="B70" s="14" t="s">
+      <c r="A70" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
+      <c r="B70" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="B71" s="14" t="s">
+      <c r="A71" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="C71" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="B72" s="14" t="s">
+      <c r="C74" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="s">
+      <c r="C75" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="B75" s="14" t="s">
+      <c r="C76" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="C75" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="B76" s="14" t="s">
+      <c r="C87" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
+      <c r="C88" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
+      <c r="A89" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
+      <c r="A94" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
+      <c r="A95" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
+      <c r="A96" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
+      <c r="A97" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
+      <c r="A98" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
+      <c r="A99" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
+      <c r="A100" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
+      <c r="A101" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
+      <c r="A102" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
+      <c r="A104" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
+      <c r="A105" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
+      <c r="A106" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="B109" s="31" t="s">
         <v>440</v>
       </c>
+      <c r="B109" s="29" t="s">
+        <v>441</v>
+      </c>
       <c r="C109" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="B110" s="31" t="s">
-        <v>442</v>
+        <v>440</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>443</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="B111" s="31" t="s">
-        <v>444</v>
+        <v>440</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>445</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="B113" s="31" t="s">
         <v>447</v>
       </c>
+      <c r="B113" s="29" t="s">
+        <v>448</v>
+      </c>
       <c r="C113" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="B114" s="31" t="s">
-        <v>449</v>
+        <v>447</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>450</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14536,47 +14493,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.6785714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>453</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>456</v>
       </c>
+      <c r="E1" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="C2" s="32" t="n">
+      <c r="A2" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" s="30" t="n">
         <f aca="true">NOW()</f>
-        <v>44084.6427343747</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="F2" s="14"/>
+        <v>44098.537381879</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2" s="12"/>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/config/default/forms/app/hts_initial_test.xlsx
+++ b/config/default/forms/app/hts_initial_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="457">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -243,61 +243,52 @@
     <t xml:space="preserve">selected(${_164930_populationType_99DCT},'_164929_keyPopulation_99DCT')</t>
   </si>
   <si>
+    <t xml:space="preserve">select_multiple priority_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_160581_priorityTypeMULTISELECT_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority population type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${_164930_populationType_99DCT},'_138643_priorityPopulation_99DCT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one yes_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_164951_disability_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does client have any disability?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple disability_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_162558_disabilityTypeMULTISELECT_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disability type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${_164951_disability_99DCT},'_1065_yes_99DCT')</t>
+  </si>
+  <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">_5622_otherKeyPop_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other key population</t>
+    <t xml:space="preserve">_160632_Specify_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify other disability</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${_164929_kpTypeMULTISELECT_99DCT},'_5622_other_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple priority_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_160581_priorityTypeMULTISELECT_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority population type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${_164930_populationType_99DCT},'_138643_priorityPopulation_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one yes_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_164951_disability_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does client have any disability?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple disability_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_162558_disabilityTypeMULTISELECT_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disability type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${_164951_disability_99DCT},'_1065_yes_99DCT')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_5622_Specify_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specify other disability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${_162558_disabilityTypeMULTISELECT_99DCT},'_160632_other_99DCT')</t>
+    <t xml:space="preserve">selected(${_162558_disabilityTypeMULTISELECT_99DCT},'_5622_otherDisability_99DCT')</t>
   </si>
   <si>
     <t xml:space="preserve">_164401_everTestedByProvider_99DCT</t>
@@ -366,13 +357,13 @@
     <t xml:space="preserve">if(${facility_testing} !=’’, ${facility_testing}, ${community_testing})</t>
   </si>
   <si>
-    <t xml:space="preserve">_5622_otherStrategyUsed_99DCT</t>
+    <t xml:space="preserve">_163761_otherStrategyUsed_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">Other strategy used</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${_164956_htsStrategyUsed_99DCT},'_163761_otherhts_99DCT')</t>
+    <t xml:space="preserve">selected(${_164956_htsStrategyUsed_99DCT},'_5622_otherhts_99DCT')</t>
   </si>
   <si>
     <t xml:space="preserve">select_one entry_point_facility</t>
@@ -394,15 +385,6 @@
   </si>
   <si>
     <t xml:space="preserve">if(${facility_sdp} !=’’, ${facility_sdp}, ${community_sdp})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_5622_otherEntryPoint_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other entry point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${_160540_htsEntryPoint_99DCT},'_5622_otherEntry_99DCT')</t>
   </si>
   <si>
     <t xml:space="preserve">select_one client_consent</t>
@@ -1178,7 +1160,7 @@
     <t xml:space="preserve">Physically challenged</t>
   </si>
   <si>
-    <t xml:space="preserve">_160632_other_99DCT</t>
+    <t xml:space="preserve">_5622_otherDisability_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">hts_strategy_facility</t>
@@ -1196,7 +1178,7 @@
     <t xml:space="preserve">_161557_pns_99DCT</t>
   </si>
   <si>
-    <t xml:space="preserve">_163761_otherhts_99DCT</t>
+    <t xml:space="preserve">_5622_otherhts_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">hts_strategy_community</t>
@@ -1750,7 +1732,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="434">
+  <dxfs count="429">
     <dxf>
       <font>
         <strike val="1"/>
@@ -4953,6 +4935,327 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -4994,6 +5297,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFB7B7B7"/>
       </font>
       <fill>
@@ -5034,6 +5357,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF76A5AF"/>
       </font>
       <fill>
@@ -5064,6 +5397,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
@@ -5084,6 +5437,43 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
@@ -5093,11 +5483,58 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF76A5AF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
@@ -5113,6 +5550,79 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFB7B7B7"/>
       </font>
@@ -5133,9 +5643,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5145,7 +5658,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5191,6 +5704,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF76A5AF"/>
       </font>
       <fill>
@@ -5200,534 +5733,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFC27BA0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5746,73 +5757,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5885,28 +5829,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL145"/>
+  <dimension ref="A1:AL144"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.4642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.4795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="104.035714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.780612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="84.7755102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="71.3673469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="162.081632653061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="54.3571428571429"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.3877551020408"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="64.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.3367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.515306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.4489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="111.591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3061224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="90.984693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="76.5867346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="173.959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="58.4081632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="55.0765306122449"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="69.6581632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6274,7 +6218,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -7113,7 +7057,7 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
         <v>69</v>
       </c>
@@ -7149,21 +7093,11 @@
       <c r="Y38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="8"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -7187,17 +7121,17 @@
     </row>
     <row r="40" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -7222,13 +7156,13 @@
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>62</v>
@@ -7256,17 +7190,17 @@
     </row>
     <row r="42" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -7290,19 +7224,19 @@
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="4"/>
@@ -7327,13 +7261,13 @@
     </row>
     <row r="44" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>62</v>
@@ -7359,26 +7293,26 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -7400,13 +7334,13 @@
     </row>
     <row r="46" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>62</v>
@@ -7433,15 +7367,15 @@
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>62</v>
@@ -7468,21 +7402,21 @@
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -7505,21 +7439,21 @@
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -7542,15 +7476,15 @@
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>62</v>
@@ -7560,7 +7494,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -7581,19 +7515,19 @@
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="4"/>
@@ -7616,21 +7550,21 @@
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="4"/>
@@ -7653,21 +7587,21 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="4"/>
@@ -7690,15 +7624,15 @@
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>62</v>
@@ -7708,7 +7642,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -7729,23 +7663,21 @@
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>126</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -7764,20 +7696,22 @@
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="8"/>
+      <c r="E56" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -7799,22 +7733,12 @@
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>133</v>
-      </c>
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -7837,11 +7761,21 @@
       <c r="Y57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="A58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -7863,22 +7797,20 @@
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>13</v>
+    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -7902,13 +7834,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>62</v>
@@ -7937,21 +7869,25 @@
     </row>
     <row r="61" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
+      <c r="G61" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -7970,27 +7906,23 @@
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>144</v>
-      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -8009,20 +7941,22 @@
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -8044,22 +7978,14 @@
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>150</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -8081,14 +8007,22 @@
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+    <row r="65" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -8110,19 +8044,21 @@
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>13</v>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D66" s="8"/>
+        <v>150</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="E66" s="8" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -8147,17 +8083,19 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D67" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="E67" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -8180,23 +8118,29 @@
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" s="8"/>
+        <v>154</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="E68" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
+      <c r="G68" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -8215,27 +8159,25 @@
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" s="8"/>
+        <v>157</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="E69" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F69" s="8"/>
-      <c r="G69" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>144</v>
-      </c>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -8254,20 +8196,14 @@
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>163</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -8289,18 +8225,22 @@
       <c r="X70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
+      <c r="I71" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
@@ -8323,7 +8263,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -8332,7 +8272,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -8351,22 +8291,24 @@
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" s="8"/>
+        <v>163</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="E73" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="8" t="s">
-        <v>167</v>
-      </c>
+      <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
@@ -8384,19 +8326,21 @@
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D74" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="E74" s="8" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -8421,19 +8365,19 @@
     </row>
     <row r="75" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -8456,21 +8400,21 @@
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -8493,21 +8437,21 @@
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -8530,22 +8474,20 @@
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E78" s="8" t="s">
-        <v>183</v>
-      </c>
+      <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
@@ -8567,15 +8509,15 @@
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>62</v>
@@ -8602,20 +8544,22 @@
       <c r="X79" s="8"/>
       <c r="Y79" s="8"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E80" s="8"/>
+      <c r="E80" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -8637,22 +8581,14 @@
       <c r="X80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
@@ -8674,12 +8610,16 @@
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>188</v>
+      </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
@@ -8705,14 +8645,10 @@
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>194</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -8737,14 +8673,20 @@
       <c r="Y83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
+      <c r="A84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
+      <c r="F84" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -8767,19 +8709,17 @@
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
-      <c r="F85" s="8" t="s">
-        <v>197</v>
-      </c>
+      <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -8800,19 +8740,21 @@
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
+      <c r="F86" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -8833,21 +8775,19 @@
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
-      <c r="F87" s="8" t="s">
-        <v>202</v>
-      </c>
+      <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -8868,19 +8808,21 @@
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
+      <c r="F88" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -8901,54 +8843,56 @@
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
-      <c r="W89" s="8"/>
-      <c r="X89" s="8"/>
-      <c r="Y89" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>209</v>
+        <v>162</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
@@ -8969,22 +8913,22 @@
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
     </row>
-    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -9006,22 +8950,22 @@
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
     </row>
-    <row r="92" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -9043,92 +8987,92 @@
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
     </row>
-    <row r="93" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B93" s="4" t="s">
+    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="W93" s="8"/>
+      <c r="X93" s="8"/>
+      <c r="Y93" s="8"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="D94" s="4"/>
+      <c r="E94" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
-      <c r="W93" s="4"/>
-      <c r="X93" s="4"/>
-      <c r="Y93" s="4"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="8"/>
-      <c r="S94" s="8"/>
-      <c r="T94" s="8"/>
-      <c r="U94" s="8"/>
-      <c r="V94" s="8"/>
-      <c r="W94" s="8"/>
-      <c r="X94" s="8"/>
-      <c r="Y94" s="8"/>
+      <c r="F94" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -9152,20 +9096,20 @@
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -9187,22 +9131,22 @@
       <c r="X96" s="4"/>
       <c r="Y96" s="4"/>
     </row>
-    <row r="97" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -9224,22 +9168,22 @@
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
     </row>
-    <row r="98" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -9261,22 +9205,22 @@
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
     </row>
-    <row r="99" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -9298,22 +9242,22 @@
       <c r="X99" s="4"/>
       <c r="Y99" s="4"/>
     </row>
-    <row r="100" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -9337,20 +9281,20 @@
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -9373,91 +9317,91 @@
       <c r="Y101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="4"/>
-      <c r="W102" s="4"/>
-      <c r="X102" s="4"/>
-      <c r="Y102" s="4"/>
+      <c r="A102" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="8"/>
+      <c r="X102" s="8"/>
+      <c r="Y102" s="8"/>
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
-      <c r="T103" s="8"/>
-      <c r="U103" s="8"/>
-      <c r="V103" s="8"/>
-      <c r="W103" s="8"/>
-      <c r="X103" s="8"/>
-      <c r="Y103" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -9481,20 +9425,20 @@
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -9518,20 +9462,20 @@
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -9555,20 +9499,20 @@
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -9592,20 +9536,20 @@
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -9629,20 +9573,20 @@
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -9666,20 +9610,20 @@
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -9703,20 +9647,20 @@
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -9738,22 +9682,22 @@
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
     </row>
-    <row r="112" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -9777,20 +9721,20 @@
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -9814,54 +9758,54 @@
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B114" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="8"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="8"/>
+      <c r="W114" s="8"/>
+      <c r="X114" s="8"/>
+      <c r="Y114" s="8"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C114" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-      <c r="O114" s="4"/>
-      <c r="P114" s="4"/>
-      <c r="Q114" s="4"/>
-      <c r="R114" s="4"/>
-      <c r="S114" s="4"/>
-      <c r="T114" s="4"/>
-      <c r="U114" s="4"/>
-      <c r="V114" s="4"/>
-      <c r="W114" s="4"/>
-      <c r="X114" s="4"/>
-      <c r="Y114" s="4"/>
-    </row>
-    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D115" s="8"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="8"/>
+      <c r="F115" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
@@ -9882,22 +9826,22 @@
       <c r="X115" s="8"/>
       <c r="Y115" s="8"/>
     </row>
-    <row r="116" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
@@ -9919,22 +9863,22 @@
       <c r="X116" s="8"/>
       <c r="Y116" s="8"/>
     </row>
-    <row r="117" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
@@ -9956,23 +9900,19 @@
       <c r="X117" s="8"/>
       <c r="Y117" s="8"/>
     </row>
-    <row r="118" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="s">
-        <v>168</v>
+    <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D118" s="8"/>
-      <c r="E118" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>213</v>
-      </c>
+      <c r="E118" s="4"/>
+      <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -9994,18 +9934,22 @@
       <c r="Y118" s="8"/>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8" t="s">
-        <v>168</v>
+      <c r="A119" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D119" s="8"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="8"/>
+      <c r="E119" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
@@ -10026,22 +9970,22 @@
       <c r="X119" s="8"/>
       <c r="Y119" s="8"/>
     </row>
-    <row r="120" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
@@ -10063,22 +10007,22 @@
       <c r="X120" s="8"/>
       <c r="Y120" s="8"/>
     </row>
-    <row r="121" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
@@ -10100,23 +10044,19 @@
       <c r="X121" s="8"/>
       <c r="Y121" s="8"/>
     </row>
-    <row r="122" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="s">
-        <v>168</v>
+    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D122" s="8"/>
-      <c r="E122" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>213</v>
-      </c>
+      <c r="E122" s="4"/>
+      <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -10138,18 +10078,22 @@
       <c r="Y122" s="8"/>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8" t="s">
-        <v>168</v>
+      <c r="A123" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="D123" s="8"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="8"/>
+      <c r="E123" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -10172,20 +10116,20 @@
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
@@ -10209,20 +10153,20 @@
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
@@ -10244,23 +10188,21 @@
       <c r="X125" s="8"/>
       <c r="Y125" s="8"/>
     </row>
-    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="s">
-        <v>168</v>
+    <row r="126" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>213</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
@@ -10281,57 +10223,59 @@
       <c r="X126" s="8"/>
       <c r="Y126" s="8"/>
     </row>
-    <row r="127" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D127" s="8"/>
+    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="8"/>
-      <c r="L127" s="8"/>
-      <c r="M127" s="8"/>
-      <c r="N127" s="8"/>
-      <c r="O127" s="8"/>
-      <c r="P127" s="8"/>
-      <c r="Q127" s="8"/>
-      <c r="R127" s="8"/>
-      <c r="S127" s="8"/>
-      <c r="T127" s="8"/>
-      <c r="U127" s="8"/>
-      <c r="V127" s="8"/>
-      <c r="W127" s="8"/>
-      <c r="X127" s="8"/>
-      <c r="Y127" s="8"/>
+        <v>306</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14"/>
+      <c r="L127" s="14"/>
+      <c r="M127" s="14"/>
+      <c r="N127" s="14"/>
+      <c r="O127" s="14"/>
+      <c r="P127" s="14"/>
+      <c r="Q127" s="14"/>
+      <c r="R127" s="14"/>
+      <c r="S127" s="14"/>
+      <c r="T127" s="14"/>
+      <c r="U127" s="14"/>
+      <c r="V127" s="14"/>
+      <c r="W127" s="14"/>
+      <c r="X127" s="14"/>
+      <c r="Y127" s="14"/>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D128" s="4"/>
+        <v>308</v>
+      </c>
+      <c r="D128" s="14"/>
       <c r="E128" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
@@ -10355,20 +10299,20 @@
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
@@ -10391,91 +10335,91 @@
       <c r="Y129" s="14"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B130" s="12" t="s">
+      <c r="A130" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="8"/>
+      <c r="P130" s="8"/>
+      <c r="Q130" s="8"/>
+      <c r="R130" s="8"/>
+      <c r="S130" s="8"/>
+      <c r="T130" s="8"/>
+      <c r="U130" s="8"/>
+      <c r="V130" s="8"/>
+      <c r="W130" s="8"/>
+      <c r="X130" s="8"/>
+      <c r="Y130" s="8"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C131" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="D131" s="4"/>
+      <c r="E131" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D130" s="14"/>
-      <c r="E130" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="14"/>
-      <c r="K130" s="14"/>
-      <c r="L130" s="14"/>
-      <c r="M130" s="14"/>
-      <c r="N130" s="14"/>
-      <c r="O130" s="14"/>
-      <c r="P130" s="14"/>
-      <c r="Q130" s="14"/>
-      <c r="R130" s="14"/>
-      <c r="S130" s="14"/>
-      <c r="T130" s="14"/>
-      <c r="U130" s="14"/>
-      <c r="V130" s="14"/>
-      <c r="W130" s="14"/>
-      <c r="X130" s="14"/>
-      <c r="Y130" s="14"/>
-    </row>
-    <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
-      <c r="N131" s="8"/>
-      <c r="O131" s="8"/>
-      <c r="P131" s="8"/>
-      <c r="Q131" s="8"/>
-      <c r="R131" s="8"/>
-      <c r="S131" s="8"/>
-      <c r="T131" s="8"/>
-      <c r="U131" s="8"/>
-      <c r="V131" s="8"/>
-      <c r="W131" s="8"/>
-      <c r="X131" s="8"/>
-      <c r="Y131" s="8"/>
+      <c r="F131" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14"/>
+      <c r="O131" s="14"/>
+      <c r="P131" s="14"/>
+      <c r="Q131" s="14"/>
+      <c r="R131" s="14"/>
+      <c r="S131" s="14"/>
+      <c r="T131" s="14"/>
+      <c r="U131" s="14"/>
+      <c r="V131" s="14"/>
+      <c r="W131" s="14"/>
+      <c r="X131" s="14"/>
+      <c r="Y131" s="14"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="D132" s="4"/>
+        <v>319</v>
+      </c>
+      <c r="D132" s="14"/>
       <c r="E132" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
@@ -10499,20 +10443,20 @@
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G133" s="14"/>
       <c r="H133" s="14"/>
@@ -10536,388 +10480,351 @@
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B134" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+      <c r="R134" s="4"/>
+      <c r="S134" s="4"/>
+      <c r="T134" s="4"/>
+      <c r="U134" s="4"/>
+      <c r="V134" s="4"/>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4"/>
+      <c r="Y134" s="4"/>
+    </row>
+    <row r="135" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="C135" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="D134" s="14"/>
-      <c r="E134" s="4" t="s">
+      <c r="D135" s="15"/>
+      <c r="E135" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F135" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="F134" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14"/>
-      <c r="L134" s="14"/>
-      <c r="M134" s="14"/>
-      <c r="N134" s="14"/>
-      <c r="O134" s="14"/>
-      <c r="P134" s="14"/>
-      <c r="Q134" s="14"/>
-      <c r="R134" s="14"/>
-      <c r="S134" s="14"/>
-      <c r="T134" s="14"/>
-      <c r="U134" s="14"/>
-      <c r="V134" s="14"/>
-      <c r="W134" s="14"/>
-      <c r="X134" s="14"/>
-      <c r="Y134" s="14"/>
-    </row>
-    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B135" s="12" t="s">
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+      <c r="M135" s="15"/>
+      <c r="N135" s="15"/>
+      <c r="O135" s="15"/>
+      <c r="P135" s="15"/>
+      <c r="Q135" s="15"/>
+      <c r="R135" s="15"/>
+      <c r="S135" s="15"/>
+      <c r="T135" s="15"/>
+      <c r="U135" s="15"/>
+      <c r="V135" s="15"/>
+      <c r="W135" s="15"/>
+      <c r="X135" s="15"/>
+      <c r="Y135" s="15"/>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B136" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C136" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4" t="s">
+      <c r="D136" s="5"/>
+      <c r="E136" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+      <c r="N136" s="19"/>
+      <c r="O136" s="19"/>
+      <c r="P136" s="19"/>
+      <c r="Q136" s="19"/>
+      <c r="R136" s="19"/>
+      <c r="S136" s="19"/>
+      <c r="T136" s="19"/>
+      <c r="U136" s="19"/>
+      <c r="V136" s="19"/>
+      <c r="W136" s="19"/>
+      <c r="X136" s="19"/>
+      <c r="Y136" s="19"/>
+    </row>
+    <row r="137" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
-      <c r="W135" s="4"/>
-      <c r="X135" s="4"/>
-      <c r="Y135" s="4"/>
-    </row>
-    <row r="136" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B136" s="15" t="s">
+      <c r="C137" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D137" s="15"/>
+      <c r="E137" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="F137" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="15"/>
+      <c r="L137" s="15"/>
+      <c r="M137" s="15"/>
+      <c r="N137" s="15"/>
+      <c r="O137" s="15"/>
+      <c r="P137" s="15"/>
+      <c r="Q137" s="15"/>
+      <c r="R137" s="15"/>
+      <c r="S137" s="15"/>
+      <c r="T137" s="15"/>
+      <c r="U137" s="15"/>
+      <c r="V137" s="15"/>
+      <c r="W137" s="15"/>
+      <c r="X137" s="15"/>
+      <c r="Y137" s="15"/>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="C136" s="16" t="s">
+      <c r="C138" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="D136" s="15"/>
-      <c r="E136" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F136" s="15" t="s">
+      <c r="D138" s="5"/>
+      <c r="E138" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19"/>
+      <c r="N138" s="19"/>
+      <c r="O138" s="19"/>
+      <c r="P138" s="19"/>
+      <c r="Q138" s="19"/>
+      <c r="R138" s="19"/>
+      <c r="S138" s="19"/>
+      <c r="T138" s="19"/>
+      <c r="U138" s="19"/>
+      <c r="V138" s="19"/>
+      <c r="W138" s="19"/>
+      <c r="X138" s="19"/>
+      <c r="Y138" s="19"/>
+    </row>
+    <row r="139" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B139" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="15"/>
-      <c r="M136" s="15"/>
-      <c r="N136" s="15"/>
-      <c r="O136" s="15"/>
-      <c r="P136" s="15"/>
-      <c r="Q136" s="15"/>
-      <c r="R136" s="15"/>
-      <c r="S136" s="15"/>
-      <c r="T136" s="15"/>
-      <c r="U136" s="15"/>
-      <c r="V136" s="15"/>
-      <c r="W136" s="15"/>
-      <c r="X136" s="15"/>
-      <c r="Y136" s="15"/>
-    </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B137" s="19" t="s">
+      <c r="C139" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D139" s="15"/>
+      <c r="E139" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="C137" s="19" t="s">
+      <c r="F139" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="15"/>
+      <c r="N139" s="15"/>
+      <c r="O139" s="15"/>
+      <c r="P139" s="15"/>
+      <c r="Q139" s="15"/>
+      <c r="R139" s="15"/>
+      <c r="S139" s="15"/>
+      <c r="T139" s="15"/>
+      <c r="U139" s="15"/>
+      <c r="V139" s="15"/>
+      <c r="W139" s="15"/>
+      <c r="X139" s="15"/>
+      <c r="Y139" s="15"/>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
-      <c r="L137" s="19"/>
-      <c r="M137" s="19"/>
-      <c r="N137" s="19"/>
-      <c r="O137" s="19"/>
-      <c r="P137" s="19"/>
-      <c r="Q137" s="19"/>
-      <c r="R137" s="19"/>
-      <c r="S137" s="19"/>
-      <c r="T137" s="19"/>
-      <c r="U137" s="19"/>
-      <c r="V137" s="19"/>
-      <c r="W137" s="19"/>
-      <c r="X137" s="19"/>
-      <c r="Y137" s="19"/>
-    </row>
-    <row r="138" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B138" s="15" t="s">
+      <c r="C140" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="C138" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="D138" s="15"/>
-      <c r="E138" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="F138" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
-      <c r="M138" s="15"/>
-      <c r="N138" s="15"/>
-      <c r="O138" s="15"/>
-      <c r="P138" s="15"/>
-      <c r="Q138" s="15"/>
-      <c r="R138" s="15"/>
-      <c r="S138" s="15"/>
-      <c r="T138" s="15"/>
-      <c r="U138" s="15"/>
-      <c r="V138" s="15"/>
-      <c r="W138" s="15"/>
-      <c r="X138" s="15"/>
-      <c r="Y138" s="15"/>
-    </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B139" s="19" t="s">
+      <c r="D140" s="5"/>
+      <c r="E140" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19"/>
+      <c r="L140" s="19"/>
+      <c r="M140" s="19"/>
+      <c r="N140" s="19"/>
+      <c r="O140" s="19"/>
+      <c r="P140" s="19"/>
+      <c r="Q140" s="19"/>
+      <c r="R140" s="19"/>
+      <c r="S140" s="19"/>
+      <c r="T140" s="19"/>
+      <c r="U140" s="19"/>
+      <c r="V140" s="19"/>
+      <c r="W140" s="19"/>
+      <c r="X140" s="19"/>
+      <c r="Y140" s="19"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+      <c r="Q141" s="8"/>
+      <c r="R141" s="8"/>
+      <c r="S141" s="8"/>
+      <c r="T141" s="8"/>
+      <c r="U141" s="8"/>
+      <c r="V141" s="8"/>
+      <c r="W141" s="8"/>
+      <c r="X141" s="8"/>
+      <c r="Y141" s="8"/>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="C139" s="19" t="s">
+      <c r="C142" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="22"/>
+      <c r="J142" s="22"/>
+      <c r="K142" s="22"/>
+      <c r="L142" s="22"/>
+      <c r="M142" s="22"/>
+      <c r="N142" s="22"/>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D139" s="5"/>
-      <c r="E139" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
-      <c r="L139" s="19"/>
-      <c r="M139" s="19"/>
-      <c r="N139" s="19"/>
-      <c r="O139" s="19"/>
-      <c r="P139" s="19"/>
-      <c r="Q139" s="19"/>
-      <c r="R139" s="19"/>
-      <c r="S139" s="19"/>
-      <c r="T139" s="19"/>
-      <c r="U139" s="19"/>
-      <c r="V139" s="19"/>
-      <c r="W139" s="19"/>
-      <c r="X139" s="19"/>
-      <c r="Y139" s="19"/>
-    </row>
-    <row r="140" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B140" s="15" t="s">
+      <c r="C143" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="24"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="25"/>
+      <c r="I143" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C140" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="D140" s="15"/>
-      <c r="E140" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="15"/>
-      <c r="L140" s="15"/>
-      <c r="M140" s="15"/>
-      <c r="N140" s="15"/>
-      <c r="O140" s="15"/>
-      <c r="P140" s="15"/>
-      <c r="Q140" s="15"/>
-      <c r="R140" s="15"/>
-      <c r="S140" s="15"/>
-      <c r="T140" s="15"/>
-      <c r="U140" s="15"/>
-      <c r="V140" s="15"/>
-      <c r="W140" s="15"/>
-      <c r="X140" s="15"/>
-      <c r="Y140" s="15"/>
-    </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B141" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="C141" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19"/>
-      <c r="L141" s="19"/>
-      <c r="M141" s="19"/>
-      <c r="N141" s="19"/>
-      <c r="O141" s="19"/>
-      <c r="P141" s="19"/>
-      <c r="Q141" s="19"/>
-      <c r="R141" s="19"/>
-      <c r="S141" s="19"/>
-      <c r="T141" s="19"/>
-      <c r="U141" s="19"/>
-      <c r="V141" s="19"/>
-      <c r="W141" s="19"/>
-      <c r="X141" s="19"/>
-      <c r="Y141" s="19"/>
-    </row>
-    <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="4" t="s">
+      <c r="J143" s="25"/>
+      <c r="K143" s="25"/>
+      <c r="L143" s="25"/>
+      <c r="M143" s="25"/>
+      <c r="N143" s="25"/>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
-      <c r="Q142" s="8"/>
-      <c r="R142" s="8"/>
-      <c r="S142" s="8"/>
-      <c r="T142" s="8"/>
-      <c r="U142" s="8"/>
-      <c r="V142" s="8"/>
-      <c r="W142" s="8"/>
-      <c r="X142" s="8"/>
-      <c r="Y142" s="8"/>
-    </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B143" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="C143" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="22"/>
-      <c r="E143" s="22"/>
-      <c r="F143" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G143" s="22"/>
-      <c r="H143" s="22"/>
-      <c r="I143" s="22"/>
-      <c r="J143" s="22"/>
-      <c r="K143" s="22"/>
-      <c r="L143" s="22"/>
-      <c r="M143" s="22"/>
-      <c r="N143" s="22"/>
-    </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" s="24"/>
-      <c r="E144" s="25"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="25"/>
-      <c r="H144" s="25"/>
-      <c r="I144" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="J144" s="25"/>
-      <c r="K144" s="25"/>
-      <c r="L144" s="25"/>
-      <c r="M144" s="25"/>
-      <c r="N144" s="25"/>
-    </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B145" s="22"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="22"/>
-      <c r="I145" s="22"/>
-      <c r="J145" s="22"/>
-      <c r="K145" s="22"/>
-      <c r="L145" s="22"/>
-      <c r="M145" s="22"/>
-      <c r="N145" s="22"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="22"/>
+      <c r="J144" s="22"/>
+      <c r="K144" s="22"/>
+      <c r="L144" s="22"/>
+      <c r="M144" s="22"/>
+      <c r="N144" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
@@ -10974,749 +10881,749 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
+  <conditionalFormatting sqref="A58">
     <cfRule type="containsText" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
+  <conditionalFormatting sqref="A58">
     <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
+  <conditionalFormatting sqref="A58">
     <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
+  <conditionalFormatting sqref="A64">
     <cfRule type="containsText" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
+  <conditionalFormatting sqref="A64">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
     <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
     <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
+  <conditionalFormatting sqref="A64">
     <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
+  <conditionalFormatting sqref="A64">
     <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
-      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
     <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
-      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104:E115">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103:E114">
     <cfRule type="containsText" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104:E115">
+  <conditionalFormatting sqref="E103:E114">
     <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
-      <formula>AND($A104="begin group", NOT($B104 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104:E115">
+      <formula>AND($A103="begin group", NOT($B103 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103:E114">
     <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
-      <formula>AND($A104="end group", $B104 = "", $C104 = "", $D104 = "", $E104 = "", $F104 = "", $G104 = "", $H104 = "", $I104 = "", $J104 = "", $K104 = "", $L104 = "", $M104 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104:E115">
+      <formula>AND($A103="end group", $B103 = "", $C103 = "", $D103 = "", $E103 = "", $F103 = "", $G103 = "", $H103 = "", $I103 = "", $J103 = "", $K103 = "", $L103 = "", $M103 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103:E114">
     <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104:E115">
+  <conditionalFormatting sqref="E103:E114">
     <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
-      <formula>AND($A104="begin repeat", NOT($B104 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104:E115">
+      <formula>AND($A103="begin repeat", NOT($B103 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103:E114">
     <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
-      <formula>AND($A104="end repeat", $B104 = "", $C104 = "", $D104 = "", $E104 = "", $F104 = "", $G104 = "", $H104 = "", $I104 = "", $J104 = "", $K104 = "", $L104 = "", $M104 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
+      <formula>AND($A103="end repeat", $B103 = "", $C103 = "", $D103 = "", $E103 = "", $F103 = "", $G103 = "", $H103 = "", $I103 = "", $J103 = "", $K103 = "", $L103 = "", $M103 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
     <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A117:Y117">
+  <conditionalFormatting sqref="A116:Y116">
     <cfRule type="containsText" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A117:Y117">
+  <conditionalFormatting sqref="A116:Y116">
     <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
-      <formula>AND($A117="begin group", NOT($B117 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117:Y117">
+      <formula>AND($A116="begin group", NOT($B116 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116:Y116">
     <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
-      <formula>AND($A117="end group", $B117 = "", $C117 = "", $D117 = "", $E117 = "", $F117 = "", $G117 = "", $H117 = "", $I117 = "", $J117 = "", $K117 = "", $L117 = "", $M117 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117:Y117">
+      <formula>AND($A116="end group", $B116 = "", $C116 = "", $D116 = "", $E116 = "", $F116 = "", $G116 = "", $H116 = "", $I116 = "", $J116 = "", $K116 = "", $L116 = "", $M116 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116:Y116">
     <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I117">
+  <conditionalFormatting sqref="I116">
     <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
-      <formula>AND($I117 = "", $A117 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
+      <formula>AND($I116 = "", $A116 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
     <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>AND(AND(NOT($A117 = "end group"), NOT($A117 = "end repeat"), NOT($A117 = "")), $C117 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117">
+      <formula>AND(AND(NOT($A116 = "end group"), NOT($A116 = "end repeat"), NOT($A116 = "")), $C116 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116">
     <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
-      <formula>AND(AND(NOT($A117 = "end group"), NOT($A117 = "end repeat"), NOT($A117 = "")), $B117 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117">
+      <formula>AND(AND(NOT($A116 = "end group"), NOT($A116 = "end repeat"), NOT($A116 = "")), $B116 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116">
     <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117">
+  <conditionalFormatting sqref="H116">
     <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND(NOT($G117 = ""), $H117 = "")</formula>
+      <formula>AND(NOT($G116 = ""), $H116 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116:Y116">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+      <formula>AND($A116="begin repeat", NOT($B116 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116:Y116">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>AND($A116="end repeat", $B116 = "", $C116 = "", $D116 = "", $E116 = "", $F116 = "", $G116 = "", $H116 = "", $I116 = "", $J116 = "", $K116 = "", $L116 = "", $M116 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:Y117">
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>AND($A117="begin repeat", NOT($B117 = ""))</formula>
-    </cfRule>
+    <cfRule type="containsText" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:Y117">
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND($A117="end repeat", $B117 = "", $C117 = "", $D117 = "", $E117 = "", $F117 = "", $G117 = "", $H117 = "", $I117 = "", $J117 = "", $K117 = "", $L117 = "", $M117 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118:Y118">
-    <cfRule type="containsText" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118:Y118">
     <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND($A118="begin group", NOT($B118 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118:Y118">
+      <formula>AND($A117="begin group", NOT($B117 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:Y117">
     <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>AND($A118="end group", $B118 = "", $C118 = "", $D118 = "", $E118 = "", $F118 = "", $G118 = "", $H118 = "", $I118 = "", $J118 = "", $K118 = "", $L118 = "", $M118 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118:Y118">
+      <formula>AND($A117="end group", $B117 = "", $C117 = "", $D117 = "", $E117 = "", $F117 = "", $G117 = "", $H117 = "", $I117 = "", $J117 = "", $K117 = "", $L117 = "", $M117 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:Y117">
     <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I118">
+  <conditionalFormatting sqref="I117">
     <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
-      <formula>AND($I118 = "", $A118 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
+      <formula>AND($I117 = "", $A117 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
     <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
-      <formula>AND(AND(NOT($A118 = "end group"), NOT($A118 = "end repeat"), NOT($A118 = "")), $C118 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B118">
+      <formula>AND(AND(NOT($A117 = "end group"), NOT($A117 = "end repeat"), NOT($A117 = "")), $C117 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117">
     <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
-      <formula>AND(AND(NOT($A118 = "end group"), NOT($A118 = "end repeat"), NOT($A118 = "")), $B118 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118">
+      <formula>AND(AND(NOT($A117 = "end group"), NOT($A117 = "end repeat"), NOT($A117 = "")), $B117 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117">
     <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
+  <conditionalFormatting sqref="H117">
     <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
-      <formula>AND(NOT($G118 = ""), $H118 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118:Y118">
+      <formula>AND(NOT($G117 = ""), $H117 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:Y117">
     <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
-      <formula>AND($A118="begin repeat", NOT($B118 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118:Y118">
+      <formula>AND($A117="begin repeat", NOT($B117 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:Y117">
     <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>AND($A118="end repeat", $B118 = "", $C118 = "", $D118 = "", $E118 = "", $F118 = "", $G118 = "", $H118 = "", $I118 = "", $J118 = "", $K118 = "", $L118 = "", $M118 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I120">
+      <formula>AND($A117="end repeat", $B117 = "", $C117 = "", $D117 = "", $E117 = "", $F117 = "", $G117 = "", $H117 = "", $I117 = "", $J117 = "", $K117 = "", $L117 = "", $M117 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I119">
     <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
-      <formula>AND($I120 = "", $A120 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
+      <formula>AND($I119 = "", $A119 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
     <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
-      <formula>AND(AND(NOT($A120 = "end group"), NOT($A120 = "end repeat"), NOT($A120 = "")), $C120 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120">
+      <formula>AND(AND(NOT($A119 = "end group"), NOT($A119 = "end repeat"), NOT($A119 = "")), $C119 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119">
     <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
-      <formula>AND(AND(NOT($A120 = "end group"), NOT($A120 = "end repeat"), NOT($A120 = "")), $B120 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120">
+      <formula>AND(AND(NOT($A119 = "end group"), NOT($A119 = "end repeat"), NOT($A119 = "")), $B119 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119">
     <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H120">
+  <conditionalFormatting sqref="H119">
     <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
-      <formula>AND(NOT($G120 = ""), $H120 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I121">
+      <formula>AND(NOT($G119 = ""), $H119 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I120">
     <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
-      <formula>AND($I121 = "", $A121 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
+      <formula>AND($I120 = "", $A120 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
     <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
-      <formula>AND(AND(NOT($A121 = "end group"), NOT($A121 = "end repeat"), NOT($A121 = "")), $C121 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121">
+      <formula>AND(AND(NOT($A120 = "end group"), NOT($A120 = "end repeat"), NOT($A120 = "")), $C120 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120">
     <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
-      <formula>AND(AND(NOT($A121 = "end group"), NOT($A121 = "end repeat"), NOT($A121 = "")), $B121 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
+      <formula>AND(AND(NOT($A120 = "end group"), NOT($A120 = "end repeat"), NOT($A120 = "")), $B120 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
     <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H121">
+  <conditionalFormatting sqref="H120">
     <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
-      <formula>AND(NOT($G121 = ""), $H121 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I122">
+      <formula>AND(NOT($G120 = ""), $H120 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I121">
     <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
-      <formula>AND($I122 = "", $A122 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
+      <formula>AND($I121 = "", $A121 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
     <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
-      <formula>AND(AND(NOT($A122 = "end group"), NOT($A122 = "end repeat"), NOT($A122 = "")), $C122 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
+      <formula>AND(AND(NOT($A121 = "end group"), NOT($A121 = "end repeat"), NOT($A121 = "")), $C121 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121">
     <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
-      <formula>AND(AND(NOT($A122 = "end group"), NOT($A122 = "end repeat"), NOT($A122 = "")), $B122 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A122">
+      <formula>AND(AND(NOT($A121 = "end group"), NOT($A121 = "end repeat"), NOT($A121 = "")), $B121 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
     <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122">
+  <conditionalFormatting sqref="H121">
     <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>AND(NOT($G122 = ""), $H122 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:Y124">
+      <formula>AND(NOT($G121 = ""), $H121 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123:Y123">
     <cfRule type="containsText" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124:Y124">
+  <conditionalFormatting sqref="A123:Y123">
     <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
-      <formula>AND($A124="begin group", NOT($B124 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:Y124">
+      <formula>AND($A123="begin group", NOT($B123 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123:Y123">
     <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
-      <formula>AND($A124="end group", $B124 = "", $C124 = "", $D124 = "", $E124 = "", $F124 = "", $G124 = "", $H124 = "", $I124 = "", $J124 = "", $K124 = "", $L124 = "", $M124 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:Y124">
+      <formula>AND($A123="end group", $B123 = "", $C123 = "", $D123 = "", $E123 = "", $F123 = "", $G123 = "", $H123 = "", $I123 = "", $J123 = "", $K123 = "", $L123 = "", $M123 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123:Y123">
     <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I124">
+  <conditionalFormatting sqref="I123">
     <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
-      <formula>AND($I124 = "", $A124 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
+      <formula>AND($I123 = "", $A123 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
     <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
-      <formula>AND(AND(NOT($A124 = "end group"), NOT($A124 = "end repeat"), NOT($A124 = "")), $C124 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
+      <formula>AND(AND(NOT($A123 = "end group"), NOT($A123 = "end repeat"), NOT($A123 = "")), $C123 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
     <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
-      <formula>AND(AND(NOT($A124 = "end group"), NOT($A124 = "end repeat"), NOT($A124 = "")), $B124 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124">
+      <formula>AND(AND(NOT($A123 = "end group"), NOT($A123 = "end repeat"), NOT($A123 = "")), $B123 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
     <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H124">
+  <conditionalFormatting sqref="H123">
     <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
-      <formula>AND(NOT($G124 = ""), $H124 = "")</formula>
+      <formula>AND(NOT($G123 = ""), $H123 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123:Y123">
+    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
+      <formula>AND($A123="begin repeat", NOT($B123 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123:Y123">
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
+      <formula>AND($A123="end repeat", $B123 = "", $C123 = "", $D123 = "", $E123 = "", $F123 = "", $G123 = "", $H123 = "", $I123 = "", $J123 = "", $K123 = "", $L123 = "", $M123 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:Y124">
-    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
-      <formula>AND($A124="begin repeat", NOT($B124 = ""))</formula>
-    </cfRule>
+    <cfRule type="containsText" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:Y124">
-    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
-      <formula>AND($A124="end repeat", $B124 = "", $C124 = "", $D124 = "", $E124 = "", $F124 = "", $G124 = "", $H124 = "", $I124 = "", $J124 = "", $K124 = "", $L124 = "", $M124 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A125:Y125">
-    <cfRule type="containsText" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A125:Y125">
     <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
-      <formula>AND($A125="begin group", NOT($B125 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A125:Y125">
+      <formula>AND($A124="begin group", NOT($B124 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:Y124">
     <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
-      <formula>AND($A125="end group", $B125 = "", $C125 = "", $D125 = "", $E125 = "", $F125 = "", $G125 = "", $H125 = "", $I125 = "", $J125 = "", $K125 = "", $L125 = "", $M125 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A125:Y125">
+      <formula>AND($A124="end group", $B124 = "", $C124 = "", $D124 = "", $E124 = "", $F124 = "", $G124 = "", $H124 = "", $I124 = "", $J124 = "", $K124 = "", $L124 = "", $M124 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:Y124">
     <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I125">
+  <conditionalFormatting sqref="I124">
     <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
-      <formula>AND($I125 = "", $A125 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
+      <formula>AND($I124 = "", $A124 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
     <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
-      <formula>AND(AND(NOT($A125 = "end group"), NOT($A125 = "end repeat"), NOT($A125 = "")), $C125 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+      <formula>AND(AND(NOT($A124 = "end group"), NOT($A124 = "end repeat"), NOT($A124 = "")), $C124 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
     <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
-      <formula>AND(AND(NOT($A125 = "end group"), NOT($A125 = "end repeat"), NOT($A125 = "")), $B125 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A125">
+      <formula>AND(AND(NOT($A124 = "end group"), NOT($A124 = "end repeat"), NOT($A124 = "")), $B124 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124">
     <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
+  <conditionalFormatting sqref="H124">
     <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
-      <formula>AND(NOT($G125 = ""), $H125 = "")</formula>
+      <formula>AND(NOT($G124 = ""), $H124 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:Y124">
+    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="86">
+      <formula>AND($A124="begin repeat", NOT($B124 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:Y124">
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
+      <formula>AND($A124="end repeat", $B124 = "", $C124 = "", $D124 = "", $E124 = "", $F124 = "", $G124 = "", $H124 = "", $I124 = "", $J124 = "", $K124 = "", $L124 = "", $M124 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:Y125">
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="86">
-      <formula>AND($A125="begin repeat", NOT($B125 = ""))</formula>
-    </cfRule>
+    <cfRule type="containsText" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:Y125">
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
-      <formula>AND($A125="end repeat", $B125 = "", $C125 = "", $D125 = "", $E125 = "", $F125 = "", $G125 = "", $H125 = "", $I125 = "", $J125 = "", $K125 = "", $L125 = "", $M125 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:Y126">
-    <cfRule type="containsText" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:Y126">
     <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
-      <formula>AND($A126="begin group", NOT($B126 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:Y126">
+      <formula>AND($A125="begin group", NOT($B125 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125:Y125">
     <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
-      <formula>AND($A126="end group", $B126 = "", $C126 = "", $D126 = "", $E126 = "", $F126 = "", $G126 = "", $H126 = "", $I126 = "", $J126 = "", $K126 = "", $L126 = "", $M126 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:Y126">
+      <formula>AND($A125="end group", $B125 = "", $C125 = "", $D125 = "", $E125 = "", $F125 = "", $G125 = "", $H125 = "", $I125 = "", $J125 = "", $K125 = "", $L125 = "", $M125 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125:Y125">
     <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I126">
+  <conditionalFormatting sqref="I125">
     <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
-      <formula>AND($I126 = "", $A126 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
+      <formula>AND($I125 = "", $A125 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
     <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
-      <formula>AND(AND(NOT($A126 = "end group"), NOT($A126 = "end repeat"), NOT($A126 = "")), $C126 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
+      <formula>AND(AND(NOT($A125 = "end group"), NOT($A125 = "end repeat"), NOT($A125 = "")), $C125 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
     <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
-      <formula>AND(AND(NOT($A126 = "end group"), NOT($A126 = "end repeat"), NOT($A126 = "")), $B126 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
+      <formula>AND(AND(NOT($A125 = "end group"), NOT($A125 = "end repeat"), NOT($A125 = "")), $B125 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125">
     <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H126">
+  <conditionalFormatting sqref="H125">
     <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
-      <formula>AND(NOT($G126 = ""), $H126 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:Y126">
+      <formula>AND(NOT($G125 = ""), $H125 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125:Y125">
     <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="97">
-      <formula>AND($A126="begin repeat", NOT($B126 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:Y126">
+      <formula>AND($A125="begin repeat", NOT($B125 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125:Y125">
     <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="98">
-      <formula>AND($A126="end repeat", $B126 = "", $C126 = "", $D126 = "", $E126 = "", $F126 = "", $G126 = "", $H126 = "", $I126 = "", $J126 = "", $K126 = "", $L126 = "", $M126 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131:Y131">
+      <formula>AND($A125="end repeat", $B125 = "", $C125 = "", $D125 = "", $E125 = "", $F125 = "", $G125 = "", $H125 = "", $I125 = "", $J125 = "", $K125 = "", $L125 = "", $M125 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130:Y130">
     <cfRule type="containsText" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A131:Y131">
+  <conditionalFormatting sqref="A130:Y130">
     <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100">
-      <formula>AND($A131="begin group", NOT($B131 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131:Y131">
+      <formula>AND($A130="begin group", NOT($B130 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130:Y130">
     <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="101">
-      <formula>AND($A131="end group", $B131 = "", $C131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $I131 = "", $J131 = "", $K131 = "", $L131 = "", $M131 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131:Y131">
+      <formula>AND($A130="end group", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130:Y130">
     <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I131">
+  <conditionalFormatting sqref="I130">
     <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103">
-      <formula>AND($I131 = "", $A131 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
+      <formula>AND($I130 = "", $A130 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
     <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="104">
-      <formula>AND(AND(NOT($A131 = "end group"), NOT($A131 = "end repeat"), NOT($A131 = "")), $C131 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
+      <formula>AND(AND(NOT($A130 = "end group"), NOT($A130 = "end repeat"), NOT($A130 = "")), $C130 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
     <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="105">
-      <formula>AND(AND(NOT($A131 = "end group"), NOT($A131 = "end repeat"), NOT($A131 = "")), $B131 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131">
+      <formula>AND(AND(NOT($A130 = "end group"), NOT($A130 = "end repeat"), NOT($A130 = "")), $B130 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130">
     <cfRule type="cellIs" priority="108" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="106">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H131">
+  <conditionalFormatting sqref="H130">
     <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107">
-      <formula>AND(NOT($G131 = ""), $H131 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131:Y131">
+      <formula>AND(NOT($G130 = ""), $H130 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130:Y130">
     <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="108">
-      <formula>AND($A131="begin repeat", NOT($B131 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131:Y131">
+      <formula>AND($A130="begin repeat", NOT($B130 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130:Y130">
     <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109">
-      <formula>AND($A131="end repeat", $B131 = "", $C131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $I131 = "", $J131 = "", $K131 = "", $L131 = "", $M131 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
+      <formula>AND($A130="end repeat", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141">
     <cfRule type="containsText" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="110"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
+  <conditionalFormatting sqref="A141">
     <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="111">
-      <formula>AND($A142="begin group", NOT($B142 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
+      <formula>AND($A141="begin group", NOT($B141 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141">
     <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="112">
-      <formula>AND($A142="end group", $B142 = "", $C142 = "", $D142 = "", $E142 = "", $F142 = "", $G142 = "", $H142 = "", $I142 = "", $J142 = "", $K142 = "", $L142 = "", $M142 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
+      <formula>AND($A141="end group", $B141 = "", $C141 = "", $D141 = "", $E141 = "", $F141 = "", $G141 = "", $H141 = "", $I141 = "", $J141 = "", $K141 = "", $L141 = "", $M141 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141">
     <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="113">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
+  <conditionalFormatting sqref="A141">
     <cfRule type="cellIs" priority="116" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
+  <conditionalFormatting sqref="A141">
     <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115">
-      <formula>AND($A142="begin repeat", NOT($B142 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
+      <formula>AND($A141="begin repeat", NOT($B141 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141">
     <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116">
-      <formula>AND($A142="end repeat", $B142 = "", $C142 = "", $D142 = "", $E142 = "", $F142 = "", $G142 = "", $H142 = "", $I142 = "", $J142 = "", $K142 = "", $L142 = "", $M142 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I128:I130">
+      <formula>AND($A141="end repeat", $B141 = "", $C141 = "", $D141 = "", $E141 = "", $F141 = "", $G141 = "", $H141 = "", $I141 = "", $J141 = "", $K141 = "", $L141 = "", $M141 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I127:I129">
     <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117">
-      <formula>AND($I128 = "", $A128 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129:C130">
+      <formula>AND($I127 = "", $A127 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128:C129">
     <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118">
-      <formula>AND(AND(NOT($A129 = "end group"), NOT($A129 = "end repeat"), NOT($A129 = "")), $C129 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129:B130">
+      <formula>AND(AND(NOT($A128 = "end group"), NOT($A128 = "end repeat"), NOT($A128 = "")), $C128 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:B129">
     <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
-      <formula>AND(AND(NOT($A129 = "end group"), NOT($A129 = "end repeat"), NOT($A129 = "")), $B129 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:A130">
+      <formula>AND(AND(NOT($A128 = "end group"), NOT($A128 = "end repeat"), NOT($A128 = "")), $B128 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127:A129">
     <cfRule type="cellIs" priority="122" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="120">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H128:H130">
+  <conditionalFormatting sqref="H127:H129">
     <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121">
-      <formula>AND(NOT($G128 = ""), $H128 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127:Y127">
+      <formula>AND(NOT($G127 = ""), $H127 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:Y126">
     <cfRule type="containsText" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="122"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127:Y127">
+  <conditionalFormatting sqref="A126:Y126">
     <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="123">
-      <formula>AND($A127="begin group", NOT($B127 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127:Y127">
+      <formula>AND($A126="begin group", NOT($B126 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:Y126">
     <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="124">
-      <formula>AND($A127="end group", $B127 = "", $C127 = "", $D127 = "", $E127 = "", $F127 = "", $G127 = "", $H127 = "", $I127 = "", $J127 = "", $K127 = "", $L127 = "", $M127 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127:Y127">
+      <formula>AND($A126="end group", $B126 = "", $C126 = "", $D126 = "", $E126 = "", $F126 = "", $G126 = "", $H126 = "", $I126 = "", $J126 = "", $K126 = "", $L126 = "", $M126 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:Y126">
     <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="125">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I127">
+  <conditionalFormatting sqref="I126">
     <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="126">
-      <formula>AND($I127 = "", $A127 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
+      <formula>AND($I126 = "", $A126 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
     <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
-      <formula>AND(AND(NOT($A127 = "end group"), NOT($A127 = "end repeat"), NOT($A127 = "")), $C127 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
+      <formula>AND(AND(NOT($A126 = "end group"), NOT($A126 = "end repeat"), NOT($A126 = "")), $C126 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
     <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="128">
-      <formula>AND(AND(NOT($A127 = "end group"), NOT($A127 = "end repeat"), NOT($A127 = "")), $B127 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
+      <formula>AND(AND(NOT($A126 = "end group"), NOT($A126 = "end repeat"), NOT($A126 = "")), $B126 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
     <cfRule type="cellIs" priority="131" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="129">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H127">
+  <conditionalFormatting sqref="H126">
     <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="130">
-      <formula>AND(NOT($G127 = ""), $H127 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127:Y127">
+      <formula>AND(NOT($G126 = ""), $H126 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:Y126">
     <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="131">
-      <formula>AND($A127="begin repeat", NOT($B127 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127:Y127">
+      <formula>AND($A126="begin repeat", NOT($B126 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:Y126">
     <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="132">
-      <formula>AND($A127="end repeat", $B127 = "", $C127 = "", $D127 = "", $E127 = "", $F127 = "", $G127 = "", $H127 = "", $I127 = "", $J127 = "", $K127 = "", $L127 = "", $M127 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+      <formula>AND($A126="end repeat", $B126 = "", $C126 = "", $D126 = "", $E126 = "", $F126 = "", $G126 = "", $H126 = "", $I126 = "", $J126 = "", $K126 = "", $L126 = "", $M126 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
     <cfRule type="containsText" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="133"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+  <conditionalFormatting sqref="E118">
     <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="134">
-      <formula>AND($A119="begin group", NOT($B119 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+      <formula>AND($A118="begin group", NOT($B118 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
     <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="135">
-      <formula>AND($A119="end group", $B119 = "", $C119 = "", $D119 = "", $E119 = "", $F119 = "", $G119 = "", $H119 = "", $I119 = "", $J119 = "", $K119 = "", $L119 = "", $M119 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+      <formula>AND($A118="end group", $B118 = "", $C118 = "", $D118 = "", $E118 = "", $F118 = "", $G118 = "", $H118 = "", $I118 = "", $J118 = "", $K118 = "", $L118 = "", $M118 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
     <cfRule type="cellIs" priority="138" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="136">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+  <conditionalFormatting sqref="E118">
     <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="137">
-      <formula>AND($A119="begin repeat", NOT($B119 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+      <formula>AND($A118="begin repeat", NOT($B118 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
     <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="138">
-      <formula>AND($A119="end repeat", $B119 = "", $C119 = "", $D119 = "", $E119 = "", $F119 = "", $G119 = "", $H119 = "", $I119 = "", $J119 = "", $K119 = "", $L119 = "", $M119 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+      <formula>AND($A118="end repeat", $B118 = "", $C118 = "", $D118 = "", $E118 = "", $F118 = "", $G118 = "", $H118 = "", $I118 = "", $J118 = "", $K118 = "", $L118 = "", $M118 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
     <cfRule type="containsText" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="139"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+  <conditionalFormatting sqref="E118">
     <cfRule type="expression" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="140">
-      <formula>AND($A119="begin group", NOT($B119 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+      <formula>AND($A118="begin group", NOT($B118 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
     <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="141">
-      <formula>AND($A119="end group", $B119 = "", $C119 = "", $D119 = "", $E119 = "", $F119 = "", $G119 = "", $H119 = "", $I119 = "", $J119 = "", $K119 = "", $L119 = "", $M119 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+      <formula>AND($A118="end group", $B118 = "", $C118 = "", $D118 = "", $E118 = "", $F118 = "", $G118 = "", $H118 = "", $I118 = "", $J118 = "", $K118 = "", $L118 = "", $M118 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
     <cfRule type="cellIs" priority="144" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="142">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+  <conditionalFormatting sqref="E118">
     <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="143">
-      <formula>AND($A119="begin repeat", NOT($B119 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+      <formula>AND($A118="begin repeat", NOT($B118 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
     <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="144">
-      <formula>AND($A119="end repeat", $B119 = "", $C119 = "", $D119 = "", $E119 = "", $F119 = "", $G119 = "", $H119 = "", $I119 = "", $J119 = "", $K119 = "", $L119 = "", $M119 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I119">
+      <formula>AND($A118="end repeat", $B118 = "", $C118 = "", $D118 = "", $E118 = "", $F118 = "", $G118 = "", $H118 = "", $I118 = "", $J118 = "", $K118 = "", $L118 = "", $M118 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I118">
     <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="145">
-      <formula>AND($I119 = "", $A119 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
+      <formula>AND($I118 = "", $A118 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
     <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="146">
-      <formula>AND(AND(NOT($A119 = "end group"), NOT($A119 = "end repeat"), NOT($A119 = "")), $C119 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B119">
+      <formula>AND(AND(NOT($A118 = "end group"), NOT($A118 = "end repeat"), NOT($A118 = "")), $C118 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B118">
     <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="147">
-      <formula>AND(AND(NOT($A119 = "end group"), NOT($A119 = "end repeat"), NOT($A119 = "")), $B119 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
+      <formula>AND(AND(NOT($A118 = "end group"), NOT($A118 = "end repeat"), NOT($A118 = "")), $B118 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118">
     <cfRule type="cellIs" priority="150" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H119">
+  <conditionalFormatting sqref="H118">
     <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="149">
-      <formula>AND(NOT($G119 = ""), $H119 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
+      <formula>AND(NOT($G118 = ""), $H118 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
     <cfRule type="containsText" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="150"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
+  <conditionalFormatting sqref="E122">
     <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="151">
-      <formula>AND($A123="begin group", NOT($B123 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
+      <formula>AND($A122="begin group", NOT($B122 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
     <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="152">
-      <formula>AND($A123="end group", $B123 = "", $C123 = "", $D123 = "", $E123 = "", $F123 = "", $G123 = "", $H123 = "", $I123 = "", $J123 = "", $K123 = "", $L123 = "", $M123 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
+      <formula>AND($A122="end group", $B122 = "", $C122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $J122 = "", $K122 = "", $L122 = "", $M122 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
     <cfRule type="cellIs" priority="155" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="153">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
+  <conditionalFormatting sqref="E122">
     <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="154">
-      <formula>AND($A123="begin repeat", NOT($B123 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
+      <formula>AND($A122="begin repeat", NOT($B122 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
     <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="155">
-      <formula>AND($A123="end repeat", $B123 = "", $C123 = "", $D123 = "", $E123 = "", $F123 = "", $G123 = "", $H123 = "", $I123 = "", $J123 = "", $K123 = "", $L123 = "", $M123 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
+      <formula>AND($A122="end repeat", $B122 = "", $C122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $J122 = "", $K122 = "", $L122 = "", $M122 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
     <cfRule type="containsText" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="156"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
+  <conditionalFormatting sqref="E122">
     <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="157">
-      <formula>AND($A123="begin group", NOT($B123 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
+      <formula>AND($A122="begin group", NOT($B122 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
     <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="158">
-      <formula>AND($A123="end group", $B123 = "", $C123 = "", $D123 = "", $E123 = "", $F123 = "", $G123 = "", $H123 = "", $I123 = "", $J123 = "", $K123 = "", $L123 = "", $M123 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
+      <formula>AND($A122="end group", $B122 = "", $C122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $J122 = "", $K122 = "", $L122 = "", $M122 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
     <cfRule type="cellIs" priority="161" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="159">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
+  <conditionalFormatting sqref="E122">
     <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="160">
-      <formula>AND($A123="begin repeat", NOT($B123 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
+      <formula>AND($A122="begin repeat", NOT($B122 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
     <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="161">
-      <formula>AND($A123="end repeat", $B123 = "", $C123 = "", $D123 = "", $E123 = "", $F123 = "", $G123 = "", $H123 = "", $I123 = "", $J123 = "", $K123 = "", $L123 = "", $M123 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I123">
+      <formula>AND($A122="end repeat", $B122 = "", $C122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $J122 = "", $K122 = "", $L122 = "", $M122 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I122">
     <cfRule type="expression" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="162">
-      <formula>AND($I123 = "", $A123 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
+      <formula>AND($I122 = "", $A122 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
     <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="163">
-      <formula>AND(AND(NOT($A123 = "end group"), NOT($A123 = "end repeat"), NOT($A123 = "")), $C123 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
+      <formula>AND(AND(NOT($A122 = "end group"), NOT($A122 = "end repeat"), NOT($A122 = "")), $C122 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
     <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="164">
-      <formula>AND(AND(NOT($A123 = "end group"), NOT($A123 = "end repeat"), NOT($A123 = "")), $B123 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
+      <formula>AND(AND(NOT($A122 = "end group"), NOT($A122 = "end repeat"), NOT($A122 = "")), $B122 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122">
     <cfRule type="cellIs" priority="167" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="165">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H123">
+  <conditionalFormatting sqref="H122">
     <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="166">
-      <formula>AND(NOT($G123 = ""), $H123 = "")</formula>
+      <formula>AND(NOT($G122 = ""), $H122 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
@@ -11990,105 +11897,105 @@
       <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
+  <conditionalFormatting sqref="I55">
     <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
-      <formula>AND($I56 = "", $A56 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+      <formula>AND($I55 = "", $A55 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
     <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
-      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
     <cfRule type="cellIs" priority="228" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
+  <conditionalFormatting sqref="H55">
     <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
-      <formula>AND(NOT($G56 = ""), $H56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
+      <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
     <cfRule type="containsText" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="228"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
+  <conditionalFormatting sqref="E55">
     <cfRule type="expression" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="229">
-      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
+      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
     <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
-      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
     <cfRule type="cellIs" priority="233" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
+  <conditionalFormatting sqref="E55">
     <cfRule type="expression" priority="234" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
-      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
+      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
     <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
-      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57:I58">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56:I57">
     <cfRule type="expression" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
-      <formula>AND($I57 = "", $A57 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C58">
+      <formula>AND($I56 = "", $A56 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
     <cfRule type="expression" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="235">
-      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B58">
+      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:B57">
     <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
-      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:A58">
+      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $B56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:A57">
     <cfRule type="cellIs" priority="239" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57:H58">
+  <conditionalFormatting sqref="H56:H57">
     <cfRule type="expression" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
-      <formula>AND(NOT($G57 = ""), $H57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
+      <formula>AND(NOT($G56 = ""), $H56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E57">
     <cfRule type="containsText" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="239"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
+  <conditionalFormatting sqref="E56:E57">
     <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
-      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
+      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E57">
     <cfRule type="expression" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="241">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
+      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E57">
     <cfRule type="cellIs" priority="244" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
+  <conditionalFormatting sqref="E56:E57">
     <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="243">
-      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
+      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E57">
     <cfRule type="expression" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="244">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
@@ -12139,259 +12046,259 @@
       <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
+  <conditionalFormatting sqref="A59">
     <cfRule type="cellIs" priority="257" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:Y63">
+  <conditionalFormatting sqref="A60:Y62">
     <cfRule type="containsText" priority="258" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="256"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:Y63">
+  <conditionalFormatting sqref="A60:Y62">
     <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="257">
-      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:Y63">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y62">
     <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
-      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:Y63">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y62">
     <cfRule type="cellIs" priority="261" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="259">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:I63">
+  <conditionalFormatting sqref="I60:I62">
     <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
-      <formula>AND($I61 = "", $A61 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C63">
+      <formula>AND($I60 = "", $A60 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C62">
     <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
-      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $C61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B63">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B62">
     <cfRule type="expression" priority="264" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
-      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $B61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A63">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:A62">
     <cfRule type="cellIs" priority="265" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="263">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61:H63">
+  <conditionalFormatting sqref="H60:H62">
     <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="264">
-      <formula>AND(NOT($G61 = ""), $H61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:Y63">
+      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y62">
     <cfRule type="expression" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="265">
-      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:Y63">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y62">
     <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
-      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
     <cfRule type="containsText" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="267"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
+  <conditionalFormatting sqref="A65">
     <cfRule type="expression" priority="270" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
     <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
     <cfRule type="cellIs" priority="272" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="270">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
+  <conditionalFormatting sqref="A65">
     <cfRule type="cellIs" priority="273" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="271">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
+  <conditionalFormatting sqref="A65">
     <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
     <cfRule type="expression" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="273">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
     <cfRule type="containsText" priority="276" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="274"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
+  <conditionalFormatting sqref="E65">
     <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
     <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
     <cfRule type="cellIs" priority="279" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="277">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
+  <conditionalFormatting sqref="E65">
     <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
     <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
     <cfRule type="cellIs" priority="282" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:I70">
+  <conditionalFormatting sqref="I67:I69">
     <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
-      <formula>AND($I68 = "", $A68 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68:C70">
+      <formula>AND($I67 = "", $A67 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67:C69">
     <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
-      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69:B70">
+      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:B69">
     <cfRule type="expression" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="283">
-      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $B69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:A70">
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A69">
     <cfRule type="cellIs" priority="286" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68:H70">
+  <conditionalFormatting sqref="H67:H69">
     <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
-      <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
+      <formula>AND(NOT($G67 = ""), $H67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75">
     <cfRule type="expression" priority="288" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
-      <formula>AND($I76 = "", $A76 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
+      <formula>AND($I75 = "", $A75 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
     <cfRule type="expression" priority="289" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
-      <formula>AND(AND(NOT($A76 = "end group"), NOT($A76 = "end repeat"), NOT($A76 = "")), $C76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
+      <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $C75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
     <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
-      <formula>AND(AND(NOT($A76 = "end group"), NOT($A76 = "end repeat"), NOT($A76 = "")), $B76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
+      <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $B75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
     <cfRule type="cellIs" priority="291" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="289">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H75">
     <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="290">
-      <formula>AND(NOT($G76 = ""), $H76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
+      <formula>AND(NOT($G75 = ""), $H75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
     <cfRule type="containsText" priority="293" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="291"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
+  <conditionalFormatting sqref="E75">
     <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="292">
-      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
+      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
     <cfRule type="expression" priority="295" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
-      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
+      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
     <cfRule type="cellIs" priority="296" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="294">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
+  <conditionalFormatting sqref="E75">
     <cfRule type="expression" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="295">
-      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
+      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
     <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
-      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77:I83">
+      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76:I82">
     <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="297">
-      <formula>AND($I77 = "", $A77 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77:C83">
+      <formula>AND($I76 = "", $A76 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76:C82">
     <cfRule type="expression" priority="300" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="298">
-      <formula>AND(AND(NOT($A77 = "end group"), NOT($A77 = "end repeat"), NOT($A77 = "")), $C77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:A83">
+      <formula>AND(AND(NOT($A76 = "end group"), NOT($A76 = "end repeat"), NOT($A76 = "")), $C76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:A82">
     <cfRule type="cellIs" priority="301" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77:H83">
+  <conditionalFormatting sqref="H76:H82">
     <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
-      <formula>AND(NOT($G77 = ""), $H77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+      <formula>AND(NOT($G76 = ""), $H76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
     <cfRule type="containsText" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="301"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A70">
     <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
-      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
     <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
-      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
     <cfRule type="cellIs" priority="306" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A70">
     <cfRule type="cellIs" priority="307" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A70">
     <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
-      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
     <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="307">
-      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
@@ -12553,488 +12460,426 @@
       <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
-      <formula>AND($I55 = "", $A55 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="343">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" priority="346" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
+  <conditionalFormatting sqref="A35:Y35">
+    <cfRule type="containsText" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="341"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y35">
+    <cfRule type="cellIs" priority="344" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="cellIs" priority="345" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="343">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
-      <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="346"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
+  <conditionalFormatting sqref="I41:I42">
+    <cfRule type="expression" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
+      <formula>AND($I41 = "", $A41 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="containsText" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="345"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
+      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
     <cfRule type="expression" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" priority="351" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="349">
+      <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" priority="350" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="349">
+      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
     <cfRule type="expression" priority="352" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="350">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="containsText" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="352"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="cellIs" priority="355" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
+      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="containsText" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="351"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="352">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
+      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="cellIs" priority="356" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" priority="356" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
+  <conditionalFormatting sqref="B71">
+    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="355">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $B71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="expression" priority="359" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
+      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="containsText" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="358"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="expression" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
+      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="expression" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="360">
+      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="cellIs" priority="363" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="cellIs" priority="364" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="362">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I42">
-    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="355">
-      <formula>AND($I41 = "", $A41 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="containsText" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="356"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" priority="359" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
-      <formula>AND($A74="begin group", NOT($B74 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
-      <formula>AND($A74="end group", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" priority="361" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="360">
-      <formula>AND($A74="begin repeat", NOT($B74 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
-      <formula>AND($A74="end repeat", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="expression" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="363">
+      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="364">
+      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="containsText" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="362"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="expression" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="363">
-      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="364">
-      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" priority="367" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="365">
-      <formula>"note"</formula>
-    </cfRule>
+    <cfRule type="containsText" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
     <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="366">
-      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $B72 = "")</formula>
+      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
     <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="367">
+      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="cellIs" priority="370" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="368">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="369">
+      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $B72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="370">
       <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="368">
+    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="371">
       <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="containsText" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="369"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="370">
-      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="371">
-      <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="cellIs" priority="374" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="372">
+  <conditionalFormatting sqref="E119">
+    <cfRule type="containsText" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="372"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="expression" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="373">
+      <formula>AND($A119="begin group", NOT($B119 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="374">
+      <formula>AND($A119="end group", $B119 = "", $C119 = "", $D119 = "", $E119 = "", $F119 = "", $G119 = "", $H119 = "", $I119 = "", $J119 = "", $K119 = "", $L119 = "", $M119 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" priority="377" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="375">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="cellIs" priority="375" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="373">
+  <conditionalFormatting sqref="E119">
+    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="376">
+      <formula>AND($A119="begin repeat", NOT($B119 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="377">
+      <formula>AND($A119="end repeat", $B119 = "", $C119 = "", $D119 = "", $E119 = "", $F119 = "", $G119 = "", $H119 = "", $I119 = "", $J119 = "", $K119 = "", $L119 = "", $M119 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="containsText" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="378"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="expression" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="379">
+      <formula>AND($A120="begin group", NOT($B120 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="380">
+      <formula>AND($A120="end group", $B120 = "", $C120 = "", $D120 = "", $E120 = "", $F120 = "", $G120 = "", $H120 = "", $I120 = "", $J120 = "", $K120 = "", $L120 = "", $M120 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" priority="383" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="381">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="382">
+      <formula>AND($A120="begin repeat", NOT($B120 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="383">
+      <formula>AND($A120="end repeat", $B120 = "", $C120 = "", $D120 = "", $E120 = "", $F120 = "", $G120 = "", $H120 = "", $I120 = "", $J120 = "", $K120 = "", $L120 = "", $M120 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="containsText" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="384"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="expression" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="385">
+      <formula>AND($A121="begin group", NOT($B121 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="386">
+      <formula>AND($A121="end group", $B121 = "", $C121 = "", $D121 = "", $E121 = "", $F121 = "", $G121 = "", $H121 = "", $I121 = "", $J121 = "", $K121 = "", $L121 = "", $M121 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" priority="389" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="387">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="expression" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="388">
+      <formula>AND($A121="begin repeat", NOT($B121 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="389">
+      <formula>AND($A121="end repeat", $B121 = "", $C121 = "", $D121 = "", $E121 = "", $F121 = "", $G121 = "", $H121 = "", $I121 = "", $J121 = "", $K121 = "", $L121 = "", $M121 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="390">
+      <formula>AND($I63 = "", $A63 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="391">
+      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="392">
+      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="cellIs" priority="395" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="393">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="374">
-      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="375">
-      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="containsText" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="376"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="377">
-      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="378">
-      <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" priority="381" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="379">
+  <conditionalFormatting sqref="H63">
+    <cfRule type="expression" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="394">
+      <formula>AND(NOT($G63 = ""), $H63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74">
+    <cfRule type="expression" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="395">
+      <formula>AND($I74 = "", $A74 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74">
+    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="396">
+      <formula>AND(AND(NOT($A74 = "end group"), NOT($A74 = "end repeat"), NOT($A74 = "")), $C74 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="cellIs" priority="399" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="397">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="expression" priority="400" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="398">
+      <formula>AND(NOT($G74 = ""), $H74 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="containsText" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="399"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="400">
+      <formula>AND($A74="begin group", NOT($B74 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="401">
+      <formula>AND($A74="end group", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" priority="404" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="402">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="380">
-      <formula>AND(AND(NOT($A73 = "end group"), NOT($A73 = "end repeat"), NOT($A73 = "")), $B73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="expression" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="381">
-      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="382">
-      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="containsText" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="383"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="expression" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="384">
-      <formula>AND($A120="begin group", NOT($B120 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="expression" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="385">
-      <formula>AND($A120="end group", $B120 = "", $C120 = "", $D120 = "", $E120 = "", $F120 = "", $G120 = "", $H120 = "", $I120 = "", $J120 = "", $K120 = "", $L120 = "", $M120 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" priority="388" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="386">
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="403">
+      <formula>AND($A74="begin repeat", NOT($B74 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="404">
+      <formula>AND($A74="end repeat", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="405">
+      <formula>COUNTIF($B$2:$B$1079,B124)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="406">
+      <formula>COUNTIF($B$2:$B$983,B39)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119">
+    <cfRule type="expression" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="407">
+      <formula>COUNTIF($B$2:$B$1083,B119)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120">
+    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="408">
+      <formula>COUNTIF($B$2:$B$1082,B120)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:B57">
+    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="409">
+      <formula>COUNTIF($B$2:$B$1071,B56)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:B69">
+    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="410">
+      <formula>COUNTIF($B$2:$B$1062,B68)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="411">
+      <formula>COUNTIF($B$2:$B$982,B43)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:B53">
+    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="412">
+      <formula>COUNTIF($B$2:$B$981,B51)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B72">
+    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="413">
+      <formula>COUNTIF($B$2:$B$1084,B71)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:A53">
+    <cfRule type="cellIs" priority="416" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="414">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:E53">
+    <cfRule type="containsText" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="415"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:E53">
+    <cfRule type="expression" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="416">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:E53">
+    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="417">
+      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:E53">
+    <cfRule type="cellIs" priority="420" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="418">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="387">
-      <formula>AND($A120="begin repeat", NOT($B120 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="expression" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="388">
-      <formula>AND($A120="end repeat", $B120 = "", $C120 = "", $D120 = "", $E120 = "", $F120 = "", $G120 = "", $H120 = "", $I120 = "", $J120 = "", $K120 = "", $L120 = "", $M120 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="containsText" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="389"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="390">
-      <formula>AND($A121="begin group", NOT($B121 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="391">
-      <formula>AND($A121="end group", $B121 = "", $C121 = "", $D121 = "", $E121 = "", $F121 = "", $G121 = "", $H121 = "", $I121 = "", $J121 = "", $K121 = "", $L121 = "", $M121 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" priority="394" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="392">
+  <conditionalFormatting sqref="E52:E53">
+    <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="419">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:E53">
+    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="420">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="containsText" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="421"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="422">
+      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="423">
+      <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" priority="426" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="424">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="393">
-      <formula>AND($A121="begin repeat", NOT($B121 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="expression" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="394">
-      <formula>AND($A121="end repeat", $B121 = "", $C121 = "", $D121 = "", $E121 = "", $F121 = "", $G121 = "", $H121 = "", $I121 = "", $J121 = "", $K121 = "", $L121 = "", $M121 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="containsText" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="395"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="396">
-      <formula>AND($A122="begin group", NOT($B122 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="397">
-      <formula>AND($A122="end group", $B122 = "", $C122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $J122 = "", $K122 = "", $L122 = "", $M122 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" priority="400" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="398">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="399">
-      <formula>AND($A122="begin repeat", NOT($B122 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="400">
-      <formula>AND($A122="end repeat", $B122 = "", $C122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $J122 = "", $K122 = "", $L122 = "", $M122 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="401">
-      <formula>AND($I64 = "", $A64 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="402">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="403">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" priority="406" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="404">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="405">
-      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="406">
-      <formula>AND($I75 = "", $A75 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="expression" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="407">
-      <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $C75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" priority="410" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="408">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="409">
-      <formula>AND(NOT($G75 = ""), $H75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="containsText" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="410"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="411">
-      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="412">
-      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" priority="415" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="413">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="414">
-      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="415">
-      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="expression" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="416">
-      <formula>COUNTIF($B$2:$B$1080,B125)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="417">
-      <formula>COUNTIF($B$2:$B$984,B39)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="418">
-      <formula>COUNTIF($B$2:$B$983,B43)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120">
-    <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="419">
-      <formula>COUNTIF($B$2:$B$1084,B120)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121">
-    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="420">
-      <formula>COUNTIF($B$2:$B$1083,B121)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B58">
-    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="421">
-      <formula>COUNTIF($B$2:$B$1072,B57)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69:B70">
-    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="422">
-      <formula>COUNTIF($B$2:$B$1063,B69)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B53">
-    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="423">
-      <formula>COUNTIF($B$2:$B$982,B51)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="424">
-      <formula>COUNTIF($B$2:$B$981,B55)&gt;1</formula>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" priority="427" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="425">
+      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="426">
+      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="427" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="425">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1088, "begin group") = COUNTIF($A$1:$A$1088, "end group"))</formula>
+    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="427">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1087, "begin group") = COUNTIF($A$1:$A$1087, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="426">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1079, "begin group") = COUNTIF($A$1:$A$1088, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B73">
-    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="427">
-      <formula>COUNTIF($B$2:$B$1085,B72)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:A53">
-    <cfRule type="cellIs" priority="430" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="247">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E53">
-    <cfRule type="containsText" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="208"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E53">
-    <cfRule type="expression" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="209">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E53">
-    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="210">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E53">
-    <cfRule type="cellIs" priority="434" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="211">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E53">
-    <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="212">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E53">
-    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="213">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="containsText" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="428"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="438" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="429">
-      <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="430">
-      <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" priority="440" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="431">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="441" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="432">
-      <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="433">
-      <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2 D8:D12 D14:D135 D142" type="list">
-      <formula1>"yes,no"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3:D7 D143:D145" type="list">
+    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="428">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1078, "begin group") = COUNTIF($A$1:$A$1087, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D12 D14:D134 D141:D144" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13054,24 +12899,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F65536"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
+      <selection pane="bottomLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.5867346938775"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="85.8571428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.1275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.5357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="92.0663265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>1</v>
@@ -13085,13 +12930,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -13099,13 +12944,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -13137,13 +12982,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -13151,13 +12996,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -13165,13 +13010,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -13187,13 +13032,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -13201,13 +13046,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -13215,13 +13060,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>356</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>362</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -13229,13 +13074,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -13251,13 +13096,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -13265,13 +13110,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -13279,13 +13124,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>370</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -13293,13 +13138,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -13307,13 +13152,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -13329,13 +13174,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -13343,13 +13188,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -13357,13 +13202,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>375</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>381</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -13371,13 +13216,13 @@
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -13385,13 +13230,13 @@
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -13405,71 +13250,71 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -13483,7 +13328,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -13491,77 +13336,77 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -13569,119 +13414,119 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -13691,13 +13536,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -13705,13 +13550,13 @@
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -13719,13 +13564,13 @@
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -13733,13 +13578,13 @@
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -13747,13 +13592,13 @@
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -13761,13 +13606,13 @@
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>402</v>
-      </c>
       <c r="C55" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -13775,13 +13620,13 @@
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -13789,13 +13634,13 @@
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -13803,13 +13648,13 @@
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -13817,13 +13662,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -13831,13 +13676,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -13853,13 +13698,13 @@
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
@@ -13867,13 +13712,13 @@
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -13889,13 +13734,13 @@
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -13903,13 +13748,13 @@
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -13925,13 +13770,13 @@
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -13947,13 +13792,13 @@
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -13961,13 +13806,13 @@
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="12" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -13975,13 +13820,13 @@
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="12" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -13996,13 +13841,13 @@
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -14010,13 +13855,13 @@
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -14024,13 +13869,13 @@
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -14046,13 +13891,13 @@
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="12" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -14060,13 +13905,13 @@
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -14074,13 +13919,13 @@
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="12" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
@@ -14096,13 +13941,13 @@
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
@@ -14110,13 +13955,13 @@
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
@@ -14124,13 +13969,13 @@
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
@@ -14138,13 +13983,13 @@
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
@@ -14152,13 +13997,13 @@
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
@@ -14166,13 +14011,13 @@
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
@@ -14180,13 +14025,13 @@
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
@@ -14194,279 +14039,271 @@
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="12" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="12" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="12" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B109" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="C111" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="B109" s="29" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="B113" s="29" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="B110" s="29" t="s">
+      <c r="C113" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="C110" s="0" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B114" s="29" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="B111" s="29" t="s">
+      <c r="C114" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="C111" s="0" t="s">
+    </row>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="B113" s="29" t="s">
-        <v>448</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="B114" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>452</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14493,45 +14330,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1887755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C2" s="30" t="n">
         <f aca="true">NOW()</f>
-        <v>44098.537381879</v>
+        <v>44104.6094834018</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F2" s="12"/>
     </row>

--- a/config/default/forms/app/hts_initial_test.xlsx
+++ b/config/default/forms/app/hts_initial_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\hts vall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5ABB61-8EC8-4D36-A4FB-572C8519E18E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BDFB1E-EB22-404E-AEF7-0991304F1A5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -6369,9 +6369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL147"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A42" sqref="A42:XFD42"/>
+      <selection pane="topRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6687,7 +6687,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:38" ht="13.5">
+    <row r="11" spans="1:38" ht="27">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -6867,7 +6867,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:38" ht="13.5">
+    <row r="16" spans="1:38" ht="27">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -6902,7 +6902,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="1:25" ht="13.5">
+    <row r="17" spans="1:25" ht="27">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -7628,7 +7628,7 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" spans="1:25" ht="13.5">
+    <row r="39" spans="1:25" ht="27">
       <c r="A39" s="8" t="s">
         <v>66</v>
       </c>
@@ -7758,7 +7758,7 @@
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" spans="1:25" ht="13.5">
+    <row r="43" spans="1:25" ht="27">
       <c r="A43" s="8" t="s">
         <v>72</v>
       </c>
@@ -7793,7 +7793,7 @@
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" spans="1:25" ht="13.5">
+    <row r="44" spans="1:25" ht="27">
       <c r="A44" s="8" t="s">
         <v>76</v>
       </c>
@@ -7861,7 +7861,7 @@
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" spans="1:25" ht="13.5">
+    <row r="46" spans="1:25" ht="27">
       <c r="A46" s="8" t="s">
         <v>83</v>
       </c>
@@ -7898,7 +7898,7 @@
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" spans="1:25" ht="27">
+    <row r="47" spans="1:25" ht="54">
       <c r="A47" s="8" t="s">
         <v>76</v>
       </c>
@@ -7932,7 +7932,7 @@
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" spans="1:25" ht="13.5">
+    <row r="48" spans="1:25" ht="40.5">
       <c r="A48" s="8" t="s">
         <v>90</v>
       </c>
@@ -7971,7 +7971,7 @@
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" spans="1:25" ht="27">
+    <row r="49" spans="1:25" ht="54">
       <c r="A49" s="8" t="s">
         <v>76</v>
       </c>
@@ -8041,7 +8041,7 @@
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="1:25" ht="13.5">
+    <row r="51" spans="1:25" ht="27">
       <c r="A51" s="8" t="s">
         <v>101</v>
       </c>
@@ -8078,7 +8078,7 @@
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" spans="1:25" ht="13.5">
+    <row r="52" spans="1:25" ht="27">
       <c r="A52" s="8" t="s">
         <v>105</v>
       </c>
@@ -8115,7 +8115,7 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="1:25" ht="13.5">
+    <row r="53" spans="1:25" ht="27">
       <c r="A53" s="8" t="s">
         <v>46</v>
       </c>
@@ -8152,7 +8152,7 @@
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" spans="1:25" ht="13.5">
+    <row r="54" spans="1:25" ht="27">
       <c r="A54" s="8" t="s">
         <v>83</v>
       </c>
@@ -8189,7 +8189,7 @@
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="1:25" ht="13.5">
+    <row r="55" spans="1:25" ht="27">
       <c r="A55" s="8" t="s">
         <v>113</v>
       </c>
@@ -8226,7 +8226,7 @@
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" spans="1:25" ht="13.5">
+    <row r="56" spans="1:25" ht="27">
       <c r="A56" s="8" t="s">
         <v>116</v>
       </c>
@@ -8263,7 +8263,7 @@
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" spans="1:25" ht="13.5">
+    <row r="57" spans="1:25" ht="27">
       <c r="A57" s="8" t="s">
         <v>46</v>
       </c>
@@ -8300,7 +8300,7 @@
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" spans="1:25" ht="13.5">
+    <row r="58" spans="1:25" ht="27">
       <c r="A58" s="8" t="s">
         <v>120</v>
       </c>
@@ -8436,7 +8436,7 @@
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" spans="1:25" ht="13.5">
+    <row r="62" spans="1:25" ht="27">
       <c r="A62" s="8" t="s">
         <v>129</v>
       </c>
@@ -8471,7 +8471,7 @@
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" spans="1:25" ht="13.5">
+    <row r="63" spans="1:25" ht="27">
       <c r="A63" s="8" t="s">
         <v>83</v>
       </c>
@@ -8545,7 +8545,7 @@
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" spans="1:25" ht="13.5">
+    <row r="65" spans="1:25" ht="27">
       <c r="A65" s="8" t="s">
         <v>138</v>
       </c>
@@ -8930,7 +8930,7 @@
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" spans="1:25" ht="27">
+    <row r="76" spans="1:25" ht="67.5">
       <c r="A76" s="8" t="s">
         <v>161</v>
       </c>
@@ -8965,7 +8965,7 @@
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" spans="1:25" ht="13.5">
+    <row r="77" spans="1:25" ht="27">
       <c r="A77" s="8" t="s">
         <v>76</v>
       </c>
@@ -9002,7 +9002,7 @@
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" spans="1:25" ht="13.5">
+    <row r="78" spans="1:25" ht="27">
       <c r="A78" s="8" t="s">
         <v>167</v>
       </c>
@@ -9039,7 +9039,7 @@
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" spans="1:25" ht="13.5">
+    <row r="79" spans="1:25" ht="27">
       <c r="A79" s="8" t="s">
         <v>171</v>
       </c>
@@ -9148,7 +9148,7 @@
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" spans="1:25" ht="13.5">
+    <row r="82" spans="1:25" ht="27">
       <c r="A82" s="8" t="s">
         <v>180</v>
       </c>
@@ -9346,7 +9346,7 @@
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" spans="1:25" ht="13.5">
+    <row r="88" spans="1:25" ht="54">
       <c r="A88" s="4" t="s">
         <v>161</v>
       </c>
@@ -9379,7 +9379,7 @@
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" spans="1:25" ht="13.5">
+    <row r="89" spans="1:25" ht="40.5">
       <c r="A89" s="4" t="s">
         <v>161</v>
       </c>
@@ -9414,7 +9414,7 @@
       <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" spans="1:25" ht="27">
+    <row r="90" spans="1:25" ht="54">
       <c r="A90" s="4" t="s">
         <v>161</v>
       </c>
@@ -9447,7 +9447,7 @@
       <c r="X90" s="8"/>
       <c r="Y90" s="8"/>
     </row>
-    <row r="91" spans="1:25" ht="13.5">
+    <row r="91" spans="1:25" ht="54">
       <c r="A91" s="4" t="s">
         <v>161</v>
       </c>
@@ -9482,7 +9482,7 @@
       <c r="X91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" spans="1:25" ht="13.5">
+    <row r="92" spans="1:25" ht="27">
       <c r="A92" s="4" t="s">
         <v>161</v>
       </c>
@@ -9515,7 +9515,7 @@
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
     </row>
-    <row r="93" spans="1:25" ht="13.5">
+    <row r="93" spans="1:25" ht="27">
       <c r="A93" s="4" t="s">
         <v>161</v>
       </c>
@@ -9626,7 +9626,7 @@
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
     </row>
-    <row r="96" spans="1:25" ht="13.5">
+    <row r="96" spans="1:25" ht="27">
       <c r="A96" s="8" t="s">
         <v>161</v>
       </c>
@@ -9659,7 +9659,7 @@
       <c r="X96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" spans="1:25" ht="13.5">
+    <row r="97" spans="1:25" ht="27">
       <c r="A97" s="4" t="s">
         <v>161</v>
       </c>
@@ -9696,7 +9696,7 @@
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
     </row>
-    <row r="98" spans="1:25" ht="13.5">
+    <row r="98" spans="1:25" ht="27">
       <c r="A98" s="4" t="s">
         <v>161</v>
       </c>
@@ -9733,7 +9733,7 @@
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
     </row>
-    <row r="99" spans="1:25" ht="13.5">
+    <row r="99" spans="1:25" ht="27">
       <c r="A99" s="4" t="s">
         <v>161</v>
       </c>
@@ -9770,7 +9770,7 @@
       <c r="X99" s="4"/>
       <c r="Y99" s="4"/>
     </row>
-    <row r="100" spans="1:25" ht="13.5">
+    <row r="100" spans="1:25" ht="27">
       <c r="A100" s="4" t="s">
         <v>161</v>
       </c>
@@ -9807,7 +9807,7 @@
       <c r="X100" s="4"/>
       <c r="Y100" s="4"/>
     </row>
-    <row r="101" spans="1:25" ht="13.5">
+    <row r="101" spans="1:25" ht="27">
       <c r="A101" s="4" t="s">
         <v>161</v>
       </c>
@@ -9844,7 +9844,7 @@
       <c r="X101" s="4"/>
       <c r="Y101" s="4"/>
     </row>
-    <row r="102" spans="1:25" ht="13.5">
+    <row r="102" spans="1:25" ht="27">
       <c r="A102" s="4" t="s">
         <v>161</v>
       </c>
@@ -9988,7 +9988,7 @@
       <c r="X105" s="8"/>
       <c r="Y105" s="8"/>
     </row>
-    <row r="106" spans="1:25" ht="13.5">
+    <row r="106" spans="1:25" ht="27">
       <c r="A106" s="8" t="s">
         <v>161</v>
       </c>
@@ -10025,7 +10025,7 @@
       <c r="X106" s="4"/>
       <c r="Y106" s="4"/>
     </row>
-    <row r="107" spans="1:25" ht="13.5">
+    <row r="107" spans="1:25" ht="27">
       <c r="A107" s="8" t="s">
         <v>161</v>
       </c>
@@ -10284,7 +10284,7 @@
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
     </row>
-    <row r="114" spans="1:25" ht="13.5">
+    <row r="114" spans="1:25" ht="27">
       <c r="A114" s="8" t="s">
         <v>161</v>
       </c>
@@ -10395,7 +10395,7 @@
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
     </row>
-    <row r="117" spans="1:25" ht="13.5">
+    <row r="117" spans="1:25" ht="27">
       <c r="A117" s="8" t="s">
         <v>161</v>
       </c>
@@ -10539,7 +10539,7 @@
       <c r="X120" s="8"/>
       <c r="Y120" s="8"/>
     </row>
-    <row r="121" spans="1:25" ht="13.5">
+    <row r="121" spans="1:25" ht="27">
       <c r="A121" s="8" t="s">
         <v>161</v>
       </c>
@@ -10973,7 +10973,7 @@
       <c r="X132" s="14"/>
       <c r="Y132" s="14"/>
     </row>
-    <row r="133" spans="1:25" ht="13.5">
+    <row r="133" spans="1:25" ht="27">
       <c r="A133" s="8" t="s">
         <v>161</v>
       </c>
@@ -15168,7 +15168,7 @@
       </c>
       <c r="C2" s="30">
         <f ca="1">NOW()</f>
-        <v>44243.344701388887</v>
+        <v>44245.32426296296</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>452</v>

--- a/config/default/forms/app/hts_initial_test.xlsx
+++ b/config/default/forms/app/hts_initial_test.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\hts vall\New folder\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E526019-6FA8-4954-A7DD-A9A22DC216A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDB3BFF-8E43-43DB-B9F4-F9297F68BA04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="30960" windowHeight="16920" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="493">
   <si>
     <t>type</t>
   </si>
@@ -1478,9 +1478,6 @@
     <t>_165153_willing_to_share_est_results99DCT</t>
   </si>
   <si>
-    <t>Willingness to share self test results:</t>
-  </si>
-  <si>
     <t>Self test results:</t>
   </si>
   <si>
@@ -1500,6 +1497,27 @@
   </si>
   <si>
     <t>selected(${_164952_HasClientdoneHIVselfTestInlast12months_99DCT},'_1065_yes_99DCT')</t>
+  </si>
+  <si>
+    <t>_703_yes_99DCT</t>
+  </si>
+  <si>
+    <t>_664_no_99DCT</t>
+  </si>
+  <si>
+    <t>_164400_date_of_self_test_99DCT</t>
+  </si>
+  <si>
+    <t>Date of self test:</t>
+  </si>
+  <si>
+    <t>Can not be in the future</t>
+  </si>
+  <si>
+    <t>selected(${_165153_willing_to_share_est_results99DCT},'_1065_yes_99DCT')</t>
+  </si>
+  <si>
+    <t>Is the client willing to share self test results:</t>
   </si>
 </sst>
 </file>
@@ -1739,195 +1757,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="515">
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="511">
     <dxf>
       <font>
         <strike/>
@@ -1947,6 +1777,73 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFC27BA0"/>
       </font>
@@ -2026,6 +1923,100 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2692,13 +2683,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6945,11 +6929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL154"/>
+  <dimension ref="A1:AL155"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E54" sqref="E54"/>
+      <selection pane="topRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8707,13 +8691,13 @@
         <v>478</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -8738,19 +8722,19 @@
     </row>
     <row r="54" spans="1:25" ht="13.5">
       <c r="A54" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -8773,23 +8757,29 @@
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="1:25" ht="13.5">
+    <row r="55" spans="1:25" ht="27">
       <c r="A55" s="8" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>100</v>
+        <v>488</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>489</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E55" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>485</v>
+      </c>
       <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="G55" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>490</v>
+      </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -8810,20 +8800,18 @@
     </row>
     <row r="56" spans="1:25" ht="13.5">
       <c r="A56" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -8847,10 +8835,10 @@
     </row>
     <row r="57" spans="1:25" ht="13.5">
       <c r="A57" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>103</v>
@@ -8859,7 +8847,7 @@
         <v>62</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -8884,10 +8872,10 @@
     </row>
     <row r="58" spans="1:25" ht="13.5">
       <c r="A58" s="8" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>103</v>
@@ -8895,13 +8883,13 @@
       <c r="D58" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
@@ -8921,24 +8909,24 @@
     </row>
     <row r="59" spans="1:25" ht="13.5">
       <c r="A59" s="8" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>112</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
@@ -8958,19 +8946,19 @@
     </row>
     <row r="60" spans="1:25" ht="13.5">
       <c r="A60" s="8" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="4"/>
@@ -8995,10 +8983,10 @@
     </row>
     <row r="61" spans="1:25" ht="13.5">
       <c r="A61" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>115</v>
@@ -9007,7 +8995,7 @@
         <v>62</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="4"/>
@@ -9032,24 +9020,24 @@
     </row>
     <row r="62" spans="1:25" ht="13.5">
       <c r="A62" s="8" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="8"/>
+      <c r="E62" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8" t="s">
-        <v>119</v>
-      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
@@ -9069,24 +9057,24 @@
     </row>
     <row r="63" spans="1:25" ht="13.5">
       <c r="A63" s="8" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>466</v>
+        <v>118</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>468</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E63" s="8"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -9109,7 +9097,7 @@
         <v>83</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>466</v>
@@ -9118,7 +9106,7 @@
         <v>86</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="4"/>
@@ -9143,21 +9131,23 @@
     </row>
     <row r="65" spans="1:25" ht="13.5">
       <c r="A65" s="8" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>122</v>
+        <v>465</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>466</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E65" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>469</v>
+      </c>
       <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -9178,20 +9168,18 @@
     </row>
     <row r="66" spans="1:25" ht="13.5">
       <c r="A66" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>126</v>
-      </c>
+      <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -9214,11 +9202,21 @@
       <c r="Y66" s="8"/>
     </row>
     <row r="67" spans="1:25" ht="13.5">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
+      <c r="A67" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -9241,21 +9239,11 @@
       <c r="Y67" s="8"/>
     </row>
     <row r="68" spans="1:25" ht="13.5">
-      <c r="A68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>126</v>
-      </c>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -9278,19 +9266,21 @@
       <c r="Y68" s="8"/>
     </row>
     <row r="69" spans="1:25" ht="13.5">
-      <c r="A69" s="8" t="s">
-        <v>129</v>
+      <c r="A69" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="8"/>
+      <c r="E69" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -9314,13 +9304,13 @@
     </row>
     <row r="70" spans="1:25" ht="13.5">
       <c r="A70" s="8" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>62</v>
@@ -9347,27 +9337,23 @@
       <c r="X70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" spans="1:25" ht="27">
+    <row r="71" spans="1:25" ht="13.5">
       <c r="A71" s="8" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>137</v>
-      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
@@ -9386,23 +9372,27 @@
       <c r="X71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" spans="1:25" ht="13.5">
+    <row r="72" spans="1:25" ht="27">
       <c r="A72" s="8" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
+      <c r="G72" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -9421,22 +9411,20 @@
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" spans="1:25" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:25" ht="13.5">
       <c r="A73" s="8" t="s">
         <v>138</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
@@ -9458,14 +9446,22 @@
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" spans="1:25" ht="13.5">
+    <row r="74" spans="1:25" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -9487,22 +9483,14 @@
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" spans="1:25" ht="27">
-      <c r="A75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>146</v>
-      </c>
+    <row r="75" spans="1:25" ht="13.5">
+      <c r="A75" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -9524,21 +9512,21 @@
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" spans="1:25" ht="13.5">
-      <c r="A76" s="8" t="s">
-        <v>147</v>
+    <row r="76" spans="1:25" ht="27">
+      <c r="A76" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -9563,13 +9551,13 @@
     </row>
     <row r="77" spans="1:25" ht="13.5">
       <c r="A77" s="8" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>62</v>
@@ -9598,15 +9586,15 @@
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" spans="1:25" ht="27">
+    <row r="78" spans="1:25" ht="13.5">
       <c r="A78" s="8" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>62</v>
@@ -9615,12 +9603,8 @@
         <v>126</v>
       </c>
       <c r="F78" s="8"/>
-      <c r="G78" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>137</v>
-      </c>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
@@ -9639,15 +9623,15 @@
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" spans="1:25" ht="13.5">
+    <row r="79" spans="1:25" ht="27">
       <c r="A79" s="8" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>62</v>
@@ -9656,8 +9640,12 @@
         <v>126</v>
       </c>
       <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
+      <c r="G79" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
@@ -9678,12 +9666,20 @@
     </row>
     <row r="80" spans="1:25" ht="13.5">
       <c r="A80" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
+        <v>154</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -9705,22 +9701,18 @@
       <c r="X80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" spans="1:25" ht="40.5">
+    <row r="81" spans="1:25" ht="13.5">
       <c r="A81" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>157</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="8" t="s">
-        <v>158</v>
-      </c>
+      <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
@@ -9738,12 +9730,12 @@
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" spans="1:25" ht="54">
+    <row r="82" spans="1:25" ht="40.5">
       <c r="A82" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -9752,7 +9744,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -9771,24 +9763,22 @@
       <c r="X82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" spans="1:25" ht="27">
+    <row r="83" spans="1:25" ht="54">
       <c r="A83" s="8" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>163</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C83" s="8"/>
       <c r="D83" s="8"/>
-      <c r="E83" s="8" t="s">
-        <v>126</v>
-      </c>
+      <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+      <c r="I83" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
@@ -9806,21 +9796,19 @@
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" spans="1:25" ht="13.5">
+    <row r="84" spans="1:25" ht="27">
       <c r="A84" s="8" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>62</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D84" s="8"/>
       <c r="E84" s="8" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -9845,19 +9833,19 @@
     </row>
     <row r="85" spans="1:25" ht="13.5">
       <c r="A85" s="8" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -9882,19 +9870,19 @@
     </row>
     <row r="86" spans="1:25" ht="13.5">
       <c r="A86" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
@@ -9917,21 +9905,21 @@
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" spans="1:25" ht="27">
+    <row r="87" spans="1:25" ht="13.5">
       <c r="A87" s="8" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
@@ -9954,20 +9942,22 @@
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" spans="1:25" ht="13.5">
+    <row r="88" spans="1:25" ht="27">
       <c r="A88" s="8" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E88" s="8"/>
+      <c r="E88" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
@@ -9991,13 +9981,13 @@
     </row>
     <row r="89" spans="1:25" ht="13.5">
       <c r="A89" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>62</v>
@@ -10026,20 +10016,18 @@
     </row>
     <row r="90" spans="1:25" ht="13.5">
       <c r="A90" s="8" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E90" s="8" t="s">
-        <v>185</v>
-      </c>
+      <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
@@ -10063,12 +10051,20 @@
     </row>
     <row r="91" spans="1:25" ht="13.5">
       <c r="A91" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
@@ -10092,14 +10088,10 @@
     </row>
     <row r="92" spans="1:25" ht="13.5">
       <c r="A92" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>187</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
@@ -10125,10 +10117,14 @@
     </row>
     <row r="93" spans="1:25" ht="13.5">
       <c r="A93" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -10153,20 +10149,14 @@
       <c r="Y93" s="8"/>
     </row>
     <row r="94" spans="1:25" ht="13.5">
-      <c r="A94" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>189</v>
-      </c>
+      <c r="A94" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
-      <c r="F94" s="8" t="s">
-        <v>190</v>
-      </c>
+      <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
@@ -10189,17 +10179,19 @@
     </row>
     <row r="95" spans="1:25" ht="13.5">
       <c r="A95" s="4" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
+      <c r="F95" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
@@ -10225,16 +10217,14 @@
         <v>161</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
-      <c r="F96" s="8" t="s">
-        <v>195</v>
-      </c>
+      <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -10255,19 +10245,21 @@
       <c r="X96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" spans="1:25" ht="27">
+    <row r="97" spans="1:25" ht="13.5">
       <c r="A97" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
+      <c r="F97" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -10288,21 +10280,19 @@
       <c r="X97" s="8"/>
       <c r="Y97" s="8"/>
     </row>
-    <row r="98" spans="1:25" ht="13.5">
+    <row r="98" spans="1:25" ht="27">
       <c r="A98" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
-      <c r="F98" s="8" t="s">
-        <v>200</v>
-      </c>
+      <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
@@ -10327,52 +10317,50 @@
       <c r="A99" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-      <c r="S99" s="4"/>
-      <c r="T99" s="4"/>
-      <c r="U99" s="4"/>
-      <c r="V99" s="4"/>
-      <c r="W99" s="4"/>
-      <c r="X99" s="4"/>
-      <c r="Y99" s="4"/>
+      <c r="B99" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="8"/>
+      <c r="W99" s="8"/>
+      <c r="X99" s="8"/>
+      <c r="Y99" s="8"/>
     </row>
     <row r="100" spans="1:25" ht="13.5">
       <c r="A100" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>204</v>
+      <c r="B100" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="D100" s="4"/>
-      <c r="E100" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>206</v>
-      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -10393,19 +10381,19 @@
       <c r="X100" s="4"/>
       <c r="Y100" s="4"/>
     </row>
-    <row r="101" spans="1:25" ht="17.45" customHeight="1">
+    <row r="101" spans="1:25" ht="13.5">
       <c r="A101" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>206</v>
@@ -10430,19 +10418,19 @@
       <c r="X101" s="4"/>
       <c r="Y101" s="4"/>
     </row>
-    <row r="102" spans="1:25" ht="15.6" customHeight="1">
+    <row r="102" spans="1:25" ht="17.45" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>206</v>
@@ -10467,89 +10455,89 @@
       <c r="X102" s="4"/>
       <c r="Y102" s="4"/>
     </row>
-    <row r="103" spans="1:25" ht="13.5">
-      <c r="A103" s="8" t="s">
+    <row r="103" spans="1:25" ht="15.6" customHeight="1">
+      <c r="A103" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+    </row>
+    <row r="104" spans="1:25" ht="13.5">
+      <c r="A104" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C104" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
-      <c r="T103" s="8"/>
-      <c r="U103" s="8"/>
-      <c r="V103" s="8"/>
-      <c r="W103" s="8"/>
-      <c r="X103" s="8"/>
-      <c r="Y103" s="8"/>
-    </row>
-    <row r="104" spans="1:25" ht="13.5">
-      <c r="A104" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
-      <c r="S104" s="4"/>
-      <c r="T104" s="4"/>
-      <c r="U104" s="4"/>
-      <c r="V104" s="4"/>
-      <c r="W104" s="4"/>
-      <c r="X104" s="4"/>
-      <c r="Y104" s="4"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
+      <c r="R104" s="8"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+      <c r="V104" s="8"/>
+      <c r="W104" s="8"/>
+      <c r="X104" s="8"/>
+      <c r="Y104" s="8"/>
     </row>
     <row r="105" spans="1:25" ht="13.5">
       <c r="A105" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>206</v>
@@ -10579,14 +10567,14 @@
         <v>161</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>206</v>
@@ -10616,14 +10604,14 @@
         <v>161</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>206</v>
@@ -10653,14 +10641,14 @@
         <v>161</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>206</v>
@@ -10690,14 +10678,14 @@
         <v>161</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>206</v>
@@ -10727,14 +10715,14 @@
         <v>161</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>206</v>
@@ -10764,14 +10752,14 @@
         <v>161</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>206</v>
@@ -10797,88 +10785,88 @@
       <c r="Y111" s="4"/>
     </row>
     <row r="112" spans="1:25" ht="13.5">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
-      <c r="O112" s="8"/>
-      <c r="P112" s="8"/>
-      <c r="Q112" s="8"/>
-      <c r="R112" s="8"/>
-      <c r="S112" s="8"/>
-      <c r="T112" s="8"/>
-      <c r="U112" s="8"/>
-      <c r="V112" s="8"/>
-      <c r="W112" s="8"/>
-      <c r="X112" s="8"/>
-      <c r="Y112" s="8"/>
+      <c r="B112" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
     </row>
     <row r="113" spans="1:25" ht="13.5">
       <c r="A113" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B113" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
-      <c r="R113" s="4"/>
-      <c r="S113" s="4"/>
-      <c r="T113" s="4"/>
-      <c r="U113" s="4"/>
-      <c r="V113" s="4"/>
-      <c r="W113" s="4"/>
-      <c r="X113" s="4"/>
-      <c r="Y113" s="4"/>
+      <c r="B113" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="8"/>
+      <c r="R113" s="8"/>
+      <c r="S113" s="8"/>
+      <c r="T113" s="8"/>
+      <c r="U113" s="8"/>
+      <c r="V113" s="8"/>
+      <c r="W113" s="8"/>
+      <c r="X113" s="8"/>
+      <c r="Y113" s="8"/>
     </row>
     <row r="114" spans="1:25" ht="13.5">
       <c r="A114" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>206</v>
@@ -10908,14 +10896,14 @@
         <v>161</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>206</v>
@@ -10945,14 +10933,14 @@
         <v>161</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>206</v>
@@ -10982,14 +10970,14 @@
         <v>161</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>206</v>
@@ -11019,14 +11007,14 @@
         <v>161</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>206</v>
@@ -11056,14 +11044,14 @@
         <v>161</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>206</v>
@@ -11093,14 +11081,14 @@
         <v>161</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>206</v>
@@ -11130,14 +11118,14 @@
         <v>161</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>206</v>
@@ -11167,14 +11155,14 @@
         <v>161</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>206</v>
@@ -11204,14 +11192,14 @@
         <v>161</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>206</v>
@@ -11240,52 +11228,52 @@
       <c r="A124" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+    </row>
+    <row r="125" spans="1:25" ht="13.5">
+      <c r="A125" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C125" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8"/>
-      <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-      <c r="Q124" s="8"/>
-      <c r="R124" s="8"/>
-      <c r="S124" s="8"/>
-      <c r="T124" s="8"/>
-      <c r="U124" s="8"/>
-      <c r="V124" s="8"/>
-      <c r="W124" s="8"/>
-      <c r="X124" s="8"/>
-      <c r="Y124" s="8"/>
-    </row>
-    <row r="125" spans="1:25" ht="13.5">
-      <c r="A125" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="D125" s="8"/>
-      <c r="E125" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>206</v>
-      </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
@@ -11311,14 +11299,14 @@
         <v>161</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>206</v>
@@ -11348,14 +11336,14 @@
         <v>161</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>206</v>
@@ -11381,18 +11369,22 @@
       <c r="Y127" s="8"/>
     </row>
     <row r="128" spans="1:25" ht="13.5">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D128" s="8"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="8"/>
+      <c r="E128" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -11414,22 +11406,18 @@
       <c r="Y128" s="8"/>
     </row>
     <row r="129" spans="1:25" ht="13.5">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D129" s="8"/>
-      <c r="E129" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>206</v>
-      </c>
+      <c r="E129" s="4"/>
+      <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -11455,14 +11443,14 @@
         <v>161</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>206</v>
@@ -11492,14 +11480,14 @@
         <v>161</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>206</v>
@@ -11525,18 +11513,22 @@
       <c r="Y131" s="8"/>
     </row>
     <row r="132" spans="1:25" ht="13.5">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D132" s="8"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="8"/>
+      <c r="E132" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
@@ -11558,22 +11550,18 @@
       <c r="Y132" s="8"/>
     </row>
     <row r="133" spans="1:25" ht="13.5">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D133" s="8"/>
-      <c r="E133" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>206</v>
-      </c>
+      <c r="E133" s="4"/>
+      <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
@@ -11599,14 +11587,14 @@
         <v>161</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>206</v>
@@ -11636,14 +11624,14 @@
         <v>161</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>206</v>
@@ -11668,21 +11656,23 @@
       <c r="X135" s="8"/>
       <c r="Y135" s="8"/>
     </row>
-    <row r="136" spans="1:25" ht="27">
-      <c r="A136" s="8" t="s">
+    <row r="136" spans="1:25" ht="13.5">
+      <c r="A136" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F136" s="8"/>
+        <v>299</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -11703,56 +11693,54 @@
       <c r="X136" s="8"/>
       <c r="Y136" s="8"/>
     </row>
-    <row r="137" spans="1:25" ht="13.5">
-      <c r="A137" s="13" t="s">
+    <row r="137" spans="1:25" ht="27">
+      <c r="A137" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B137" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="D137" s="4"/>
+      <c r="B137" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D137" s="8"/>
       <c r="E137" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
-      <c r="K137" s="14"/>
-      <c r="L137" s="14"/>
-      <c r="M137" s="14"/>
-      <c r="N137" s="14"/>
-      <c r="O137" s="14"/>
-      <c r="P137" s="14"/>
-      <c r="Q137" s="14"/>
-      <c r="R137" s="14"/>
-      <c r="S137" s="14"/>
-      <c r="T137" s="14"/>
-      <c r="U137" s="14"/>
-      <c r="V137" s="14"/>
-      <c r="W137" s="14"/>
-      <c r="X137" s="14"/>
-      <c r="Y137" s="14"/>
+        <v>302</v>
+      </c>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+      <c r="Q137" s="8"/>
+      <c r="R137" s="8"/>
+      <c r="S137" s="8"/>
+      <c r="T137" s="8"/>
+      <c r="U137" s="8"/>
+      <c r="V137" s="8"/>
+      <c r="W137" s="8"/>
+      <c r="X137" s="8"/>
+      <c r="Y137" s="8"/>
     </row>
     <row r="138" spans="1:25" ht="13.5">
       <c r="A138" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="D138" s="14"/>
+        <v>304</v>
+      </c>
+      <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>206</v>
@@ -11782,14 +11770,14 @@
         <v>161</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D139" s="14"/>
       <c r="E139" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>206</v>
@@ -11815,88 +11803,88 @@
       <c r="Y139" s="14"/>
     </row>
     <row r="140" spans="1:25" ht="13.5">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D140" s="14"/>
+      <c r="E140" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="14"/>
+      <c r="O140" s="14"/>
+      <c r="P140" s="14"/>
+      <c r="Q140" s="14"/>
+      <c r="R140" s="14"/>
+      <c r="S140" s="14"/>
+      <c r="T140" s="14"/>
+      <c r="U140" s="14"/>
+      <c r="V140" s="14"/>
+      <c r="W140" s="14"/>
+      <c r="X140" s="14"/>
+      <c r="Y140" s="14"/>
+    </row>
+    <row r="141" spans="1:25" ht="13.5">
+      <c r="A141" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C141" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
-      <c r="L140" s="8"/>
-      <c r="M140" s="8"/>
-      <c r="N140" s="8"/>
-      <c r="O140" s="8"/>
-      <c r="P140" s="8"/>
-      <c r="Q140" s="8"/>
-      <c r="R140" s="8"/>
-      <c r="S140" s="8"/>
-      <c r="T140" s="8"/>
-      <c r="U140" s="8"/>
-      <c r="V140" s="8"/>
-      <c r="W140" s="8"/>
-      <c r="X140" s="8"/>
-      <c r="Y140" s="8"/>
-    </row>
-    <row r="141" spans="1:25" ht="13.5">
-      <c r="A141" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="14"/>
-      <c r="K141" s="14"/>
-      <c r="L141" s="14"/>
-      <c r="M141" s="14"/>
-      <c r="N141" s="14"/>
-      <c r="O141" s="14"/>
-      <c r="P141" s="14"/>
-      <c r="Q141" s="14"/>
-      <c r="R141" s="14"/>
-      <c r="S141" s="14"/>
-      <c r="T141" s="14"/>
-      <c r="U141" s="14"/>
-      <c r="V141" s="14"/>
-      <c r="W141" s="14"/>
-      <c r="X141" s="14"/>
-      <c r="Y141" s="14"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+      <c r="Q141" s="8"/>
+      <c r="R141" s="8"/>
+      <c r="S141" s="8"/>
+      <c r="T141" s="8"/>
+      <c r="U141" s="8"/>
+      <c r="V141" s="8"/>
+      <c r="W141" s="8"/>
+      <c r="X141" s="8"/>
+      <c r="Y141" s="8"/>
     </row>
     <row r="142" spans="1:25" ht="13.5">
       <c r="A142" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="D142" s="14"/>
+        <v>315</v>
+      </c>
+      <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>206</v>
@@ -11926,14 +11914,14 @@
         <v>161</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D143" s="14"/>
       <c r="E143" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>206</v>
@@ -11963,2815 +11951,2830 @@
         <v>161</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D144" s="4"/>
+        <v>321</v>
+      </c>
+      <c r="D144" s="14"/>
       <c r="E144" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="4"/>
-      <c r="R144" s="4"/>
-      <c r="S144" s="4"/>
-      <c r="T144" s="4"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="4"/>
-      <c r="W144" s="4"/>
-      <c r="X144" s="4"/>
-      <c r="Y144" s="4"/>
-    </row>
-    <row r="145" spans="1:25" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A145" s="15" t="s">
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="14"/>
+      <c r="L144" s="14"/>
+      <c r="M144" s="14"/>
+      <c r="N144" s="14"/>
+      <c r="O144" s="14"/>
+      <c r="P144" s="14"/>
+      <c r="Q144" s="14"/>
+      <c r="R144" s="14"/>
+      <c r="S144" s="14"/>
+      <c r="T144" s="14"/>
+      <c r="U144" s="14"/>
+      <c r="V144" s="14"/>
+      <c r="W144" s="14"/>
+      <c r="X144" s="14"/>
+      <c r="Y144" s="14"/>
+    </row>
+    <row r="145" spans="1:25" ht="13.5">
+      <c r="A145" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="B145" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="4"/>
+      <c r="S145" s="4"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
+    </row>
+    <row r="146" spans="1:25" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A146" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B146" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C145" s="16" t="s">
+      <c r="C146" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="D145" s="15"/>
-      <c r="E145" s="17" t="s">
+      <c r="D146" s="15"/>
+      <c r="E146" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="F145" s="15" t="s">
+      <c r="F146" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
-      <c r="M145" s="15"/>
-      <c r="N145" s="15"/>
-      <c r="O145" s="15"/>
-      <c r="P145" s="15"/>
-      <c r="Q145" s="15"/>
-      <c r="R145" s="15"/>
-      <c r="S145" s="15"/>
-      <c r="T145" s="15"/>
-      <c r="U145" s="15"/>
-      <c r="V145" s="15"/>
-      <c r="W145" s="15"/>
-      <c r="X145" s="15"/>
-      <c r="Y145" s="15"/>
-    </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A146" s="19" t="s">
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="15"/>
+      <c r="O146" s="15"/>
+      <c r="P146" s="15"/>
+      <c r="Q146" s="15"/>
+      <c r="R146" s="15"/>
+      <c r="S146" s="15"/>
+      <c r="T146" s="15"/>
+      <c r="U146" s="15"/>
+      <c r="V146" s="15"/>
+      <c r="W146" s="15"/>
+      <c r="X146" s="15"/>
+      <c r="Y146" s="15"/>
+    </row>
+    <row r="147" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A147" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B146" s="19" t="s">
+      <c r="B147" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="C146" s="19" t="s">
+      <c r="C147" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="20" t="s">
+      <c r="D147" s="5"/>
+      <c r="E147" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="19"/>
-      <c r="N146" s="19"/>
-      <c r="O146" s="19"/>
-      <c r="P146" s="19"/>
-      <c r="Q146" s="19"/>
-      <c r="R146" s="19"/>
-      <c r="S146" s="19"/>
-      <c r="T146" s="19"/>
-      <c r="U146" s="19"/>
-      <c r="V146" s="19"/>
-      <c r="W146" s="19"/>
-      <c r="X146" s="19"/>
-      <c r="Y146" s="19"/>
-    </row>
-    <row r="147" spans="1:25" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A147" s="15" t="s">
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="19"/>
+      <c r="T147" s="19"/>
+      <c r="U147" s="19"/>
+      <c r="V147" s="19"/>
+      <c r="W147" s="19"/>
+      <c r="X147" s="19"/>
+      <c r="Y147" s="19"/>
+    </row>
+    <row r="148" spans="1:25" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A148" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B147" s="15" t="s">
+      <c r="B148" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="C147" s="16" t="s">
+      <c r="C148" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="D147" s="15"/>
-      <c r="E147" s="17" t="s">
+      <c r="D148" s="15"/>
+      <c r="E148" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="F147" s="15" t="s">
+      <c r="F148" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="15"/>
-      <c r="L147" s="15"/>
-      <c r="M147" s="15"/>
-      <c r="N147" s="15"/>
-      <c r="O147" s="15"/>
-      <c r="P147" s="15"/>
-      <c r="Q147" s="15"/>
-      <c r="R147" s="15"/>
-      <c r="S147" s="15"/>
-      <c r="T147" s="15"/>
-      <c r="U147" s="15"/>
-      <c r="V147" s="15"/>
-      <c r="W147" s="15"/>
-      <c r="X147" s="15"/>
-      <c r="Y147" s="15"/>
-    </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A148" s="19" t="s">
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="15"/>
+      <c r="N148" s="15"/>
+      <c r="O148" s="15"/>
+      <c r="P148" s="15"/>
+      <c r="Q148" s="15"/>
+      <c r="R148" s="15"/>
+      <c r="S148" s="15"/>
+      <c r="T148" s="15"/>
+      <c r="U148" s="15"/>
+      <c r="V148" s="15"/>
+      <c r="W148" s="15"/>
+      <c r="X148" s="15"/>
+      <c r="Y148" s="15"/>
+    </row>
+    <row r="149" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A149" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B148" s="19" t="s">
+      <c r="B149" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="C148" s="19" t="s">
+      <c r="C149" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="D148" s="5"/>
-      <c r="E148" s="20" t="s">
+      <c r="D149" s="5"/>
+      <c r="E149" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="19"/>
-      <c r="K148" s="19"/>
-      <c r="L148" s="19"/>
-      <c r="M148" s="19"/>
-      <c r="N148" s="19"/>
-      <c r="O148" s="19"/>
-      <c r="P148" s="19"/>
-      <c r="Q148" s="19"/>
-      <c r="R148" s="19"/>
-      <c r="S148" s="19"/>
-      <c r="T148" s="19"/>
-      <c r="U148" s="19"/>
-      <c r="V148" s="19"/>
-      <c r="W148" s="19"/>
-      <c r="X148" s="19"/>
-      <c r="Y148" s="19"/>
-    </row>
-    <row r="149" spans="1:25" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A149" s="15" t="s">
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="19"/>
+      <c r="N149" s="19"/>
+      <c r="O149" s="19"/>
+      <c r="P149" s="19"/>
+      <c r="Q149" s="19"/>
+      <c r="R149" s="19"/>
+      <c r="S149" s="19"/>
+      <c r="T149" s="19"/>
+      <c r="U149" s="19"/>
+      <c r="V149" s="19"/>
+      <c r="W149" s="19"/>
+      <c r="X149" s="19"/>
+      <c r="Y149" s="19"/>
+    </row>
+    <row r="150" spans="1:25" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A150" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="B150" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="C149" s="16" t="s">
+      <c r="C150" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="D149" s="15"/>
-      <c r="E149" s="17" t="s">
+      <c r="D150" s="15"/>
+      <c r="E150" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="F149" s="15" t="s">
+      <c r="F150" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="15"/>
-      <c r="L149" s="15"/>
-      <c r="M149" s="15"/>
-      <c r="N149" s="15"/>
-      <c r="O149" s="15"/>
-      <c r="P149" s="15"/>
-      <c r="Q149" s="15"/>
-      <c r="R149" s="15"/>
-      <c r="S149" s="15"/>
-      <c r="T149" s="15"/>
-      <c r="U149" s="15"/>
-      <c r="V149" s="15"/>
-      <c r="W149" s="15"/>
-      <c r="X149" s="15"/>
-      <c r="Y149" s="15"/>
-    </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A150" s="19" t="s">
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+      <c r="M150" s="15"/>
+      <c r="N150" s="15"/>
+      <c r="O150" s="15"/>
+      <c r="P150" s="15"/>
+      <c r="Q150" s="15"/>
+      <c r="R150" s="15"/>
+      <c r="S150" s="15"/>
+      <c r="T150" s="15"/>
+      <c r="U150" s="15"/>
+      <c r="V150" s="15"/>
+      <c r="W150" s="15"/>
+      <c r="X150" s="15"/>
+      <c r="Y150" s="15"/>
+    </row>
+    <row r="151" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A151" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B150" s="19" t="s">
+      <c r="B151" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="C150" s="19" t="s">
+      <c r="C151" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="D150" s="5"/>
-      <c r="E150" s="20" t="s">
+      <c r="D151" s="5"/>
+      <c r="E151" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19"/>
-      <c r="L150" s="19"/>
-      <c r="M150" s="19"/>
-      <c r="N150" s="19"/>
-      <c r="O150" s="19"/>
-      <c r="P150" s="19"/>
-      <c r="Q150" s="19"/>
-      <c r="R150" s="19"/>
-      <c r="S150" s="19"/>
-      <c r="T150" s="19"/>
-      <c r="U150" s="19"/>
-      <c r="V150" s="19"/>
-      <c r="W150" s="19"/>
-      <c r="X150" s="19"/>
-      <c r="Y150" s="19"/>
-    </row>
-    <row r="151" spans="1:25" ht="13.5">
-      <c r="A151" s="4" t="s">
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="19"/>
+      <c r="L151" s="19"/>
+      <c r="M151" s="19"/>
+      <c r="N151" s="19"/>
+      <c r="O151" s="19"/>
+      <c r="P151" s="19"/>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="19"/>
+      <c r="S151" s="19"/>
+      <c r="T151" s="19"/>
+      <c r="U151" s="19"/>
+      <c r="V151" s="19"/>
+      <c r="W151" s="19"/>
+      <c r="X151" s="19"/>
+      <c r="Y151" s="19"/>
+    </row>
+    <row r="152" spans="1:25" ht="13.5">
+      <c r="A152" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="8"/>
-      <c r="K151" s="8"/>
-      <c r="L151" s="8"/>
-      <c r="M151" s="8"/>
-      <c r="N151" s="8"/>
-      <c r="O151" s="8"/>
-      <c r="P151" s="8"/>
-      <c r="Q151" s="8"/>
-      <c r="R151" s="8"/>
-      <c r="S151" s="8"/>
-      <c r="T151" s="8"/>
-      <c r="U151" s="8"/>
-      <c r="V151" s="8"/>
-      <c r="W151" s="8"/>
-      <c r="X151" s="8"/>
-      <c r="Y151" s="8"/>
-    </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A152" s="21" t="s">
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="8"/>
+      <c r="P152" s="8"/>
+      <c r="Q152" s="8"/>
+      <c r="R152" s="8"/>
+      <c r="S152" s="8"/>
+      <c r="T152" s="8"/>
+      <c r="U152" s="8"/>
+      <c r="V152" s="8"/>
+      <c r="W152" s="8"/>
+      <c r="X152" s="8"/>
+      <c r="Y152" s="8"/>
+    </row>
+    <row r="153" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A153" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B152" s="21" t="s">
+      <c r="B153" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="C152" s="21" t="s">
+      <c r="C153" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
-      <c r="F152" s="21" t="s">
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G152" s="22"/>
-      <c r="H152" s="22"/>
-      <c r="I152" s="22"/>
-      <c r="J152" s="22"/>
-      <c r="K152" s="22"/>
-      <c r="L152" s="22"/>
-      <c r="M152" s="22"/>
-      <c r="N152" s="22"/>
-    </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A153" s="23" t="s">
+      <c r="G153" s="22"/>
+      <c r="H153" s="22"/>
+      <c r="I153" s="22"/>
+      <c r="J153" s="22"/>
+      <c r="K153" s="22"/>
+      <c r="L153" s="22"/>
+      <c r="M153" s="22"/>
+      <c r="N153" s="22"/>
+    </row>
+    <row r="154" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A154" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B154" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C154" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D153" s="24"/>
-      <c r="E153" s="25"/>
-      <c r="F153" s="25"/>
-      <c r="G153" s="25"/>
-      <c r="H153" s="25"/>
-      <c r="I153" s="4" t="s">
+      <c r="D154" s="24"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="J153" s="25"/>
-      <c r="K153" s="25"/>
-      <c r="L153" s="25"/>
-      <c r="M153" s="25"/>
-      <c r="N153" s="25"/>
-    </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A154" s="26" t="s">
+      <c r="J154" s="25"/>
+      <c r="K154" s="25"/>
+      <c r="L154" s="25"/>
+      <c r="M154" s="25"/>
+      <c r="N154" s="25"/>
+    </row>
+    <row r="155" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A155" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B154" s="22"/>
-      <c r="C154" s="22"/>
-      <c r="D154" s="22"/>
-      <c r="E154" s="22"/>
-      <c r="F154" s="22"/>
-      <c r="G154" s="22"/>
-      <c r="H154" s="22"/>
-      <c r="I154" s="22"/>
-      <c r="J154" s="22"/>
-      <c r="K154" s="22"/>
-      <c r="L154" s="22"/>
-      <c r="M154" s="22"/>
-      <c r="N154" s="22"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="22"/>
+      <c r="J155" s="22"/>
+      <c r="K155" s="22"/>
+      <c r="L155" s="22"/>
+      <c r="M155" s="22"/>
+      <c r="N155" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="514" priority="115" operator="notEqual">
+    <cfRule type="cellIs" dxfId="510" priority="126" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="513" priority="116" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" dxfId="509" priority="127" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="512" priority="117" operator="notEqual">
+    <cfRule type="cellIs" dxfId="508" priority="128" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="511" priority="118" operator="notEqual">
+    <cfRule type="cellIs" dxfId="507" priority="129" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="510" priority="119" operator="notEqual">
+    <cfRule type="cellIs" dxfId="506" priority="130" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="509" priority="120" operator="notEqual">
+    <cfRule type="cellIs" dxfId="505" priority="131" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="508" priority="121" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" dxfId="504" priority="132" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="507" priority="122" operator="notEqual">
+    <cfRule type="cellIs" dxfId="503" priority="133" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="506" priority="123" operator="notEqual">
+    <cfRule type="cellIs" dxfId="502" priority="134" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="505" priority="124" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" dxfId="501" priority="135" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="504" priority="125" operator="notEqual">
+    <cfRule type="cellIs" dxfId="500" priority="136" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:Y1">
-    <cfRule type="cellIs" dxfId="503" priority="126" operator="notEqual">
+    <cfRule type="cellIs" dxfId="499" priority="137" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="containsText" dxfId="502" priority="127" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="cellIs" dxfId="501" priority="128" operator="equal">
+  <conditionalFormatting sqref="A69">
+    <cfRule type="containsText" dxfId="498" priority="138" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="cellIs" dxfId="497" priority="139" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="cellIs" dxfId="500" priority="129" operator="equal">
+  <conditionalFormatting sqref="A69">
+    <cfRule type="cellIs" dxfId="496" priority="140" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="containsText" dxfId="495" priority="141" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75 A37:Y37 E54 A55:Y55">
+    <cfRule type="expression" dxfId="494" priority="142">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75 A37:Y37 E54 A55:Y55">
+    <cfRule type="expression" dxfId="493" priority="143">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="cellIs" dxfId="492" priority="144" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="cellIs" dxfId="491" priority="145" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75 A37:Y37 E54 A55:Y55">
+    <cfRule type="expression" dxfId="490" priority="146">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75 A37:Y37 E54 A55:Y55">
+    <cfRule type="expression" dxfId="489" priority="147">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114:E125">
+    <cfRule type="containsText" dxfId="488" priority="148" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114:E125">
+    <cfRule type="expression" dxfId="487" priority="149">
+      <formula>AND($A114="begin group", NOT($B114 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114:E125">
+    <cfRule type="expression" dxfId="486" priority="150">
+      <formula>AND($A114="end group", $B114 = "", $C114 = "", $D114 = "", $E114 = "", $F114 = "", $G114 = "", $H114 = "", $I114 = "", $J114 = "", $K114 = "", $L114 = "", $M114 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114:E125">
+    <cfRule type="cellIs" dxfId="485" priority="151" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114:E125">
+    <cfRule type="expression" dxfId="484" priority="152">
+      <formula>AND($A114="begin repeat", NOT($B114 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114:E125">
+    <cfRule type="expression" dxfId="483" priority="153">
+      <formula>AND($A114="end repeat", $B114 = "", $C114 = "", $D114 = "", $E114 = "", $F114 = "", $G114 = "", $H114 = "", $I114 = "", $J114 = "", $K114 = "", $L114 = "", $M114 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125">
+    <cfRule type="cellIs" dxfId="482" priority="154" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127:Y127">
+    <cfRule type="containsText" dxfId="481" priority="155" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127:Y127">
+    <cfRule type="expression" dxfId="480" priority="156">
+      <formula>AND($A127="begin group", NOT($B127 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127:Y127">
+    <cfRule type="expression" dxfId="479" priority="157">
+      <formula>AND($A127="end group", $B127 = "", $C127 = "", $D127 = "", $E127 = "", $F127 = "", $G127 = "", $H127 = "", $I127 = "", $J127 = "", $K127 = "", $L127 = "", $M127 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127:Y127">
+    <cfRule type="cellIs" dxfId="478" priority="158" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I127 I37 I54:I55">
+    <cfRule type="expression" dxfId="477" priority="159">
+      <formula>AND($I37 = "", $A37 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127 C37 C54:C55">
+    <cfRule type="expression" dxfId="476" priority="160">
+      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127 B37 B55">
+    <cfRule type="expression" dxfId="475" priority="161">
+      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127">
+    <cfRule type="cellIs" dxfId="474" priority="162" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H127 H37 H54:H55">
+    <cfRule type="expression" dxfId="473" priority="163">
+      <formula>AND(NOT($G37 = ""), $H37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127:Y127">
+    <cfRule type="expression" dxfId="472" priority="164">
+      <formula>AND($A127="begin repeat", NOT($B127 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127:Y127">
+    <cfRule type="expression" dxfId="471" priority="165">
+      <formula>AND($A127="end repeat", $B127 = "", $C127 = "", $D127 = "", $E127 = "", $F127 = "", $G127 = "", $H127 = "", $I127 = "", $J127 = "", $K127 = "", $L127 = "", $M127 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:Y128">
+    <cfRule type="containsText" dxfId="470" priority="166" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:Y128">
+    <cfRule type="expression" dxfId="469" priority="167">
+      <formula>AND($A128="begin group", NOT($B128 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:Y128">
+    <cfRule type="expression" dxfId="468" priority="168">
+      <formula>AND($A128="end group", $B128 = "", $C128 = "", $D128 = "", $E128 = "", $F128 = "", $G128 = "", $H128 = "", $I128 = "", $J128 = "", $K128 = "", $L128 = "", $M128 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:Y128">
+    <cfRule type="cellIs" dxfId="467" priority="169" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I128">
+    <cfRule type="expression" dxfId="466" priority="170">
+      <formula>AND($I128 = "", $A128 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="expression" dxfId="465" priority="171">
+      <formula>AND(AND(NOT($A128 = "end group"), NOT($A128 = "end repeat"), NOT($A128 = "")), $C128 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128">
+    <cfRule type="expression" dxfId="464" priority="172">
+      <formula>AND(AND(NOT($A128 = "end group"), NOT($A128 = "end repeat"), NOT($A128 = "")), $B128 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="cellIs" dxfId="463" priority="173" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H128">
+    <cfRule type="expression" dxfId="462" priority="174">
+      <formula>AND(NOT($G128 = ""), $H128 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:Y128">
+    <cfRule type="expression" dxfId="461" priority="175">
+      <formula>AND($A128="begin repeat", NOT($B128 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:Y128">
+    <cfRule type="expression" dxfId="460" priority="176">
+      <formula>AND($A128="end repeat", $B128 = "", $C128 = "", $D128 = "", $E128 = "", $F128 = "", $G128 = "", $H128 = "", $I128 = "", $J128 = "", $K128 = "", $L128 = "", $M128 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I130">
+    <cfRule type="expression" dxfId="459" priority="177">
+      <formula>AND($I130 = "", $A130 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="expression" dxfId="458" priority="178">
+      <formula>AND(AND(NOT($A130 = "end group"), NOT($A130 = "end repeat"), NOT($A130 = "")), $C130 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="expression" dxfId="457" priority="179">
+      <formula>AND(AND(NOT($A130 = "end group"), NOT($A130 = "end repeat"), NOT($A130 = "")), $B130 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130">
+    <cfRule type="cellIs" dxfId="456" priority="180" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H130">
+    <cfRule type="expression" dxfId="455" priority="181">
+      <formula>AND(NOT($G130 = ""), $H130 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I131">
+    <cfRule type="expression" dxfId="454" priority="182">
+      <formula>AND($I131 = "", $A131 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="expression" dxfId="453" priority="183">
+      <formula>AND(AND(NOT($A131 = "end group"), NOT($A131 = "end repeat"), NOT($A131 = "")), $C131 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="expression" dxfId="452" priority="184">
+      <formula>AND(AND(NOT($A131 = "end group"), NOT($A131 = "end repeat"), NOT($A131 = "")), $B131 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="cellIs" dxfId="451" priority="185" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H131">
+    <cfRule type="expression" dxfId="450" priority="186">
+      <formula>AND(NOT($G131 = ""), $H131 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I132">
+    <cfRule type="expression" dxfId="449" priority="187">
+      <formula>AND($I132 = "", $A132 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="expression" dxfId="448" priority="188">
+      <formula>AND(AND(NOT($A132 = "end group"), NOT($A132 = "end repeat"), NOT($A132 = "")), $C132 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B132">
+    <cfRule type="expression" dxfId="447" priority="189">
+      <formula>AND(AND(NOT($A132 = "end group"), NOT($A132 = "end repeat"), NOT($A132 = "")), $B132 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132">
+    <cfRule type="cellIs" dxfId="446" priority="190" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H132">
+    <cfRule type="expression" dxfId="445" priority="191">
+      <formula>AND(NOT($G132 = ""), $H132 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134:Y134">
+    <cfRule type="containsText" dxfId="444" priority="192" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134:Y134">
+    <cfRule type="expression" dxfId="443" priority="193">
+      <formula>AND($A134="begin group", NOT($B134 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134:Y134">
+    <cfRule type="expression" dxfId="442" priority="194">
+      <formula>AND($A134="end group", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134:Y134">
+    <cfRule type="cellIs" dxfId="441" priority="195" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I134">
+    <cfRule type="expression" dxfId="440" priority="196">
+      <formula>AND($I134 = "", $A134 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="expression" dxfId="439" priority="197">
+      <formula>AND(AND(NOT($A134 = "end group"), NOT($A134 = "end repeat"), NOT($A134 = "")), $C134 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134">
+    <cfRule type="expression" dxfId="438" priority="198">
+      <formula>AND(AND(NOT($A134 = "end group"), NOT($A134 = "end repeat"), NOT($A134 = "")), $B134 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134">
+    <cfRule type="cellIs" dxfId="437" priority="199" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H134">
+    <cfRule type="expression" dxfId="436" priority="200">
+      <formula>AND(NOT($G134 = ""), $H134 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134:Y134">
+    <cfRule type="expression" dxfId="435" priority="201">
+      <formula>AND($A134="begin repeat", NOT($B134 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134:Y134">
+    <cfRule type="expression" dxfId="434" priority="202">
+      <formula>AND($A134="end repeat", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135:Y135">
+    <cfRule type="containsText" dxfId="433" priority="203" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135:Y135">
+    <cfRule type="expression" dxfId="432" priority="204">
+      <formula>AND($A135="begin group", NOT($B135 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135:Y135">
+    <cfRule type="expression" dxfId="431" priority="205">
+      <formula>AND($A135="end group", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135:Y135">
+    <cfRule type="cellIs" dxfId="430" priority="206" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I135">
+    <cfRule type="expression" dxfId="429" priority="207">
+      <formula>AND($I135 = "", $A135 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="expression" dxfId="428" priority="208">
+      <formula>AND(AND(NOT($A135 = "end group"), NOT($A135 = "end repeat"), NOT($A135 = "")), $C135 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="expression" dxfId="427" priority="209">
+      <formula>AND(AND(NOT($A135 = "end group"), NOT($A135 = "end repeat"), NOT($A135 = "")), $B135 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135">
+    <cfRule type="cellIs" dxfId="426" priority="210" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H135">
+    <cfRule type="expression" dxfId="425" priority="211">
+      <formula>AND(NOT($G135 = ""), $H135 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135:Y135">
+    <cfRule type="expression" dxfId="424" priority="212">
+      <formula>AND($A135="begin repeat", NOT($B135 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135:Y135">
+    <cfRule type="expression" dxfId="423" priority="213">
+      <formula>AND($A135="end repeat", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136:Y136">
+    <cfRule type="containsText" dxfId="422" priority="214" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136:Y136">
+    <cfRule type="expression" dxfId="421" priority="215">
+      <formula>AND($A136="begin group", NOT($B136 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136:Y136">
+    <cfRule type="expression" dxfId="420" priority="216">
+      <formula>AND($A136="end group", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136:Y136">
+    <cfRule type="cellIs" dxfId="419" priority="217" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I136">
+    <cfRule type="expression" dxfId="418" priority="218">
+      <formula>AND($I136 = "", $A136 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
+    <cfRule type="expression" dxfId="417" priority="219">
+      <formula>AND(AND(NOT($A136 = "end group"), NOT($A136 = "end repeat"), NOT($A136 = "")), $C136 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="expression" dxfId="416" priority="220">
+      <formula>AND(AND(NOT($A136 = "end group"), NOT($A136 = "end repeat"), NOT($A136 = "")), $B136 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
+    <cfRule type="cellIs" dxfId="415" priority="221" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H136">
+    <cfRule type="expression" dxfId="414" priority="222">
+      <formula>AND(NOT($G136 = ""), $H136 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136:Y136">
+    <cfRule type="expression" dxfId="413" priority="223">
+      <formula>AND($A136="begin repeat", NOT($B136 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136:Y136">
+    <cfRule type="expression" dxfId="412" priority="224">
+      <formula>AND($A136="end repeat", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141:Y141">
+    <cfRule type="containsText" dxfId="411" priority="225" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141:Y141">
+    <cfRule type="expression" dxfId="410" priority="226">
+      <formula>AND($A141="begin group", NOT($B141 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141:Y141">
+    <cfRule type="expression" dxfId="409" priority="227">
+      <formula>AND($A141="end group", $B141 = "", $C141 = "", $D141 = "", $E141 = "", $F141 = "", $G141 = "", $H141 = "", $I141 = "", $J141 = "", $K141 = "", $L141 = "", $M141 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141:Y141">
+    <cfRule type="cellIs" dxfId="408" priority="228" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I141">
+    <cfRule type="expression" dxfId="407" priority="229">
+      <formula>AND($I141 = "", $A141 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="expression" dxfId="406" priority="230">
+      <formula>AND(AND(NOT($A141 = "end group"), NOT($A141 = "end repeat"), NOT($A141 = "")), $C141 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B141">
+    <cfRule type="expression" dxfId="405" priority="231">
+      <formula>AND(AND(NOT($A141 = "end group"), NOT($A141 = "end repeat"), NOT($A141 = "")), $B141 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141">
+    <cfRule type="cellIs" dxfId="404" priority="232" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H141">
+    <cfRule type="expression" dxfId="403" priority="233">
+      <formula>AND(NOT($G141 = ""), $H141 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141:Y141">
+    <cfRule type="expression" dxfId="402" priority="234">
+      <formula>AND($A141="begin repeat", NOT($B141 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141:Y141">
+    <cfRule type="expression" dxfId="401" priority="235">
+      <formula>AND($A141="end repeat", $B141 = "", $C141 = "", $D141 = "", $E141 = "", $F141 = "", $G141 = "", $H141 = "", $I141 = "", $J141 = "", $K141 = "", $L141 = "", $M141 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="containsText" dxfId="400" priority="236" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="expression" dxfId="399" priority="237">
+      <formula>AND($A152="begin group", NOT($B152 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="expression" dxfId="398" priority="238">
+      <formula>AND($A152="end group", $B152 = "", $C152 = "", $D152 = "", $E152 = "", $F152 = "", $G152 = "", $H152 = "", $I152 = "", $J152 = "", $K152 = "", $L152 = "", $M152 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="cellIs" dxfId="397" priority="239" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="cellIs" dxfId="396" priority="240" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="expression" dxfId="395" priority="241">
+      <formula>AND($A152="begin repeat", NOT($B152 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="expression" dxfId="394" priority="242">
+      <formula>AND($A152="end repeat", $B152 = "", $C152 = "", $D152 = "", $E152 = "", $F152 = "", $G152 = "", $H152 = "", $I152 = "", $J152 = "", $K152 = "", $L152 = "", $M152 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I138:I140">
+    <cfRule type="expression" dxfId="393" priority="243">
+      <formula>AND($I138 = "", $A138 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139:C140">
+    <cfRule type="expression" dxfId="392" priority="244">
+      <formula>AND(AND(NOT($A139 = "end group"), NOT($A139 = "end repeat"), NOT($A139 = "")), $C139 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B139:B140">
+    <cfRule type="expression" dxfId="391" priority="245">
+      <formula>AND(AND(NOT($A139 = "end group"), NOT($A139 = "end repeat"), NOT($A139 = "")), $B139 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:A140">
+    <cfRule type="cellIs" dxfId="390" priority="246" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H138:H140">
+    <cfRule type="expression" dxfId="389" priority="247">
+      <formula>AND(NOT($G138 = ""), $H138 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137:Y137">
+    <cfRule type="containsText" dxfId="388" priority="248" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137:Y137">
+    <cfRule type="expression" dxfId="387" priority="249">
+      <formula>AND($A137="begin group", NOT($B137 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137:Y137">
+    <cfRule type="expression" dxfId="386" priority="250">
+      <formula>AND($A137="end group", $B137 = "", $C137 = "", $D137 = "", $E137 = "", $F137 = "", $G137 = "", $H137 = "", $I137 = "", $J137 = "", $K137 = "", $L137 = "", $M137 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137:Y137">
+    <cfRule type="cellIs" dxfId="385" priority="251" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I137">
+    <cfRule type="expression" dxfId="384" priority="252">
+      <formula>AND($I137 = "", $A137 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="expression" dxfId="383" priority="253">
+      <formula>AND(AND(NOT($A137 = "end group"), NOT($A137 = "end repeat"), NOT($A137 = "")), $C137 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="expression" dxfId="382" priority="254">
+      <formula>AND(AND(NOT($A137 = "end group"), NOT($A137 = "end repeat"), NOT($A137 = "")), $B137 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137">
+    <cfRule type="cellIs" dxfId="381" priority="255" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H137">
+    <cfRule type="expression" dxfId="380" priority="256">
+      <formula>AND(NOT($G137 = ""), $H137 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137:Y137">
+    <cfRule type="expression" dxfId="379" priority="257">
+      <formula>AND($A137="begin repeat", NOT($B137 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137:Y137">
+    <cfRule type="expression" dxfId="378" priority="258">
+      <formula>AND($A137="end repeat", $B137 = "", $C137 = "", $D137 = "", $E137 = "", $F137 = "", $G137 = "", $H137 = "", $I137 = "", $J137 = "", $K137 = "", $L137 = "", $M137 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="containsText" dxfId="377" priority="259" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="expression" dxfId="376" priority="260">
+      <formula>AND($A129="begin group", NOT($B129 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="expression" dxfId="375" priority="261">
+      <formula>AND($A129="end group", $B129 = "", $C129 = "", $D129 = "", $E129 = "", $F129 = "", $G129 = "", $H129 = "", $I129 = "", $J129 = "", $K129 = "", $L129 = "", $M129 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="374" priority="262" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="expression" dxfId="373" priority="263">
+      <formula>AND($A129="begin repeat", NOT($B129 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="expression" dxfId="372" priority="264">
+      <formula>AND($A129="end repeat", $B129 = "", $C129 = "", $D129 = "", $E129 = "", $F129 = "", $G129 = "", $H129 = "", $I129 = "", $J129 = "", $K129 = "", $L129 = "", $M129 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="containsText" dxfId="371" priority="265" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="expression" dxfId="370" priority="266">
+      <formula>AND($A129="begin group", NOT($B129 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="expression" dxfId="369" priority="267">
+      <formula>AND($A129="end group", $B129 = "", $C129 = "", $D129 = "", $E129 = "", $F129 = "", $G129 = "", $H129 = "", $I129 = "", $J129 = "", $K129 = "", $L129 = "", $M129 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="368" priority="268" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="expression" dxfId="367" priority="269">
+      <formula>AND($A129="begin repeat", NOT($B129 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="expression" dxfId="366" priority="270">
+      <formula>AND($A129="end repeat", $B129 = "", $C129 = "", $D129 = "", $E129 = "", $F129 = "", $G129 = "", $H129 = "", $I129 = "", $J129 = "", $K129 = "", $L129 = "", $M129 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I129">
+    <cfRule type="expression" dxfId="365" priority="271">
+      <formula>AND($I129 = "", $A129 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="expression" dxfId="364" priority="272">
+      <formula>AND(AND(NOT($A129 = "end group"), NOT($A129 = "end repeat"), NOT($A129 = "")), $C129 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129">
+    <cfRule type="expression" dxfId="363" priority="273">
+      <formula>AND(AND(NOT($A129 = "end group"), NOT($A129 = "end repeat"), NOT($A129 = "")), $B129 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129">
+    <cfRule type="cellIs" dxfId="362" priority="274" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H129">
+    <cfRule type="expression" dxfId="361" priority="275">
+      <formula>AND(NOT($G129 = ""), $H129 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="containsText" dxfId="360" priority="276" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="expression" dxfId="359" priority="277">
+      <formula>AND($A133="begin group", NOT($B133 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="expression" dxfId="358" priority="278">
+      <formula>AND($A133="end group", $B133 = "", $C133 = "", $D133 = "", $E133 = "", $F133 = "", $G133 = "", $H133 = "", $I133 = "", $J133 = "", $K133 = "", $L133 = "", $M133 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="357" priority="279" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="expression" dxfId="356" priority="280">
+      <formula>AND($A133="begin repeat", NOT($B133 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="expression" dxfId="355" priority="281">
+      <formula>AND($A133="end repeat", $B133 = "", $C133 = "", $D133 = "", $E133 = "", $F133 = "", $G133 = "", $H133 = "", $I133 = "", $J133 = "", $K133 = "", $L133 = "", $M133 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="containsText" dxfId="354" priority="282" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="expression" dxfId="353" priority="283">
+      <formula>AND($A133="begin group", NOT($B133 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="expression" dxfId="352" priority="284">
+      <formula>AND($A133="end group", $B133 = "", $C133 = "", $D133 = "", $E133 = "", $F133 = "", $G133 = "", $H133 = "", $I133 = "", $J133 = "", $K133 = "", $L133 = "", $M133 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="351" priority="285" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="expression" dxfId="350" priority="286">
+      <formula>AND($A133="begin repeat", NOT($B133 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="expression" dxfId="349" priority="287">
+      <formula>AND($A133="end repeat", $B133 = "", $C133 = "", $D133 = "", $E133 = "", $F133 = "", $G133 = "", $H133 = "", $I133 = "", $J133 = "", $K133 = "", $L133 = "", $M133 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I133">
+    <cfRule type="expression" dxfId="348" priority="288">
+      <formula>AND($I133 = "", $A133 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="expression" dxfId="347" priority="289">
+      <formula>AND(AND(NOT($A133 = "end group"), NOT($A133 = "end repeat"), NOT($A133 = "")), $C133 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B133">
+    <cfRule type="expression" dxfId="346" priority="290">
+      <formula>AND(AND(NOT($A133 = "end group"), NOT($A133 = "end repeat"), NOT($A133 = "")), $B133 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133">
+    <cfRule type="cellIs" dxfId="345" priority="291" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H133">
+    <cfRule type="expression" dxfId="344" priority="292">
+      <formula>AND(NOT($G133 = ""), $H133 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="containsText" dxfId="343" priority="293" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" dxfId="342" priority="294">
+      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" dxfId="341" priority="295">
+      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="340" priority="296" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" dxfId="339" priority="297">
+      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" dxfId="338" priority="298">
+      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" dxfId="337" priority="299">
+      <formula>AND($I46 = "", $A46 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C47">
+    <cfRule type="expression" dxfId="336" priority="300">
+      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:A47">
+    <cfRule type="cellIs" dxfId="335" priority="301" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46:H47">
+    <cfRule type="expression" dxfId="334" priority="302">
+      <formula>AND(NOT($G46 = ""), $H46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="containsText" dxfId="333" priority="303" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" dxfId="332" priority="304">
+      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" dxfId="331" priority="305">
+      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="330" priority="306" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" dxfId="329" priority="307">
+      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" dxfId="328" priority="308">
+      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="containsText" dxfId="327" priority="309" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" dxfId="326" priority="310">
+      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" dxfId="325" priority="311">
+      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="324" priority="312" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" dxfId="323" priority="313">
+      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" dxfId="322" priority="314">
+      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="321" priority="315">
+      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="cellIs" dxfId="320" priority="316" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="expression" dxfId="319" priority="317">
+      <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="containsText" dxfId="318" priority="318" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="317" priority="319">
+      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="316" priority="320">
+      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $I50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="315" priority="321" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="314" priority="322">
+      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="313" priority="323">
+      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $I50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="containsText" dxfId="312" priority="324" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="311" priority="325">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="310" priority="326">
+      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $I48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="309" priority="327" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="308" priority="328">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="307" priority="329">
+      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $I48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52 I56:I58">
+    <cfRule type="expression" dxfId="306" priority="330">
+      <formula>AND($I52 = "", $A52 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52 C56:C58">
+    <cfRule type="expression" dxfId="305" priority="331">
+      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52 A56:A58">
+    <cfRule type="cellIs" dxfId="304" priority="332" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52 H56:H58">
+    <cfRule type="expression" dxfId="303" priority="333">
+      <formula>AND(NOT($G52 = ""), $H52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52 E56:E58">
+    <cfRule type="containsText" dxfId="302" priority="334" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52 E56:E58">
+    <cfRule type="expression" dxfId="301" priority="335">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52 E56:E58">
+    <cfRule type="expression" dxfId="300" priority="336">
+      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52 E56:E58">
+    <cfRule type="cellIs" dxfId="299" priority="337" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52 E56:E58">
+    <cfRule type="expression" dxfId="298" priority="338">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52 E56:E58">
+    <cfRule type="expression" dxfId="297" priority="339">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="expression" dxfId="296" priority="340">
+      <formula>AND($I59 = "", $A59 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="295" priority="341">
+      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $C59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="cellIs" dxfId="294" priority="342" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="expression" dxfId="293" priority="343">
+      <formula>AND(NOT($G59 = ""), $H59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="containsText" dxfId="292" priority="344" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="291" priority="345">
+      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="290" priority="346">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="289" priority="347" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="288" priority="348">
+      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="287" priority="349">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="expression" dxfId="286" priority="350">
+      <formula>AND($I66 = "", $A66 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="285" priority="351">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="cellIs" dxfId="284" priority="352" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="expression" dxfId="283" priority="353">
+      <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="containsText" dxfId="282" priority="354" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="281" priority="355">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="280" priority="356">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="279" priority="357" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="278" priority="358">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="277" priority="359">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67:I68">
+    <cfRule type="expression" dxfId="276" priority="360">
+      <formula>AND($I67 = "", $A67 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67:C68">
+    <cfRule type="expression" dxfId="275" priority="361">
+      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:B68">
+    <cfRule type="expression" dxfId="274" priority="362">
+      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $B67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A68">
+    <cfRule type="cellIs" dxfId="273" priority="363" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67:H68">
+    <cfRule type="expression" dxfId="272" priority="364">
+      <formula>AND(NOT($G67 = ""), $H67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="containsText" dxfId="271" priority="365" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="expression" dxfId="270" priority="366">
+      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="expression" dxfId="269" priority="367">
+      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="cellIs" dxfId="268" priority="368" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="expression" dxfId="267" priority="369">
+      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="expression" dxfId="266" priority="370">
+      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="expression" dxfId="265" priority="371">
+      <formula>AND($I63 = "", $A63 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="264" priority="372">
+      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:A63">
+    <cfRule type="cellIs" dxfId="263" priority="373" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="expression" dxfId="262" priority="374">
+      <formula>AND(NOT($G63 = ""), $H63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="containsText" dxfId="261" priority="375" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="260" priority="376">
+      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="259" priority="377">
+      <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="258" priority="378" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="257" priority="379">
+      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="256" priority="380">
+      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="cellIs" dxfId="255" priority="381" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Y73">
+    <cfRule type="containsText" dxfId="254" priority="382" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Y73">
+    <cfRule type="expression" dxfId="253" priority="383">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Y73">
+    <cfRule type="expression" dxfId="252" priority="384">
+      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Y73">
+    <cfRule type="cellIs" dxfId="251" priority="385" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71:I73">
+    <cfRule type="expression" dxfId="250" priority="386">
+      <formula>AND($I71 = "", $A71 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C73">
+    <cfRule type="expression" dxfId="249" priority="387">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B73">
+    <cfRule type="expression" dxfId="248" priority="388">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $B71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:A73">
+    <cfRule type="cellIs" dxfId="247" priority="389" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71:H73">
+    <cfRule type="expression" dxfId="246" priority="390">
+      <formula>AND(NOT($G71 = ""), $H71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Y73">
+    <cfRule type="expression" dxfId="245" priority="391">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Y73">
+    <cfRule type="expression" dxfId="244" priority="392">
+      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="containsText" dxfId="243" priority="393" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="expression" dxfId="242" priority="394">
+      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="expression" dxfId="241" priority="395">
+      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="cellIs" dxfId="240" priority="396" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="cellIs" dxfId="239" priority="397" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="expression" dxfId="238" priority="398">
+      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="expression" dxfId="237" priority="399">
+      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="containsText" dxfId="236" priority="400" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="235" priority="401">
+      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="234" priority="402">
+      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="233" priority="403" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="232" priority="404">
+      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="231" priority="405">
+      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="cellIs" dxfId="230" priority="406" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I78:I80">
+    <cfRule type="expression" dxfId="229" priority="407">
+      <formula>AND($I78 = "", $A78 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C80">
+    <cfRule type="expression" dxfId="228" priority="408">
+      <formula>AND(AND(NOT($A78 = "end group"), NOT($A78 = "end repeat"), NOT($A78 = "")), $C78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:B80">
+    <cfRule type="expression" dxfId="227" priority="409">
+      <formula>AND(AND(NOT($A79 = "end group"), NOT($A79 = "end repeat"), NOT($A79 = "")), $B79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:A80">
+    <cfRule type="cellIs" dxfId="226" priority="410" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78:H80">
+    <cfRule type="expression" dxfId="225" priority="411">
+      <formula>AND(NOT($G78 = ""), $H78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I86">
+    <cfRule type="expression" dxfId="224" priority="412">
+      <formula>AND($I86 = "", $A86 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
+    <cfRule type="expression" dxfId="223" priority="413">
+      <formula>AND(AND(NOT($A86 = "end group"), NOT($A86 = "end repeat"), NOT($A86 = "")), $C86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="expression" dxfId="222" priority="414">
+      <formula>AND(AND(NOT($A86 = "end group"), NOT($A86 = "end repeat"), NOT($A86 = "")), $B86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="cellIs" dxfId="221" priority="415" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="expression" dxfId="220" priority="416">
+      <formula>AND(NOT($G86 = ""), $H86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="containsText" dxfId="219" priority="417" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="218" priority="418">
+      <formula>AND($A86="begin group", NOT($B86 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="217" priority="419">
+      <formula>AND($A86="end group", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="216" priority="420" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="215" priority="421">
+      <formula>AND($A86="begin repeat", NOT($B86 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="214" priority="422">
+      <formula>AND($A86="end repeat", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I87:I93">
+    <cfRule type="expression" dxfId="213" priority="423">
+      <formula>AND($I87 = "", $A87 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87:C93">
+    <cfRule type="expression" dxfId="212" priority="424">
+      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $C87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:A93">
+    <cfRule type="cellIs" dxfId="211" priority="425" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:H93">
+    <cfRule type="expression" dxfId="210" priority="426">
+      <formula>AND(NOT($G87 = ""), $H87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="containsText" dxfId="209" priority="427" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="208" priority="428">
+      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="207" priority="429">
+      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="cellIs" dxfId="206" priority="430" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="cellIs" dxfId="205" priority="431" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="204" priority="432">
+      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="203" priority="433">
+      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" dxfId="202" priority="434">
+      <formula>AND($I43 = "", $A43 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="201" priority="435">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="200" priority="436">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="cellIs" dxfId="199" priority="437" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" dxfId="198" priority="438">
+      <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="containsText" dxfId="197" priority="439" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" dxfId="196" priority="440">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" dxfId="195" priority="441">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="194" priority="442" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" dxfId="193" priority="443">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" dxfId="192" priority="444">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" dxfId="191" priority="445">
+      <formula>AND($I49 = "", $A49 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="190" priority="446">
+      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="189" priority="447">
+      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $B49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="cellIs" dxfId="188" priority="448" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="expression" dxfId="187" priority="449">
+      <formula>AND(NOT($G49 = ""), $H49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="containsText" dxfId="186" priority="450" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="185" priority="451">
+      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="184" priority="452">
+      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="183" priority="453" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="182" priority="454">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="181" priority="455">
+      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60:I62">
+    <cfRule type="expression" dxfId="180" priority="456">
+      <formula>AND($I60 = "", $A60 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C62">
+    <cfRule type="expression" dxfId="179" priority="457">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B62">
+    <cfRule type="expression" dxfId="178" priority="458">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="cellIs" dxfId="177" priority="459" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60:H62">
+    <cfRule type="expression" dxfId="176" priority="460">
+      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="containsText" dxfId="175" priority="461" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="174" priority="462">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="173" priority="463">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="172" priority="464" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="171" priority="465">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="170" priority="466">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:Y38">
+    <cfRule type="containsText" dxfId="169" priority="467" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:Y38">
+    <cfRule type="cellIs" dxfId="168" priority="468" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="cellIs" dxfId="167" priority="469" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I48">
+    <cfRule type="expression" dxfId="166" priority="470">
+      <formula>AND($I47 = "", $A47 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="containsText" dxfId="165" priority="471" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="expression" dxfId="164" priority="472">
+      <formula>AND($A84="begin group", NOT($B84 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="expression" dxfId="163" priority="473">
+      <formula>AND($A84="end group", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="162" priority="474" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="expression" dxfId="161" priority="475">
+      <formula>AND($A84="begin repeat", NOT($B84 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="expression" dxfId="160" priority="476">
+      <formula>AND($A84="end repeat", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="containsText" dxfId="159" priority="477" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="expression" dxfId="158" priority="478">
+      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="expression" dxfId="157" priority="479">
+      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="156" priority="480" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="expression" dxfId="155" priority="481">
+      <formula>AND(AND(NOT($A82 = "end group"), NOT($A82 = "end repeat"), NOT($A82 = "")), $B82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="expression" dxfId="154" priority="482">
+      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="expression" dxfId="153" priority="483">
+      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="containsText" dxfId="152" priority="484" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="expression" dxfId="151" priority="485">
+      <formula>AND($A83="begin group", NOT($B83 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="expression" dxfId="150" priority="486">
+      <formula>AND($A83="end group", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="cellIs" dxfId="149" priority="487" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="cellIs" dxfId="148" priority="488" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="expression" dxfId="147" priority="489">
+      <formula>AND($A83="begin repeat", NOT($B83 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="expression" dxfId="146" priority="490">
+      <formula>AND($A83="end repeat", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="containsText" dxfId="145" priority="491" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" dxfId="144" priority="492">
+      <formula>AND($A83="begin group", NOT($B83 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" dxfId="143" priority="493">
+      <formula>AND($A83="end group", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="cellIs" dxfId="142" priority="494" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" dxfId="141" priority="495">
+      <formula>AND(AND(NOT($A83 = "end group"), NOT($A83 = "end repeat"), NOT($A83 = "")), $B83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" dxfId="140" priority="496">
+      <formula>AND($A83="begin repeat", NOT($B83 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" dxfId="139" priority="497">
+      <formula>AND($A83="end repeat", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="containsText" dxfId="138" priority="498" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="expression" dxfId="137" priority="499">
+      <formula>AND($A130="begin group", NOT($B130 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="expression" dxfId="136" priority="500">
+      <formula>AND($A130="end group", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="135" priority="501" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="expression" dxfId="134" priority="502">
+      <formula>AND($A130="begin repeat", NOT($B130 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="expression" dxfId="133" priority="503">
+      <formula>AND($A130="end repeat", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="containsText" dxfId="132" priority="504" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="expression" dxfId="131" priority="505">
+      <formula>AND($A131="begin group", NOT($B131 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="expression" dxfId="130" priority="506">
+      <formula>AND($A131="end group", $B131 = "", $C131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $I131 = "", $J131 = "", $K131 = "", $L131 = "", $M131 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="cellIs" dxfId="129" priority="507" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="expression" dxfId="128" priority="508">
+      <formula>AND($A131="begin repeat", NOT($B131 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="expression" dxfId="127" priority="509">
+      <formula>AND($A131="end repeat", $B131 = "", $C131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $I131 = "", $J131 = "", $K131 = "", $L131 = "", $M131 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="containsText" dxfId="126" priority="510" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="expression" dxfId="125" priority="511">
+      <formula>AND($A132="begin group", NOT($B132 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="expression" dxfId="124" priority="512">
+      <formula>AND($A132="end group", $B132 = "", $C132 = "", $D132 = "", $E132 = "", $F132 = "", $G132 = "", $H132 = "", $I132 = "", $J132 = "", $K132 = "", $L132 = "", $M132 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="cellIs" dxfId="123" priority="513" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="expression" dxfId="122" priority="514">
+      <formula>AND($A132="begin repeat", NOT($B132 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="expression" dxfId="121" priority="515">
+      <formula>AND($A132="end repeat", $B132 = "", $C132 = "", $D132 = "", $E132 = "", $F132 = "", $G132 = "", $H132 = "", $I132 = "", $J132 = "", $K132 = "", $L132 = "", $M132 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74">
+    <cfRule type="expression" dxfId="120" priority="516">
+      <formula>AND($I74 = "", $A74 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74">
+    <cfRule type="expression" dxfId="119" priority="517">
+      <formula>AND(AND(NOT($A74 = "end group"), NOT($A74 = "end repeat"), NOT($A74 = "")), $C74 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="expression" dxfId="118" priority="518">
+      <formula>AND(AND(NOT($A74 = "end group"), NOT($A74 = "end repeat"), NOT($A74 = "")), $B74 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="containsText" dxfId="499" priority="130" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74 A37:Y37">
-    <cfRule type="expression" dxfId="498" priority="131">
-      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74 A37:Y37">
-    <cfRule type="expression" dxfId="497" priority="132">
-      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="cellIs" dxfId="496" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="519" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="expression" dxfId="116" priority="520">
+      <formula>AND(NOT($G74 = ""), $H74 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85">
+    <cfRule type="expression" dxfId="115" priority="521">
+      <formula>AND($I85 = "", $A85 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="114" priority="522">
+      <formula>AND(AND(NOT($A85 = "end group"), NOT($A85 = "end repeat"), NOT($A85 = "")), $C85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="cellIs" dxfId="113" priority="523" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="expression" dxfId="112" priority="524">
+      <formula>AND(NOT($G85 = ""), $H85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="containsText" dxfId="111" priority="525" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" dxfId="110" priority="526">
+      <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" dxfId="109" priority="527">
+      <formula>AND($A85="end group", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="108" priority="528" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="cellIs" dxfId="495" priority="134" operator="equal">
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" dxfId="107" priority="529">
+      <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" dxfId="106" priority="530">
+      <formula>AND($A85="end repeat", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="expression" dxfId="105" priority="531">
+      <formula>COUNTIF($B$2:$B$1090,B135)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="expression" dxfId="104" priority="533">
+      <formula>COUNTIF($B$2:$B$1094,B130)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="expression" dxfId="103" priority="534">
+      <formula>COUNTIF($B$2:$B$1093,B131)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:B68">
+    <cfRule type="expression" dxfId="102" priority="535">
+      <formula>COUNTIF($B$2:$B$1082,B67)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:B80">
+    <cfRule type="expression" dxfId="101" priority="536">
+      <formula>COUNTIF($B$2:$B$1073,B79)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="100" priority="537">
+      <formula>COUNTIF($B$2:$B$994,B43)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B62 B64:B65 B44:B45">
+    <cfRule type="expression" dxfId="99" priority="538">
+      <formula>COUNTIF($B$2:$B$992,B44)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82:B83">
+    <cfRule type="expression" dxfId="98" priority="539">
+      <formula>COUNTIF($B$2:$B$1095,B82)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:A62">
+    <cfRule type="cellIs" dxfId="97" priority="540" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74 A37:Y37">
-    <cfRule type="expression" dxfId="494" priority="135">
-      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74 A37:Y37">
-    <cfRule type="expression" dxfId="493" priority="136">
-      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113:E124">
-    <cfRule type="containsText" dxfId="492" priority="137" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113:E124">
-    <cfRule type="expression" dxfId="491" priority="138">
-      <formula>AND($A113="begin group", NOT($B113 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113:E124">
-    <cfRule type="expression" dxfId="490" priority="139">
-      <formula>AND($A113="end group", $B113 = "", $C113 = "", $D113 = "", $E113 = "", $F113 = "", $G113 = "", $H113 = "", $I113 = "", $J113 = "", $K113 = "", $L113 = "", $M113 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113:E124">
-    <cfRule type="cellIs" dxfId="489" priority="140" operator="equal">
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="containsText" dxfId="96" priority="541" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="expression" dxfId="95" priority="542">
+      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="expression" dxfId="94" priority="543">
+      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="cellIs" dxfId="93" priority="544" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E113:E124">
-    <cfRule type="expression" dxfId="488" priority="141">
-      <formula>AND($A113="begin repeat", NOT($B113 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113:E124">
-    <cfRule type="expression" dxfId="487" priority="142">
-      <formula>AND($A113="end repeat", $B113 = "", $C113 = "", $D113 = "", $E113 = "", $F113 = "", $G113 = "", $H113 = "", $I113 = "", $J113 = "", $K113 = "", $L113 = "", $M113 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124">
-    <cfRule type="cellIs" dxfId="486" priority="143" operator="equal">
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="expression" dxfId="92" priority="545">
+      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="expression" dxfId="91" priority="546">
+      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="containsText" dxfId="90" priority="547" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="expression" dxfId="89" priority="548">
+      <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="expression" dxfId="88" priority="549">
+      <formula>AND($A88="end group", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="87" priority="550" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="expression" dxfId="86" priority="551">
+      <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="expression" dxfId="85" priority="552">
+      <formula>AND($A88="end repeat", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:Y37">
+    <cfRule type="containsText" dxfId="84" priority="113" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:Y37">
+    <cfRule type="cellIs" dxfId="83" priority="116" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="cellIs" dxfId="82" priority="120" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126:Y126">
-    <cfRule type="containsText" dxfId="485" priority="144" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:Y126">
-    <cfRule type="expression" dxfId="484" priority="145">
-      <formula>AND($A126="begin group", NOT($B126 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:Y126">
-    <cfRule type="expression" dxfId="483" priority="146">
-      <formula>AND($A126="end group", $B126 = "", $C126 = "", $D126 = "", $E126 = "", $F126 = "", $G126 = "", $H126 = "", $I126 = "", $J126 = "", $K126 = "", $L126 = "", $M126 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:Y126">
-    <cfRule type="cellIs" dxfId="482" priority="147" operator="equal">
+  <conditionalFormatting sqref="B37 B14">
+    <cfRule type="expression" dxfId="81" priority="124">
+      <formula>COUNTIF($B$2:$B$976,#REF!)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="containsText" dxfId="80" priority="101" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="expression" dxfId="79" priority="102">
+      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="expression" dxfId="78" priority="103">
+      <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="cellIs" dxfId="77" priority="104" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I126 I37">
-    <cfRule type="expression" dxfId="481" priority="148">
-      <formula>AND($I37 = "", $A37 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126 C37">
-    <cfRule type="expression" dxfId="480" priority="149">
-      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126 B37">
-    <cfRule type="expression" dxfId="479" priority="150">
-      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="cellIs" dxfId="478" priority="151" operator="equal">
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="76" priority="105">
+      <formula>AND($I14 = "", $A14 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="75" priority="106">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="74" priority="107">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="cellIs" dxfId="73" priority="108" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H126 H37">
-    <cfRule type="expression" dxfId="477" priority="152">
-      <formula>AND(NOT($G37 = ""), $H37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:Y126">
-    <cfRule type="expression" dxfId="476" priority="153">
-      <formula>AND($A126="begin repeat", NOT($B126 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:Y126">
-    <cfRule type="expression" dxfId="475" priority="154">
-      <formula>AND($A126="end repeat", $B126 = "", $C126 = "", $D126 = "", $E126 = "", $F126 = "", $G126 = "", $H126 = "", $I126 = "", $J126 = "", $K126 = "", $L126 = "", $M126 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127:Y127">
-    <cfRule type="containsText" dxfId="474" priority="155" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127:Y127">
-    <cfRule type="expression" dxfId="473" priority="156">
-      <formula>AND($A127="begin group", NOT($B127 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127:Y127">
-    <cfRule type="expression" dxfId="472" priority="157">
-      <formula>AND($A127="end group", $B127 = "", $C127 = "", $D127 = "", $E127 = "", $F127 = "", $G127 = "", $H127 = "", $I127 = "", $J127 = "", $K127 = "", $L127 = "", $M127 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127:Y127">
-    <cfRule type="cellIs" dxfId="471" priority="158" operator="equal">
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="72" priority="109">
+      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="expression" dxfId="71" priority="110">
+      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="expression" dxfId="70" priority="111">
+      <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" dxfId="69" priority="94">
+      <formula>AND($I42 = "", $A42 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="containsText" dxfId="68" priority="95" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="67" priority="96">
+      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="66" priority="97">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="65" priority="98" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I127">
-    <cfRule type="expression" dxfId="470" priority="159">
-      <formula>AND($I127 = "", $A127 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="expression" dxfId="469" priority="160">
-      <formula>AND(AND(NOT($A127 = "end group"), NOT($A127 = "end repeat"), NOT($A127 = "")), $C127 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="expression" dxfId="468" priority="161">
-      <formula>AND(AND(NOT($A127 = "end group"), NOT($A127 = "end repeat"), NOT($A127 = "")), $B127 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
-    <cfRule type="cellIs" dxfId="467" priority="162" operator="equal">
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="64" priority="99">
+      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="63" priority="100">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="expression" dxfId="62" priority="75">
+      <formula>AND($I64 = "", $A64 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="61" priority="76">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="expression" dxfId="60" priority="77">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="cellIs" dxfId="59" priority="78" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H127">
-    <cfRule type="expression" dxfId="466" priority="163">
-      <formula>AND(NOT($G127 = ""), $H127 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127:Y127">
-    <cfRule type="expression" dxfId="465" priority="164">
-      <formula>AND($A127="begin repeat", NOT($B127 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127:Y127">
-    <cfRule type="expression" dxfId="464" priority="165">
-      <formula>AND($A127="end repeat", $B127 = "", $C127 = "", $D127 = "", $E127 = "", $F127 = "", $G127 = "", $H127 = "", $I127 = "", $J127 = "", $K127 = "", $L127 = "", $M127 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I129">
-    <cfRule type="expression" dxfId="463" priority="166">
-      <formula>AND($I129 = "", $A129 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="expression" dxfId="462" priority="167">
-      <formula>AND(AND(NOT($A129 = "end group"), NOT($A129 = "end repeat"), NOT($A129 = "")), $C129 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129">
-    <cfRule type="expression" dxfId="461" priority="168">
-      <formula>AND(AND(NOT($A129 = "end group"), NOT($A129 = "end repeat"), NOT($A129 = "")), $B129 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
-    <cfRule type="cellIs" dxfId="460" priority="169" operator="equal">
+  <conditionalFormatting sqref="H64">
+    <cfRule type="expression" dxfId="58" priority="79">
+      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="containsText" dxfId="57" priority="80" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="56" priority="81">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="55" priority="82">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="54" priority="83" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="53" priority="84">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="52" priority="85">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="expression" dxfId="51" priority="63">
+      <formula>AND($I65 = "", $A65 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="50" priority="64">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="49" priority="65">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="cellIs" dxfId="48" priority="66" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
-    <cfRule type="expression" dxfId="459" priority="170">
-      <formula>AND(NOT($G129 = ""), $H129 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I130">
-    <cfRule type="expression" dxfId="458" priority="171">
-      <formula>AND($I130 = "", $A130 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="expression" dxfId="457" priority="172">
-      <formula>AND(AND(NOT($A130 = "end group"), NOT($A130 = "end repeat"), NOT($A130 = "")), $C130 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="expression" dxfId="456" priority="173">
-      <formula>AND(AND(NOT($A130 = "end group"), NOT($A130 = "end repeat"), NOT($A130 = "")), $B130 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A130">
-    <cfRule type="cellIs" dxfId="455" priority="174" operator="equal">
+  <conditionalFormatting sqref="H65">
+    <cfRule type="expression" dxfId="47" priority="67">
+      <formula>AND(NOT($G65 = ""), $H65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="containsText" dxfId="46" priority="68" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="45" priority="69">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="44" priority="70">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="43" priority="71" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="42" priority="72">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="41" priority="73">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="expression" dxfId="40" priority="51">
+      <formula>AND($I44 = "", $A44 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="39" priority="52">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="38" priority="53">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="cellIs" dxfId="37" priority="54" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130">
-    <cfRule type="expression" dxfId="454" priority="175">
-      <formula>AND(NOT($G130 = ""), $H130 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I131">
-    <cfRule type="expression" dxfId="453" priority="176">
-      <formula>AND($I131 = "", $A131 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="expression" dxfId="452" priority="177">
-      <formula>AND(AND(NOT($A131 = "end group"), NOT($A131 = "end repeat"), NOT($A131 = "")), $C131 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="expression" dxfId="451" priority="178">
-      <formula>AND(AND(NOT($A131 = "end group"), NOT($A131 = "end repeat"), NOT($A131 = "")), $B131 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131">
-    <cfRule type="cellIs" dxfId="450" priority="179" operator="equal">
+  <conditionalFormatting sqref="H44">
+    <cfRule type="expression" dxfId="36" priority="55">
+      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="containsText" dxfId="35" priority="56" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="34" priority="57">
+      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="33" priority="58">
+      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="32" priority="59" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="31" priority="60">
+      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="30" priority="61">
+      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="expression" dxfId="29" priority="39">
+      <formula>AND($I45 = "", $A45 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="28" priority="40">
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $C45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="27" priority="41">
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $B45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H131">
-    <cfRule type="expression" dxfId="449" priority="180">
-      <formula>AND(NOT($G131 = ""), $H131 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133:Y133">
-    <cfRule type="containsText" dxfId="448" priority="181" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133:Y133">
-    <cfRule type="expression" dxfId="447" priority="182">
-      <formula>AND($A133="begin group", NOT($B133 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133:Y133">
-    <cfRule type="expression" dxfId="446" priority="183">
-      <formula>AND($A133="end group", $B133 = "", $C133 = "", $D133 = "", $E133 = "", $F133 = "", $G133 = "", $H133 = "", $I133 = "", $J133 = "", $K133 = "", $L133 = "", $M133 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133:Y133">
-    <cfRule type="cellIs" dxfId="445" priority="184" operator="equal">
+  <conditionalFormatting sqref="H45">
+    <cfRule type="expression" dxfId="25" priority="43">
+      <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="containsText" dxfId="24" priority="44" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="23" priority="45">
+      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="22" priority="46">
+      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I133">
-    <cfRule type="expression" dxfId="444" priority="185">
-      <formula>AND($I133 = "", $A133 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
-    <cfRule type="expression" dxfId="443" priority="186">
-      <formula>AND(AND(NOT($A133 = "end group"), NOT($A133 = "end repeat"), NOT($A133 = "")), $C133 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B133">
-    <cfRule type="expression" dxfId="442" priority="187">
-      <formula>AND(AND(NOT($A133 = "end group"), NOT($A133 = "end repeat"), NOT($A133 = "")), $B133 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133">
-    <cfRule type="cellIs" dxfId="441" priority="188" operator="equal">
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="20" priority="48">
+      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="19" priority="49">
+      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>AND($I53 = "", $A53 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H133">
-    <cfRule type="expression" dxfId="440" priority="189">
-      <formula>AND(NOT($G133 = ""), $H133 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133:Y133">
-    <cfRule type="expression" dxfId="439" priority="190">
-      <formula>AND($A133="begin repeat", NOT($B133 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133:Y133">
-    <cfRule type="expression" dxfId="438" priority="191">
-      <formula>AND($A133="end repeat", $B133 = "", $C133 = "", $D133 = "", $E133 = "", $F133 = "", $G133 = "", $H133 = "", $I133 = "", $J133 = "", $K133 = "", $L133 = "", $M133 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134:Y134">
-    <cfRule type="containsText" dxfId="437" priority="192" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134:Y134">
-    <cfRule type="expression" dxfId="436" priority="193">
-      <formula>AND($A134="begin group", NOT($B134 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134:Y134">
-    <cfRule type="expression" dxfId="435" priority="194">
-      <formula>AND($A134="end group", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134:Y134">
-    <cfRule type="cellIs" dxfId="434" priority="195" operator="equal">
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" dxfId="15" priority="25">
+      <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="containsText" dxfId="14" priority="26" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="13" priority="27">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="12" priority="28">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="11" priority="29" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I134">
-    <cfRule type="expression" dxfId="433" priority="196">
-      <formula>AND($I134 = "", $A134 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
-    <cfRule type="expression" dxfId="432" priority="197">
-      <formula>AND(AND(NOT($A134 = "end group"), NOT($A134 = "end repeat"), NOT($A134 = "")), $C134 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134">
-    <cfRule type="expression" dxfId="431" priority="198">
-      <formula>AND(AND(NOT($A134 = "end group"), NOT($A134 = "end repeat"), NOT($A134 = "")), $B134 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134">
-    <cfRule type="cellIs" dxfId="430" priority="199" operator="equal">
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="10" priority="30">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="9" priority="31">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A55">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H134">
-    <cfRule type="expression" dxfId="429" priority="200">
-      <formula>AND(NOT($G134 = ""), $H134 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134:Y134">
-    <cfRule type="expression" dxfId="428" priority="201">
-      <formula>AND($A134="begin repeat", NOT($B134 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134:Y134">
-    <cfRule type="expression" dxfId="427" priority="202">
-      <formula>AND($A134="end repeat", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135:Y135">
-    <cfRule type="containsText" dxfId="426" priority="203" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135:Y135">
-    <cfRule type="expression" dxfId="425" priority="204">
-      <formula>AND($A135="begin group", NOT($B135 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135:Y135">
-    <cfRule type="expression" dxfId="424" priority="205">
-      <formula>AND($A135="end group", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135:Y135">
-    <cfRule type="cellIs" dxfId="423" priority="206" operator="equal">
+  <conditionalFormatting sqref="E54:E55">
+    <cfRule type="containsText" dxfId="7" priority="16" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E55">
+    <cfRule type="cellIs" dxfId="6" priority="19" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I135">
-    <cfRule type="expression" dxfId="422" priority="207">
-      <formula>AND($I135 = "", $A135 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="expression" dxfId="421" priority="208">
-      <formula>AND(AND(NOT($A135 = "end group"), NOT($A135 = "end repeat"), NOT($A135 = "")), $C135 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="expression" dxfId="420" priority="209">
-      <formula>AND(AND(NOT($A135 = "end group"), NOT($A135 = "end repeat"), NOT($A135 = "")), $B135 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135">
-    <cfRule type="cellIs" dxfId="419" priority="210" operator="equal">
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H135">
-    <cfRule type="expression" dxfId="418" priority="211">
-      <formula>AND(NOT($G135 = ""), $H135 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135:Y135">
-    <cfRule type="expression" dxfId="417" priority="212">
-      <formula>AND($A135="begin repeat", NOT($B135 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135:Y135">
-    <cfRule type="expression" dxfId="416" priority="213">
-      <formula>AND($A135="end repeat", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A140:Y140">
-    <cfRule type="containsText" dxfId="415" priority="214" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A140:Y140">
-    <cfRule type="expression" dxfId="414" priority="215">
-      <formula>AND($A140="begin group", NOT($B140 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A140:Y140">
-    <cfRule type="expression" dxfId="413" priority="216">
-      <formula>AND($A140="end group", $B140 = "", $C140 = "", $D140 = "", $E140 = "", $F140 = "", $G140 = "", $H140 = "", $I140 = "", $J140 = "", $K140 = "", $L140 = "", $M140 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A140:Y140">
-    <cfRule type="cellIs" dxfId="412" priority="217" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I140">
-    <cfRule type="expression" dxfId="411" priority="218">
-      <formula>AND($I140 = "", $A140 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="expression" dxfId="410" priority="219">
-      <formula>AND(AND(NOT($A140 = "end group"), NOT($A140 = "end repeat"), NOT($A140 = "")), $C140 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B140">
-    <cfRule type="expression" dxfId="409" priority="220">
-      <formula>AND(AND(NOT($A140 = "end group"), NOT($A140 = "end repeat"), NOT($A140 = "")), $B140 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A140">
-    <cfRule type="cellIs" dxfId="408" priority="221" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H140">
-    <cfRule type="expression" dxfId="407" priority="222">
-      <formula>AND(NOT($G140 = ""), $H140 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A140:Y140">
-    <cfRule type="expression" dxfId="406" priority="223">
-      <formula>AND($A140="begin repeat", NOT($B140 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A140:Y140">
-    <cfRule type="expression" dxfId="405" priority="224">
-      <formula>AND($A140="end repeat", $B140 = "", $C140 = "", $D140 = "", $E140 = "", $F140 = "", $G140 = "", $H140 = "", $I140 = "", $J140 = "", $K140 = "", $L140 = "", $M140 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151">
-    <cfRule type="containsText" dxfId="404" priority="225" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151">
-    <cfRule type="expression" dxfId="403" priority="226">
-      <formula>AND($A151="begin group", NOT($B151 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151">
-    <cfRule type="expression" dxfId="402" priority="227">
-      <formula>AND($A151="end group", $B151 = "", $C151 = "", $D151 = "", $E151 = "", $F151 = "", $G151 = "", $H151 = "", $I151 = "", $J151 = "", $K151 = "", $L151 = "", $M151 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151">
-    <cfRule type="cellIs" dxfId="401" priority="228" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151">
-    <cfRule type="cellIs" dxfId="400" priority="229" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151">
-    <cfRule type="expression" dxfId="399" priority="230">
-      <formula>AND($A151="begin repeat", NOT($B151 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151">
-    <cfRule type="expression" dxfId="398" priority="231">
-      <formula>AND($A151="end repeat", $B151 = "", $C151 = "", $D151 = "", $E151 = "", $F151 = "", $G151 = "", $H151 = "", $I151 = "", $J151 = "", $K151 = "", $L151 = "", $M151 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I137:I139">
-    <cfRule type="expression" dxfId="397" priority="232">
-      <formula>AND($I137 = "", $A137 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138:C139">
-    <cfRule type="expression" dxfId="396" priority="233">
-      <formula>AND(AND(NOT($A138 = "end group"), NOT($A138 = "end repeat"), NOT($A138 = "")), $C138 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138:B139">
-    <cfRule type="expression" dxfId="395" priority="234">
-      <formula>AND(AND(NOT($A138 = "end group"), NOT($A138 = "end repeat"), NOT($A138 = "")), $B138 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137:A139">
-    <cfRule type="cellIs" dxfId="394" priority="235" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H137:H139">
-    <cfRule type="expression" dxfId="393" priority="236">
-      <formula>AND(NOT($G137 = ""), $H137 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136:Y136">
-    <cfRule type="containsText" dxfId="392" priority="237" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136:Y136">
-    <cfRule type="expression" dxfId="391" priority="238">
-      <formula>AND($A136="begin group", NOT($B136 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136:Y136">
-    <cfRule type="expression" dxfId="390" priority="239">
-      <formula>AND($A136="end group", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136:Y136">
-    <cfRule type="cellIs" dxfId="389" priority="240" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I136">
-    <cfRule type="expression" dxfId="388" priority="241">
-      <formula>AND($I136 = "", $A136 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
-    <cfRule type="expression" dxfId="387" priority="242">
-      <formula>AND(AND(NOT($A136 = "end group"), NOT($A136 = "end repeat"), NOT($A136 = "")), $C136 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="expression" dxfId="386" priority="243">
-      <formula>AND(AND(NOT($A136 = "end group"), NOT($A136 = "end repeat"), NOT($A136 = "")), $B136 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136">
-    <cfRule type="cellIs" dxfId="385" priority="244" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H136">
-    <cfRule type="expression" dxfId="384" priority="245">
-      <formula>AND(NOT($G136 = ""), $H136 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136:Y136">
-    <cfRule type="expression" dxfId="383" priority="246">
-      <formula>AND($A136="begin repeat", NOT($B136 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136:Y136">
-    <cfRule type="expression" dxfId="382" priority="247">
-      <formula>AND($A136="end repeat", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="containsText" dxfId="381" priority="248" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="expression" dxfId="380" priority="249">
-      <formula>AND($A128="begin group", NOT($B128 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="expression" dxfId="379" priority="250">
-      <formula>AND($A128="end group", $B128 = "", $C128 = "", $D128 = "", $E128 = "", $F128 = "", $G128 = "", $H128 = "", $I128 = "", $J128 = "", $K128 = "", $L128 = "", $M128 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="378" priority="251" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="expression" dxfId="377" priority="252">
-      <formula>AND($A128="begin repeat", NOT($B128 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="expression" dxfId="376" priority="253">
-      <formula>AND($A128="end repeat", $B128 = "", $C128 = "", $D128 = "", $E128 = "", $F128 = "", $G128 = "", $H128 = "", $I128 = "", $J128 = "", $K128 = "", $L128 = "", $M128 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="containsText" dxfId="375" priority="254" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="expression" dxfId="374" priority="255">
-      <formula>AND($A128="begin group", NOT($B128 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="expression" dxfId="373" priority="256">
-      <formula>AND($A128="end group", $B128 = "", $C128 = "", $D128 = "", $E128 = "", $F128 = "", $G128 = "", $H128 = "", $I128 = "", $J128 = "", $K128 = "", $L128 = "", $M128 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="372" priority="257" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="expression" dxfId="371" priority="258">
-      <formula>AND($A128="begin repeat", NOT($B128 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="expression" dxfId="370" priority="259">
-      <formula>AND($A128="end repeat", $B128 = "", $C128 = "", $D128 = "", $E128 = "", $F128 = "", $G128 = "", $H128 = "", $I128 = "", $J128 = "", $K128 = "", $L128 = "", $M128 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I128">
-    <cfRule type="expression" dxfId="369" priority="260">
-      <formula>AND($I128 = "", $A128 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="expression" dxfId="368" priority="261">
-      <formula>AND(AND(NOT($A128 = "end group"), NOT($A128 = "end repeat"), NOT($A128 = "")), $C128 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="expression" dxfId="367" priority="262">
-      <formula>AND(AND(NOT($A128 = "end group"), NOT($A128 = "end repeat"), NOT($A128 = "")), $B128 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
-    <cfRule type="cellIs" dxfId="366" priority="263" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H128">
-    <cfRule type="expression" dxfId="365" priority="264">
-      <formula>AND(NOT($G128 = ""), $H128 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="containsText" dxfId="364" priority="265" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="expression" dxfId="363" priority="266">
-      <formula>AND($A132="begin group", NOT($B132 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="expression" dxfId="362" priority="267">
-      <formula>AND($A132="end group", $B132 = "", $C132 = "", $D132 = "", $E132 = "", $F132 = "", $G132 = "", $H132 = "", $I132 = "", $J132 = "", $K132 = "", $L132 = "", $M132 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="cellIs" dxfId="361" priority="268" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="expression" dxfId="360" priority="269">
-      <formula>AND($A132="begin repeat", NOT($B132 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="expression" dxfId="359" priority="270">
-      <formula>AND($A132="end repeat", $B132 = "", $C132 = "", $D132 = "", $E132 = "", $F132 = "", $G132 = "", $H132 = "", $I132 = "", $J132 = "", $K132 = "", $L132 = "", $M132 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="containsText" dxfId="358" priority="271" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="expression" dxfId="357" priority="272">
-      <formula>AND($A132="begin group", NOT($B132 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="expression" dxfId="356" priority="273">
-      <formula>AND($A132="end group", $B132 = "", $C132 = "", $D132 = "", $E132 = "", $F132 = "", $G132 = "", $H132 = "", $I132 = "", $J132 = "", $K132 = "", $L132 = "", $M132 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="cellIs" dxfId="355" priority="274" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="expression" dxfId="354" priority="275">
-      <formula>AND($A132="begin repeat", NOT($B132 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="expression" dxfId="353" priority="276">
-      <formula>AND($A132="end repeat", $B132 = "", $C132 = "", $D132 = "", $E132 = "", $F132 = "", $G132 = "", $H132 = "", $I132 = "", $J132 = "", $K132 = "", $L132 = "", $M132 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I132">
-    <cfRule type="expression" dxfId="352" priority="277">
-      <formula>AND($I132 = "", $A132 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="expression" dxfId="351" priority="278">
-      <formula>AND(AND(NOT($A132 = "end group"), NOT($A132 = "end repeat"), NOT($A132 = "")), $C132 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B132">
-    <cfRule type="expression" dxfId="350" priority="279">
-      <formula>AND(AND(NOT($A132 = "end group"), NOT($A132 = "end repeat"), NOT($A132 = "")), $B132 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A132">
-    <cfRule type="cellIs" dxfId="349" priority="280" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H132">
-    <cfRule type="expression" dxfId="348" priority="281">
-      <formula>AND(NOT($G132 = ""), $H132 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" dxfId="347" priority="282" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="346" priority="283">
-      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="345" priority="284">
-      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="344" priority="285" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="343" priority="286">
-      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="342" priority="287">
-      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="341" priority="288">
-      <formula>AND($I46 = "", $A46 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C47">
-    <cfRule type="expression" dxfId="340" priority="289">
-      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:A47">
-    <cfRule type="cellIs" dxfId="339" priority="290" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46:H47">
-    <cfRule type="expression" dxfId="338" priority="291">
-      <formula>AND(NOT($G46 = ""), $H46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="containsText" dxfId="337" priority="292" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="expression" dxfId="336" priority="293">
-      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="expression" dxfId="335" priority="294">
-      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="334" priority="295" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="expression" dxfId="333" priority="296">
-      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="expression" dxfId="332" priority="297">
-      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="331" priority="298" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="330" priority="299">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="329" priority="300">
-      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="328" priority="301" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="327" priority="302">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="326" priority="303">
-      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="325" priority="304">
-      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="324" priority="305" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="323" priority="306">
-      <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" dxfId="322" priority="307" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="321" priority="308">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="320" priority="309">
-      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $I50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="319" priority="310" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="318" priority="311">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="317" priority="312">
-      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $I50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="containsText" dxfId="316" priority="313" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="315" priority="314">
-      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="314" priority="315">
-      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $I48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="313" priority="316" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="312" priority="317">
-      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="311" priority="318">
-      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $I48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52 I55:I57">
-    <cfRule type="expression" dxfId="310" priority="319">
-      <formula>AND($I52 = "", $A52 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52 C55:C57">
-    <cfRule type="expression" dxfId="309" priority="320">
-      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52 A55:A57">
-    <cfRule type="cellIs" dxfId="308" priority="321" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52 H55:H57">
-    <cfRule type="expression" dxfId="307" priority="322">
-      <formula>AND(NOT($G52 = ""), $H52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52 E55:E57">
-    <cfRule type="containsText" dxfId="306" priority="323" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52 E55:E57">
-    <cfRule type="expression" dxfId="305" priority="324">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52 E55:E57">
-    <cfRule type="expression" dxfId="304" priority="325">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52 E55:E57">
-    <cfRule type="cellIs" dxfId="303" priority="326" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52 E55:E57">
-    <cfRule type="expression" dxfId="302" priority="327">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52 E55:E57">
-    <cfRule type="expression" dxfId="301" priority="328">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
-    <cfRule type="expression" dxfId="300" priority="329">
-      <formula>AND($I58 = "", $A58 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="299" priority="330">
-      <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" dxfId="298" priority="331" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="expression" dxfId="297" priority="332">
-      <formula>AND(NOT($G58 = ""), $H58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" dxfId="296" priority="333" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="295" priority="334">
-      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="294" priority="335">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="293" priority="336" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="292" priority="337">
-      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="291" priority="338">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
-    <cfRule type="expression" dxfId="290" priority="339">
-      <formula>AND($I65 = "", $A65 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="289" priority="340">
-      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" dxfId="288" priority="341" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="expression" dxfId="287" priority="342">
-      <formula>AND(NOT($G65 = ""), $H65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="containsText" dxfId="286" priority="343" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="285" priority="344">
-      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="284" priority="345">
-      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="283" priority="346" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="282" priority="347">
-      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="281" priority="348">
-      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66:I67">
-    <cfRule type="expression" dxfId="280" priority="349">
-      <formula>AND($I66 = "", $A66 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66:C67">
-    <cfRule type="expression" dxfId="279" priority="350">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66:B67">
-    <cfRule type="expression" dxfId="278" priority="351">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A67">
-    <cfRule type="cellIs" dxfId="277" priority="352" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66:H67">
-    <cfRule type="expression" dxfId="276" priority="353">
-      <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="containsText" dxfId="275" priority="354" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="expression" dxfId="274" priority="355">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="expression" dxfId="273" priority="356">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="cellIs" dxfId="272" priority="357" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="expression" dxfId="271" priority="358">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="expression" dxfId="270" priority="359">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="expression" dxfId="269" priority="360">
-      <formula>AND($I62 = "", $A62 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="268" priority="361">
-      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $C62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62">
-    <cfRule type="cellIs" dxfId="267" priority="362" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="266" priority="363">
-      <formula>AND(NOT($G62 = ""), $H62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="containsText" dxfId="265" priority="364" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="264" priority="365">
-      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="263" priority="366">
-      <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="262" priority="367" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="261" priority="368">
-      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="260" priority="369">
-      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" dxfId="259" priority="370" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y72">
-    <cfRule type="containsText" dxfId="258" priority="371" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y72">
-    <cfRule type="expression" dxfId="257" priority="372">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y72">
-    <cfRule type="expression" dxfId="256" priority="373">
-      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y72">
-    <cfRule type="cellIs" dxfId="255" priority="374" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I70:I72">
-    <cfRule type="expression" dxfId="254" priority="375">
-      <formula>AND($I70 = "", $A70 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70:C72">
-    <cfRule type="expression" dxfId="253" priority="376">
-      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $C70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B72">
-    <cfRule type="expression" dxfId="252" priority="377">
-      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $B70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A72">
-    <cfRule type="cellIs" dxfId="251" priority="378" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70:H72">
-    <cfRule type="expression" dxfId="250" priority="379">
-      <formula>AND(NOT($G70 = ""), $H70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y72">
-    <cfRule type="expression" dxfId="249" priority="380">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y72">
-    <cfRule type="expression" dxfId="248" priority="381">
-      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="containsText" dxfId="247" priority="382" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="expression" dxfId="246" priority="383">
-      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="expression" dxfId="245" priority="384">
-      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="244" priority="385" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="243" priority="386" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="expression" dxfId="242" priority="387">
-      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="expression" dxfId="241" priority="388">
-      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="containsText" dxfId="240" priority="389" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="239" priority="390">
-      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="238" priority="391">
-      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="237" priority="392" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="236" priority="393">
-      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="235" priority="394">
-      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" dxfId="234" priority="395" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77:I79">
-    <cfRule type="expression" dxfId="233" priority="396">
-      <formula>AND($I77 = "", $A77 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77:C79">
-    <cfRule type="expression" dxfId="232" priority="397">
-      <formula>AND(AND(NOT($A77 = "end group"), NOT($A77 = "end repeat"), NOT($A77 = "")), $C77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78:B79">
-    <cfRule type="expression" dxfId="231" priority="398">
-      <formula>AND(AND(NOT($A78 = "end group"), NOT($A78 = "end repeat"), NOT($A78 = "")), $B78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:A79">
-    <cfRule type="cellIs" dxfId="230" priority="399" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77:H79">
-    <cfRule type="expression" dxfId="229" priority="400">
-      <formula>AND(NOT($G77 = ""), $H77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I85">
-    <cfRule type="expression" dxfId="228" priority="401">
-      <formula>AND($I85 = "", $A85 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="expression" dxfId="227" priority="402">
-      <formula>AND(AND(NOT($A85 = "end group"), NOT($A85 = "end repeat"), NOT($A85 = "")), $C85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="expression" dxfId="226" priority="403">
-      <formula>AND(AND(NOT($A85 = "end group"), NOT($A85 = "end repeat"), NOT($A85 = "")), $B85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="225" priority="404" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="expression" dxfId="224" priority="405">
-      <formula>AND(NOT($G85 = ""), $H85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="containsText" dxfId="223" priority="406" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" dxfId="222" priority="407">
-      <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" dxfId="221" priority="408">
-      <formula>AND($A85="end group", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="220" priority="409" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" dxfId="219" priority="410">
-      <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" dxfId="218" priority="411">
-      <formula>AND($A85="end repeat", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I86:I92">
-    <cfRule type="expression" dxfId="217" priority="412">
-      <formula>AND($I86 = "", $A86 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86:C92">
-    <cfRule type="expression" dxfId="216" priority="413">
-      <formula>AND(AND(NOT($A86 = "end group"), NOT($A86 = "end repeat"), NOT($A86 = "")), $C86 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86:A92">
-    <cfRule type="cellIs" dxfId="215" priority="414" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86:H92">
-    <cfRule type="expression" dxfId="214" priority="415">
-      <formula>AND(NOT($G86 = ""), $H86 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="containsText" dxfId="213" priority="416" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="212" priority="417">
-      <formula>AND($A80="begin group", NOT($B80 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="211" priority="418">
-      <formula>AND($A80="end group", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="cellIs" dxfId="210" priority="419" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="cellIs" dxfId="209" priority="420" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="208" priority="421">
-      <formula>AND($A80="begin repeat", NOT($B80 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="207" priority="422">
-      <formula>AND($A80="end repeat", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="206" priority="423">
-      <formula>AND($I43 = "", $A43 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="205" priority="424">
-      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="204" priority="425">
-      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="203" priority="426" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="202" priority="427">
-      <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="containsText" dxfId="201" priority="428" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="200" priority="429">
-      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="199" priority="430">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="198" priority="431" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="197" priority="432">
-      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="196" priority="433">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="195" priority="434">
-      <formula>AND($I49 = "", $A49 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="194" priority="435">
-      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="193" priority="436">
-      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $B49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="192" priority="437" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="191" priority="438">
-      <formula>AND(NOT($G49 = ""), $H49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="190" priority="439" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="189" priority="440">
-      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="188" priority="441">
-      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="187" priority="442" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="186" priority="443">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="185" priority="444">
-      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59:I61">
-    <cfRule type="expression" dxfId="184" priority="445">
-      <formula>AND($I59 = "", $A59 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C61">
-    <cfRule type="expression" dxfId="183" priority="446">
-      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $C59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59:B61">
-    <cfRule type="expression" dxfId="182" priority="447">
-      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $B59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="cellIs" dxfId="181" priority="448" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59:H61">
-    <cfRule type="expression" dxfId="180" priority="449">
-      <formula>AND(NOT($G59 = ""), $H59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="179" priority="450" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="178" priority="451">
-      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="177" priority="452">
-      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="176" priority="453" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="175" priority="454">
-      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="174" priority="455">
-      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:Y38">
-    <cfRule type="containsText" dxfId="173" priority="456" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:Y38">
-    <cfRule type="cellIs" dxfId="172" priority="457" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="171" priority="458" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:I48">
-    <cfRule type="expression" dxfId="170" priority="459">
-      <formula>AND($I47 = "", $A47 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="containsText" dxfId="169" priority="460" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="expression" dxfId="168" priority="461">
-      <formula>AND($A83="begin group", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="expression" dxfId="167" priority="462">
-      <formula>AND($A83="end group", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="166" priority="463" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="expression" dxfId="165" priority="464">
-      <formula>AND($A83="begin repeat", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="expression" dxfId="164" priority="465">
-      <formula>AND($A83="end repeat", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="containsText" dxfId="163" priority="466" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="162" priority="467">
-      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="161" priority="468">
-      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="cellIs" dxfId="160" priority="469" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="159" priority="470">
-      <formula>AND(AND(NOT($A81 = "end group"), NOT($A81 = "end repeat"), NOT($A81 = "")), $B81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="158" priority="471">
-      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="157" priority="472">
-      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="containsText" dxfId="156" priority="473" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="expression" dxfId="155" priority="474">
-      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="expression" dxfId="154" priority="475">
-      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" dxfId="153" priority="476" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" dxfId="152" priority="477" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="expression" dxfId="151" priority="478">
-      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="expression" dxfId="150" priority="479">
-      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="149" priority="480" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="148" priority="481">
-      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="147" priority="482">
-      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="146" priority="483" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="145" priority="484">
-      <formula>AND(AND(NOT($A82 = "end group"), NOT($A82 = "end repeat"), NOT($A82 = "")), $B82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="144" priority="485">
-      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="143" priority="486">
-      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="containsText" dxfId="142" priority="487" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="expression" dxfId="141" priority="488">
-      <formula>AND($A129="begin group", NOT($B129 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="expression" dxfId="140" priority="489">
-      <formula>AND($A129="end group", $B129 = "", $C129 = "", $D129 = "", $E129 = "", $F129 = "", $G129 = "", $H129 = "", $I129 = "", $J129 = "", $K129 = "", $L129 = "", $M129 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="139" priority="490" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="expression" dxfId="138" priority="491">
-      <formula>AND($A129="begin repeat", NOT($B129 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="expression" dxfId="137" priority="492">
-      <formula>AND($A129="end repeat", $B129 = "", $C129 = "", $D129 = "", $E129 = "", $F129 = "", $G129 = "", $H129 = "", $I129 = "", $J129 = "", $K129 = "", $L129 = "", $M129 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="containsText" dxfId="136" priority="493" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="expression" dxfId="135" priority="494">
-      <formula>AND($A130="begin group", NOT($B130 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="expression" dxfId="134" priority="495">
-      <formula>AND($A130="end group", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="133" priority="496" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="expression" dxfId="132" priority="497">
-      <formula>AND($A130="begin repeat", NOT($B130 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="expression" dxfId="131" priority="498">
-      <formula>AND($A130="end repeat", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="containsText" dxfId="130" priority="499" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="expression" dxfId="129" priority="500">
-      <formula>AND($A131="begin group", NOT($B131 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="expression" dxfId="128" priority="501">
-      <formula>AND($A131="end group", $B131 = "", $C131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $I131 = "", $J131 = "", $K131 = "", $L131 = "", $M131 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" dxfId="127" priority="502" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="expression" dxfId="126" priority="503">
-      <formula>AND($A131="begin repeat", NOT($B131 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="expression" dxfId="125" priority="504">
-      <formula>AND($A131="end repeat", $B131 = "", $C131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $I131 = "", $J131 = "", $K131 = "", $L131 = "", $M131 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
-    <cfRule type="expression" dxfId="124" priority="505">
-      <formula>AND($I73 = "", $A73 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="123" priority="506">
-      <formula>AND(AND(NOT($A73 = "end group"), NOT($A73 = "end repeat"), NOT($A73 = "")), $C73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="expression" dxfId="122" priority="507">
-      <formula>AND(AND(NOT($A73 = "end group"), NOT($A73 = "end repeat"), NOT($A73 = "")), $B73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="cellIs" dxfId="121" priority="508" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="expression" dxfId="120" priority="509">
-      <formula>AND(NOT($G73 = ""), $H73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
-    <cfRule type="expression" dxfId="119" priority="510">
-      <formula>AND($I84 = "", $A84 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="expression" dxfId="118" priority="511">
-      <formula>AND(AND(NOT($A84 = "end group"), NOT($A84 = "end repeat"), NOT($A84 = "")), $C84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="117" priority="512" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="expression" dxfId="116" priority="513">
-      <formula>AND(NOT($G84 = ""), $H84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="containsText" dxfId="115" priority="514" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="expression" dxfId="114" priority="515">
-      <formula>AND($A84="begin group", NOT($B84 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="expression" dxfId="113" priority="516">
-      <formula>AND($A84="end group", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="112" priority="517" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="expression" dxfId="111" priority="518">
-      <formula>AND($A84="begin repeat", NOT($B84 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="expression" dxfId="110" priority="519">
-      <formula>AND($A84="end repeat", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134">
-    <cfRule type="expression" dxfId="109" priority="520">
-      <formula>COUNTIF($B$2:$B$1089,B134)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="108" priority="521">
-      <formula>COUNTIF($B$2:$B$993,B43)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129">
-    <cfRule type="expression" dxfId="107" priority="522">
-      <formula>COUNTIF($B$2:$B$1093,B129)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="expression" dxfId="106" priority="523">
-      <formula>COUNTIF($B$2:$B$1092,B130)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66:B67">
-    <cfRule type="expression" dxfId="105" priority="524">
-      <formula>COUNTIF($B$2:$B$1081,B66)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78:B79">
-    <cfRule type="expression" dxfId="104" priority="525">
-      <formula>COUNTIF($B$2:$B$1072,B78)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="103" priority="526">
-      <formula>COUNTIF($B$2:$B$992,B49)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59:B61 B63:B64 B44:B45">
-    <cfRule type="expression" dxfId="102" priority="527">
-      <formula>COUNTIF($B$2:$B$991,B44)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81:B82">
-    <cfRule type="expression" dxfId="101" priority="528">
-      <formula>COUNTIF($B$2:$B$1094,B81)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:A61">
-    <cfRule type="cellIs" dxfId="100" priority="529" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="containsText" dxfId="99" priority="530" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="expression" dxfId="98" priority="531">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="expression" dxfId="97" priority="532">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="cellIs" dxfId="96" priority="533" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="expression" dxfId="95" priority="534">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="expression" dxfId="94" priority="535">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="containsText" dxfId="93" priority="536" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="expression" dxfId="92" priority="537">
-      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="expression" dxfId="91" priority="538">
-      <formula>AND($A87="end group", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="90" priority="539" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="expression" dxfId="89" priority="540">
-      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="expression" dxfId="88" priority="541">
-      <formula>AND($A87="end repeat", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="containsText" dxfId="87" priority="102" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="cellIs" dxfId="86" priority="105" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="85" priority="109" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37 B14">
-    <cfRule type="expression" dxfId="84" priority="113">
-      <formula>COUNTIF($B$2:$B$975,#REF!)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="containsText" dxfId="83" priority="90" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" dxfId="82" priority="91">
-      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" dxfId="81" priority="92">
-      <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="cellIs" dxfId="80" priority="93" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="79" priority="94">
-      <formula>AND($I14 = "", $A14 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="78" priority="95">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="77" priority="96">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="76" priority="97" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="75" priority="98">
-      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" dxfId="74" priority="99">
-      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" dxfId="73" priority="100">
-      <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="72" priority="83">
-      <formula>AND($I42 = "", $A42 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" dxfId="71" priority="84" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="70" priority="85">
-      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="69" priority="86">
-      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="68" priority="87" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="67" priority="88">
-      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="66" priority="89">
-      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="65" priority="64">
-      <formula>AND($I63 = "", $A63 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="64" priority="65">
-      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="63" priority="66">
-      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="expression" dxfId="61" priority="68">
-      <formula>AND(NOT($G63 = ""), $H63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="containsText" dxfId="60" priority="69" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="59" priority="70">
-      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="58" priority="71">
-      <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="57" priority="72" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="56" priority="73">
-      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="55" priority="74">
-      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" dxfId="54" priority="52">
-      <formula>AND($I64 = "", $A64 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="53" priority="53">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="52" priority="54">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="expression" dxfId="50" priority="56">
-      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" dxfId="49" priority="57" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="48" priority="58">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="47" priority="59">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="46" priority="60" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="45" priority="61">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="44" priority="62">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="43" priority="40">
-      <formula>AND($I44 = "", $A44 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="42" priority="41">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="41" priority="42">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="39" priority="44">
-      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" dxfId="38" priority="45" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="37" priority="46">
-      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="36" priority="47">
-      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="35" priority="48" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="34" priority="49">
-      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="33" priority="50">
-      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="32" priority="28">
-      <formula>AND($I45 = "", $A45 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="31" priority="29">
-      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $C45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="30" priority="30">
-      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $B45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="28" priority="32">
-      <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="26" priority="34">
-      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="25" priority="35">
-      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="23" priority="37">
-      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="22" priority="38">
-      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    <cfRule type="expression" dxfId="2" priority="578">
+      <formula>COUNTIF($B$2:$B$993,B49)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="21" priority="564">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1097, "begin group") = COUNTIF($A$1:$A$1097, "end group"))</formula>
+    <cfRule type="expression" dxfId="1" priority="582">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1098, "begin group") = COUNTIF($A$1:$A$1098, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="20" priority="565">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1088, "begin group") = COUNTIF($A$1:$A$1097, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="19" priority="11">
-      <formula>AND($I53 = "", $A53 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="18" priority="12">
-      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="expression" dxfId="16" priority="14">
-      <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="11" priority="19">
-      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="10" priority="20">
-      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>AND($I54 = "", $A54 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $C54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>AND(NOT($G54 = ""), $H54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="1" priority="9">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    <cfRule type="expression" dxfId="0" priority="583">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1089, "begin group") = COUNTIF($A$1:$A$1098, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D12 D151:D154 D14:D144" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D12 D152:D155 D57:D145 D14:D56" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14787,7 +14790,7 @@
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14849,13 +14852,13 @@
     </row>
     <row r="5" spans="1:6" ht="13.5">
       <c r="A5" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>343</v>
+        <v>486</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -14863,13 +14866,13 @@
     </row>
     <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>344</v>
+        <v>487</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -16300,7 +16303,7 @@
       </c>
       <c r="C2" s="30">
         <f ca="1">NOW()</f>
-        <v>44256.01362719907</v>
+        <v>44258.594848148146</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>452</v>

--- a/config/default/forms/app/hts_initial_test.xlsx
+++ b/config/default/forms/app/hts_initial_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -399,7 +399,7 @@
     <t xml:space="preserve">select_one setting</t>
   </si>
   <si>
-    <t xml:space="preserve">test_setting</t>
+    <t xml:space="preserve">_165215_htsSetting_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">Setting</t>
@@ -423,7 +423,7 @@
     <t xml:space="preserve">Indicate HTS strategy used?</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${test_setting},'facility')</t>
+    <t xml:space="preserve">selected(${_165215_htsSetting_99DCT},'_1537_facility_99DCT')</t>
   </si>
   <si>
     <t xml:space="preserve">select_one hts_strategy_community</t>
@@ -432,7 +432,7 @@
     <t xml:space="preserve">community_testing</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${test_setting},'community')</t>
+    <t xml:space="preserve">selected(${_165215_htsSetting_99DCT},'_163488_community_99DCT')</t>
   </si>
   <si>
     <t xml:space="preserve">_164956_htsStrategyUsed_99DCT</t>
@@ -1424,13 +1424,13 @@
     <t xml:space="preserve">setting</t>
   </si>
   <si>
-    <t xml:space="preserve">community</t>
+    <t xml:space="preserve">_163488_community_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">Community</t>
   </si>
   <si>
-    <t xml:space="preserve">facility</t>
+    <t xml:space="preserve">_1537_facility_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">Facility</t>
@@ -1890,187 +1890,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="99">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -2853,26 +2673,28 @@
   </sheetPr>
   <dimension ref="A1:AL156"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C7" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topRight" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.6479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.8571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.7755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="119.780612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.0204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="97.6428571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="82.2551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="186.739795918367"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="62.6377551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="59.1275510204082"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="74.7857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.2959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.5765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.780612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="124.102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="101.15306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="85.2244897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="193.489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="64.8877551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="61.1938775510204"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="77.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,7 +4543,7 @@
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
         <v>124</v>
       </c>
@@ -4791,7 +4613,7 @@
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
     </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
         <v>130</v>
       </c>
@@ -4828,7 +4650,7 @@
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
         <v>134</v>
       </c>
@@ -4939,7 +4761,7 @@
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
         <v>142</v>
       </c>
@@ -4976,7 +4798,7 @@
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
     </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
         <v>145</v>
       </c>
@@ -10177,508 +9999,536 @@
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63">
+  <conditionalFormatting sqref="E92">
     <cfRule type="containsText" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63">
+  <conditionalFormatting sqref="E92">
     <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63">
+      <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
     <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63">
+      <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
     <cfRule type="cellIs" priority="400" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:Y37">
+    <cfRule type="containsText" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:Y37">
+    <cfRule type="cellIs" priority="404" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="cellIs" priority="405" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="containsText" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="cellIs" priority="409" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($I14 = "", $A14 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="cellIs" priority="413" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($I42 = "", $A42 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="containsText" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" priority="421" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($I65 = "", $A65 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="cellIs" priority="427" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND(NOT($G65 = ""), $H65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="containsText" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" priority="432" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($I66 = "", $A66 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="cellIs" priority="438" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="containsText" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="441" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" priority="443" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="expression" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND($I44 = "", $A44 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="cellIs" priority="449" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="expression" priority="450" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="containsText" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" priority="454" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="455" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="456" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="expression" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+      <formula>AND($I45 = "", $A45 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $C45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $B45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="cellIs" priority="460" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="expression" priority="461" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
+      <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="containsText" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="464" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" priority="465" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="467" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="expression" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+      <formula>AND($I53 = "", $A53 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" priority="469" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" priority="470" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" priority="471" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+      <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="containsText" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" priority="473" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" priority="474" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" priority="475" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" priority="476" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A55">
+    <cfRule type="cellIs" priority="478" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E55">
+    <cfRule type="containsText" priority="479" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E55">
+    <cfRule type="cellIs" priority="480" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="containsText" priority="481" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="cellIs" priority="482" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="cellIs" priority="483" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" priority="484" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
+      <formula>COUNTIF($B$2:$B$994,B49)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="485" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1099, "begin group") = COUNTIF($A$1:$A$1099, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="486" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1090, "begin group") = COUNTIF($A$1:$A$1099, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="expression" priority="487" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+      <formula>AND($I57 = "", $A57 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" priority="488" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="cellIs" priority="489" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="expression" priority="490" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+      <formula>AND(NOT($G57 = ""), $H57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="containsText" priority="491" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" priority="492" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" priority="493" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" priority="494" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" priority="495" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" priority="496" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="containsText" priority="497" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="expression" priority="498" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="expression" priority="499" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="cellIs" priority="500" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="expression" priority="501" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="expression" priority="502" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E62:E63">
-    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="containsText" priority="503" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63">
+    <cfRule type="expression" priority="504" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63">
+    <cfRule type="expression" priority="505" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+      <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63">
+    <cfRule type="cellIs" priority="506" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63">
+    <cfRule type="expression" priority="507" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:E63">
-    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="508" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="containsText" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" priority="406" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="containsText" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="cellIs" priority="410" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" priority="411" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="containsText" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="cellIs" priority="415" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($I14 = "", $A14 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" priority="419" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($I42 = "", $A42 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" priority="427" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
-    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND($I65 = "", $A65 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="expression" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" priority="433" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>AND(NOT($G65 = ""), $H65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="containsText" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" priority="438" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="expression" priority="441" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>AND($I66 = "", $A66 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" priority="443" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" priority="444" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="expression" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" priority="449" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="450" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="expression" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
-      <formula>AND($I44 = "", $A44 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" priority="454" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" priority="455" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="expression" priority="456" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
-      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
-      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
-      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" priority="460" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="461" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
-      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
-      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
-      <formula>AND($I45 = "", $A45 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" priority="464" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
-      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $C45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" priority="465" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
-      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $B45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" priority="466" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="expression" priority="467" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
-      <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="containsText" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="469" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
-      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="470" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
-      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" priority="471" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
-      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="473" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
-      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="expression" priority="474" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
-      <formula>AND($I53 = "", $A53 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" priority="475" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84">
-      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" priority="476" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="expression" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="86">
-      <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="containsText" priority="478" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" priority="479" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
-      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" priority="480" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
-      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" priority="481" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" priority="482" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
-      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" priority="483" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
-      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A55">
-    <cfRule type="cellIs" priority="484" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E55">
-    <cfRule type="containsText" priority="485" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E55">
-    <cfRule type="cellIs" priority="486" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="containsText" priority="487" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="cellIs" priority="488" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" priority="489" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" priority="490" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
-      <formula>COUNTIF($B$2:$B$994,B49)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="491" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="97">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1099, "begin group") = COUNTIF($A$1:$A$1099, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="492" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="98">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1090, "begin group") = COUNTIF($A$1:$A$1099, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="expression" priority="493" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>AND($I57 = "", $A57 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" priority="494" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" priority="495" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="expression" priority="496" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>AND(NOT($G57 = ""), $H57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" priority="497" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="498" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="499" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" priority="500" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="501" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="502" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -10708,16 +10558,17 @@
   <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.8469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="98.8163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.6326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="102.413265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11901,22 +11752,22 @@
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="30" t="s">
         <v>466</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="30" t="s">
         <v>468</v>
       </c>
       <c r="C97" s="0" t="s">
@@ -12279,7 +12130,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.0561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.1275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12311,7 +12164,7 @@
       </c>
       <c r="C2" s="32" t="n">
         <f aca="true">NOW()</f>
-        <v>44279.9137037207</v>
+        <v>44281.3987149428</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>505</v>

--- a/config/default/forms/app/hts_initial_test.xlsx
+++ b/config/default/forms/app/hts_initial_test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="513">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -1439,13 +1439,31 @@
     <t xml:space="preserve">entry_point_facility</t>
   </si>
   <si>
-    <t xml:space="preserve">_162223_emergency_99DCT</t>
+    <t xml:space="preserve">_160538_pmtctAnc_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT – ANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_160456_pmtctMat_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT – MAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_1623_pmtctPnc_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT – PNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_162223_vmmc_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">VMMC</t>
   </si>
   <si>
-    <t xml:space="preserve">_160522_vmmc_99DCT</t>
+    <t xml:space="preserve">_160522_emergency_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">Emergency</t>
@@ -1890,565 +1908,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="79">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -2673,28 +2133,26 @@
   </sheetPr>
   <dimension ref="A1:AL156"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C7" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="topRight" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.2959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.5765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.780612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="124.102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.8265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="101.15306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="85.2244897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="193.489795918367"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="64.8877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="61.1938775510204"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="77.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.7755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.2448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="138.051020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="112.581632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="94.765306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="215.357142857143"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="71.9948979591837"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="67.9438775510204"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="86.2142857142857"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8382,2152 +7840,2152 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133">
-    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(NOT($G133 = ""), $H133 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:Y135">
-    <cfRule type="containsText" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+    <cfRule type="containsText" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:Y135">
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A135="begin group", NOT($B135 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:Y135">
-    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A135="end group", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:Y135">
-    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($I135 = "", $A135 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A135 = "end group"), NOT($A135 = "end repeat"), NOT($A135 = "")), $C135 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A135 = "end group"), NOT($A135 = "end repeat"), NOT($A135 = "")), $B135 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(NOT($G135 = ""), $H135 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:Y135">
-    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A135="begin repeat", NOT($B135 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:Y135">
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A135="end repeat", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136:Y136">
-    <cfRule type="containsText" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="4"/>
+    <cfRule type="containsText" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136:Y136">
-    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A136="begin group", NOT($B136 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136:Y136">
-    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A136="end group", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136:Y136">
-    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I136">
-    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($I136 = "", $A136 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136">
-    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A136 = "end group"), NOT($A136 = "end repeat"), NOT($A136 = "")), $C136 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A136 = "end group"), NOT($A136 = "end repeat"), NOT($A136 = "")), $B136 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(NOT($G136 = ""), $H136 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136:Y136">
-    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A136="begin repeat", NOT($B136 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136:Y136">
-    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A136="end repeat", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:Y137">
-    <cfRule type="containsText" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="6"/>
+    <cfRule type="containsText" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:Y137">
-    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A137="begin group", NOT($B137 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:Y137">
-    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A137="end group", $B137 = "", $C137 = "", $D137 = "", $E137 = "", $F137 = "", $G137 = "", $H137 = "", $I137 = "", $J137 = "", $K137 = "", $L137 = "", $M137 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:Y137">
-    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I137">
-    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($I137 = "", $A137 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C137">
-    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A137 = "end group"), NOT($A137 = "end repeat"), NOT($A137 = "")), $C137 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A137 = "end group"), NOT($A137 = "end repeat"), NOT($A137 = "")), $B137 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(NOT($G137 = ""), $H137 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:Y137">
-    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A137="begin repeat", NOT($B137 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:Y137">
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A137="end repeat", $B137 = "", $C137 = "", $D137 = "", $E137 = "", $F137 = "", $G137 = "", $H137 = "", $I137 = "", $J137 = "", $K137 = "", $L137 = "", $M137 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:Y142">
-    <cfRule type="containsText" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="9"/>
+    <cfRule type="containsText" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:Y142">
-    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A142="begin group", NOT($B142 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:Y142">
-    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A142="end group", $B142 = "", $C142 = "", $D142 = "", $E142 = "", $F142 = "", $G142 = "", $H142 = "", $I142 = "", $J142 = "", $K142 = "", $L142 = "", $M142 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:Y142">
-    <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I142">
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($I142 = "", $A142 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142">
-    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A142 = "end group"), NOT($A142 = "end repeat"), NOT($A142 = "")), $C142 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A142 = "end group"), NOT($A142 = "end repeat"), NOT($A142 = "")), $B142 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142">
-    <cfRule type="cellIs" priority="100" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" priority="100" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(NOT($G142 = ""), $H142 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:Y142">
-    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A142="begin repeat", NOT($B142 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:Y142">
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A142="end repeat", $B142 = "", $C142 = "", $D142 = "", $E142 = "", $F142 = "", $G142 = "", $H142 = "", $I142 = "", $J142 = "", $K142 = "", $L142 = "", $M142 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="containsText" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="12"/>
+    <cfRule type="containsText" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A153="begin group", NOT($B153 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A153="end group", $B153 = "", $C153 = "", $D153 = "", $E153 = "", $F153 = "", $G153 = "", $H153 = "", $I153 = "", $J153 = "", $K153 = "", $L153 = "", $M153 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="cellIs" priority="107" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" priority="107" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="cellIs" priority="108" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" priority="108" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A153="begin repeat", NOT($B153 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A153="end repeat", $B153 = "", $C153 = "", $D153 = "", $E153 = "", $F153 = "", $G153 = "", $H153 = "", $I153 = "", $J153 = "", $K153 = "", $L153 = "", $M153 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I139:I141">
-    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($I139 = "", $A139 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140:C141">
-    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A140 = "end group"), NOT($A140 = "end repeat"), NOT($A140 = "")), $C140 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A140 = "end group"), NOT($A140 = "end repeat"), NOT($A140 = "")), $B140 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="cellIs" priority="114" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" priority="114" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139:H141">
-    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(NOT($G139 = ""), $H139 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:Y138">
-    <cfRule type="containsText" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="12"/>
+    <cfRule type="containsText" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:Y138">
-    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A138="begin group", NOT($B138 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:Y138">
-    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A138="end group", $B138 = "", $C138 = "", $D138 = "", $E138 = "", $F138 = "", $G138 = "", $H138 = "", $I138 = "", $J138 = "", $K138 = "", $L138 = "", $M138 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:Y138">
-    <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I138">
-    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($I138 = "", $A138 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C138">
-    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A138 = "end group"), NOT($A138 = "end repeat"), NOT($A138 = "")), $C138 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A138 = "end group"), NOT($A138 = "end repeat"), NOT($A138 = "")), $B138 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="cellIs" priority="123" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="123" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138">
-    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(NOT($G138 = ""), $H138 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:Y138">
-    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A138="begin repeat", NOT($B138 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:Y138">
-    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A138="end repeat", $B138 = "", $C138 = "", $D138 = "", $E138 = "", $F138 = "", $G138 = "", $H138 = "", $I138 = "", $J138 = "", $K138 = "", $L138 = "", $M138 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="containsText" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="18"/>
+    <cfRule type="containsText" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A130="begin group", NOT($B130 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A130="end group", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" priority="130" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+    <cfRule type="cellIs" priority="130" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A130="begin repeat", NOT($B130 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A130="end repeat", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="containsText" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="24"/>
+    <cfRule type="containsText" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A130="begin group", NOT($B130 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A130="end group", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" priority="136" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="cellIs" priority="136" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A130="begin repeat", NOT($B130 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A130="end repeat", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+    <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($I130 = "", $A130 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130">
-    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A130 = "end group"), NOT($A130 = "end repeat"), NOT($A130 = "")), $C130 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A130 = "end group"), NOT($A130 = "end repeat"), NOT($A130 = "")), $B130 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="cellIs" priority="142" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+    <cfRule type="cellIs" priority="142" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130">
-    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G130 = ""), $H130 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="containsText" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="35"/>
+    <cfRule type="containsText" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A134="begin group", NOT($B134 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A134="end group", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" priority="147" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+    <cfRule type="cellIs" priority="147" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A134="begin repeat", NOT($B134 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A134="end repeat", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="containsText" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="41"/>
+    <cfRule type="containsText" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A134="begin group", NOT($B134 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A134="end group", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" priority="153" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+    <cfRule type="cellIs" priority="153" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A134="begin repeat", NOT($B134 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
+    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A134="end repeat", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I134 = "", $A134 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C134">
-    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A134 = "end group"), NOT($A134 = "end repeat"), NOT($A134 = "")), $C134 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A134 = "end group"), NOT($A134 = "end repeat"), NOT($A134 = "")), $B134 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134">
-    <cfRule type="cellIs" priority="159" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="cellIs" priority="159" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G134 = ""), $H134 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="45"/>
+    <cfRule type="containsText" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" priority="164" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+    <cfRule type="cellIs" priority="164" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
+    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I46 = "", $A46 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">
-    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A47">
-    <cfRule type="cellIs" priority="169" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="cellIs" priority="169" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:H47">
-    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G46 = ""), $H46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E47">
-    <cfRule type="containsText" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="49"/>
+    <cfRule type="containsText" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E47">
-    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E47">
-    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" priority="174" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="cellIs" priority="174" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E47">
-    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E47">
-    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="50"/>
+    <cfRule type="containsText" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" priority="180" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="cellIs" priority="180" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" priority="184" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="cellIs" priority="184" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="50"/>
+    <cfRule type="containsText" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $I50 = "", $M50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" priority="189" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="cellIs" priority="189" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $I50 = "", $M50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="containsText" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="50"/>
+    <cfRule type="containsText" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="193" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="193" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $I48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" priority="195" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="cellIs" priority="195" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $I48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="expression" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I60 = "", $A60 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" priority="200" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="cellIs" priority="200" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="containsText" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="50"/>
+    <cfRule type="containsText" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
+    <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
+    <cfRule type="expression" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" priority="205" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
+    <cfRule type="cellIs" priority="205" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="207" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="207" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="expression" priority="208" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="208" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I67 = "", $A67 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" priority="209" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="209" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="cellIs" priority="210" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="cellIs" priority="210" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G67 = ""), $H67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="containsText" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="54"/>
+    <cfRule type="containsText" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" priority="215" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="cellIs" priority="215" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68:I69">
-    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I68 = "", $A68 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:B69">
-    <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:A69">
-    <cfRule type="cellIs" priority="221" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="cellIs" priority="221" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:H69">
-    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E69">
-    <cfRule type="containsText" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="55"/>
+    <cfRule type="containsText" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="expression" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E69">
-    <cfRule type="cellIs" priority="226" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="cellIs" priority="226" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I64 = "", $A64 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A64">
-    <cfRule type="cellIs" priority="231" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="cellIs" priority="231" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="234" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="234" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" priority="236" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="236" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" priority="239" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="239" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:Y74">
-    <cfRule type="containsText" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:Y74">
-    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:Y74">
-    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:Y74">
-    <cfRule type="cellIs" priority="243" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="243" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72:I74">
-    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I72 = "", $A72 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72:C74">
-    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B74">
-    <cfRule type="expression" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $B72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A74">
-    <cfRule type="cellIs" priority="247" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="247" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72:H74">
-    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G72 = ""), $H72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:Y74">
-    <cfRule type="expression" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:Y74">
-    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="containsText" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="expression" priority="252" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="252" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="expression" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" priority="254" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="254" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" priority="255" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="255" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="containsText" priority="258" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="258" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" priority="261" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="261" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="cellIs" priority="264" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="264" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79:I81">
-    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I79 = "", $A79 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C81">
-    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A79 = "end group"), NOT($A79 = "end repeat"), NOT($A79 = "")), $C79 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:B81">
-    <cfRule type="expression" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A80 = "end group"), NOT($A80 = "end repeat"), NOT($A80 = "")), $B80 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:A81">
-    <cfRule type="cellIs" priority="268" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="268" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79:H81">
-    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G79 = ""), $H79 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="expression" priority="270" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="270" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I87 = "", $A87 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $C87 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $B87 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="cellIs" priority="273" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="273" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G87 = ""), $H87 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="containsText" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="expression" priority="276" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="276" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A87="end group", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" priority="278" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="278" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="expression" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A87="end repeat", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88:I94">
-    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I88 = "", $A88 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88:C94">
-    <cfRule type="expression" priority="282" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="282" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A88 = "end group"), NOT($A88 = "end repeat"), NOT($A88 = "")), $C88 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A94">
-    <cfRule type="cellIs" priority="283" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="283" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88:H94">
-    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G88 = ""), $H88 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="containsText" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="expression" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" priority="288" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="288" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" priority="289" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="289" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="expression" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I43 = "", $A43 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" priority="293" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="293" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" priority="295" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="295" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="containsText" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" priority="300" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="300" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I49 = "", $A49 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $B49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" priority="306" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="306" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G49 = ""), $H49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" priority="311" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="311" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:I63">
-    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I61 = "", $A61 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C63">
-    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $C61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B63">
-    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $B61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" priority="317" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="317" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61:H63">
-    <cfRule type="expression" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G61 = ""), $H61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" priority="322" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="322" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:Y38">
-    <cfRule type="containsText" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:Y38">
-    <cfRule type="cellIs" priority="326" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="326" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" priority="327" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="327" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I48">
-    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I47 = "", $A47 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="containsText" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A85="end group", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" priority="332" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="332" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="expression" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A85="end repeat", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="containsText" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="expression" priority="336" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="336" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A83="begin group", NOT($B83 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="expression" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A83="end group", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" priority="338" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="338" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="expression" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A83 = "end group"), NOT($A83 = "end repeat"), NOT($A83 = "")), $B83 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A83="begin repeat", NOT($B83 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A83="end repeat", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="containsText" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A84="begin group", NOT($B84 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A84="end group", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" priority="345" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="345" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" priority="346" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="346" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A84="begin repeat", NOT($B84 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="expression" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A84="end repeat", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="containsText" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A84="begin group", NOT($B84 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A84="end group", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" priority="352" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="352" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A84 = "end group"), NOT($A84 = "end repeat"), NOT($A84 = "")), $B84 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A84="begin repeat", NOT($B84 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A84="end repeat", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131">
-    <cfRule type="containsText" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131">
-    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A131="begin group", NOT($B131 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131">
-    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A131="end group", $B131 = "", $C131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $I131 = "", $J131 = "", $K131 = "", $L131 = "", $M131 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" priority="359" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="359" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131">
-    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A131="begin repeat", NOT($B131 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131">
-    <cfRule type="expression" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A131="end repeat", $B131 = "", $C131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $I131 = "", $J131 = "", $K131 = "", $L131 = "", $M131 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132">
-    <cfRule type="containsText" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132">
-    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A132="begin group", NOT($B132 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132">
-    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A132="end group", $B132 = "", $C132 = "", $D132 = "", $E132 = "", $F132 = "", $G132 = "", $H132 = "", $I132 = "", $J132 = "", $K132 = "", $L132 = "", $M132 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132">
-    <cfRule type="cellIs" priority="365" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="365" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132">
-    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A132="begin repeat", NOT($B132 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132">
-    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A132="end repeat", $B132 = "", $C132 = "", $D132 = "", $E132 = "", $F132 = "", $G132 = "", $H132 = "", $I132 = "", $J132 = "", $K132 = "", $L132 = "", $M132 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="containsText" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A133="begin group", NOT($B133 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A133="end group", $B133 = "", $C133 = "", $D133 = "", $E133 = "", $F133 = "", $G133 = "", $H133 = "", $I133 = "", $J133 = "", $K133 = "", $L133 = "", $M133 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" priority="371" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="371" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A133="begin repeat", NOT($B133 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A133="end repeat", $B133 = "", $C133 = "", $D133 = "", $E133 = "", $F133 = "", $G133 = "", $H133 = "", $I133 = "", $J133 = "", $K133 = "", $L133 = "", $M133 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I75 = "", $A75 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="expression" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $C75 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $B75 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" priority="377" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="377" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G75 = ""), $H75 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I86 = "", $A86 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86">
-    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A86 = "end group"), NOT($A86 = "end repeat"), NOT($A86 = "")), $C86 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="cellIs" priority="381" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="381" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G86 = ""), $H86 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="containsText" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
+    <cfRule type="containsText" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A86="begin group", NOT($B86 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A86="end group", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" priority="386" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
+    <cfRule type="cellIs" priority="386" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="expression" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
+    <cfRule type="expression" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A86="begin repeat", NOT($B86 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A86="end repeat", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
+    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>COUNTIF($B$2:$B$1091,B136)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="expression" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
+    <cfRule type="expression" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>COUNTIF($B$2:$B$1095,B131)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
+    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>COUNTIF($B$2:$B$1094,B132)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:B69">
-    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
+    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>COUNTIF($B$2:$B$1083,B68)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:B81">
-    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>COUNTIF($B$2:$B$1074,B80)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>COUNTIF($B$2:$B$995,B43)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:B84">
-    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>COUNTIF($B$2:$B$1096,B83)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A63">
-    <cfRule type="cellIs" priority="396" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="cellIs" priority="396" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="containsText" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+    <cfRule type="containsText" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" priority="400" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="cellIs" priority="400" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="containsText" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+    <cfRule type="containsText" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="cellIs" priority="404" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="cellIs" priority="404" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" priority="405" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="cellIs" priority="405" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="containsText" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+    <cfRule type="containsText" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="cellIs" priority="409" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="cellIs" priority="409" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($I14 = "", $A14 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" priority="413" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="cellIs" priority="413" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($I42 = "", $A42 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+    <cfRule type="containsText" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" priority="421" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="cellIs" priority="421" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($I65 = "", $A65 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" priority="427" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="cellIs" priority="427" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(NOT($G65 = ""), $H65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="containsText" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+    <cfRule type="containsText" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" priority="432" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="cellIs" priority="432" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($I66 = "", $A66 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" priority="438" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="cellIs" priority="438" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+    <cfRule type="containsText" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="441" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="441" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" priority="443" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="cellIs" priority="443" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="expression" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($I44 = "", $A44 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" priority="449" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="cellIs" priority="449" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="expression" priority="450" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="450" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+    <cfRule type="containsText" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+    <cfRule type="expression" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+    <cfRule type="expression" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" priority="454" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+    <cfRule type="cellIs" priority="454" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="455" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+    <cfRule type="expression" priority="455" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="456" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+    <cfRule type="expression" priority="456" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="expression" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+    <cfRule type="expression" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($I45 = "", $A45 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+    <cfRule type="expression" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $C45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+    <cfRule type="expression" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $B45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" priority="460" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
+    <cfRule type="cellIs" priority="460" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="expression" priority="461" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
+    <cfRule type="expression" priority="461" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="containsText" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="67"/>
+    <cfRule type="containsText" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="464" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+    <cfRule type="expression" priority="464" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" priority="465" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+    <cfRule type="cellIs" priority="465" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+    <cfRule type="expression" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="467" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+    <cfRule type="expression" priority="467" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="expression" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+    <cfRule type="expression" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($I53 = "", $A53 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" priority="469" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+    <cfRule type="expression" priority="469" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" priority="470" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+    <cfRule type="cellIs" priority="470" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="expression" priority="471" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+    <cfRule type="expression" priority="471" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="containsText" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="68"/>
+    <cfRule type="containsText" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="expression" priority="473" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+    <cfRule type="expression" priority="473" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="expression" priority="474" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+    <cfRule type="expression" priority="474" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" priority="475" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+    <cfRule type="cellIs" priority="475" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="expression" priority="476" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+    <cfRule type="expression" priority="476" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="expression" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
+    <cfRule type="expression" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A55">
-    <cfRule type="cellIs" priority="478" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
+    <cfRule type="cellIs" priority="478" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:E55">
-    <cfRule type="containsText" priority="479" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="71"/>
+    <cfRule type="containsText" priority="479" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:E55">
-    <cfRule type="cellIs" priority="480" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
+    <cfRule type="cellIs" priority="480" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="containsText" priority="481" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="73"/>
+    <cfRule type="containsText" priority="481" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="cellIs" priority="482" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
+    <cfRule type="cellIs" priority="482" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" priority="483" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
+    <cfRule type="cellIs" priority="483" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" priority="484" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
+    <cfRule type="expression" priority="484" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>COUNTIF($B$2:$B$994,B49)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="485" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
+    <cfRule type="expression" priority="485" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$1099, "begin group") = COUNTIF($A$1:$A$1099, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="486" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
+    <cfRule type="expression" priority="486" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1090, "begin group") = COUNTIF($A$1:$A$1099, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="expression" priority="487" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="487" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I57 = "", $A57 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" priority="488" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="488" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" priority="489" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="cellIs" priority="489" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="expression" priority="490" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="490" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(NOT($G57 = ""), $H57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" priority="491" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="50"/>
+    <cfRule type="containsText" priority="491" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="492" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="492" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="493" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="493" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" priority="494" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="cellIs" priority="494" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="495" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="495" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="496" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="496" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E59">
-    <cfRule type="containsText" priority="497" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="497" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E59">
-    <cfRule type="expression" priority="498" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="498" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E59">
-    <cfRule type="expression" priority="499" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="499" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E59">
-    <cfRule type="cellIs" priority="500" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="500" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E59">
-    <cfRule type="expression" priority="501" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="501" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E59">
-    <cfRule type="expression" priority="502" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="502" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:E63">
-    <cfRule type="containsText" priority="503" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="503" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:E63">
-    <cfRule type="expression" priority="504" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="504" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:E63">
-    <cfRule type="expression" priority="505" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="505" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:E63">
-    <cfRule type="cellIs" priority="506" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="506" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:E63">
-    <cfRule type="expression" priority="507" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="507" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:E63">
-    <cfRule type="expression" priority="508" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="508" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10558,17 +10016,16 @@
   <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="102.413265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.8979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="89.6326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="113.841836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11830,43 +11287,43 @@
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
     </row>
-    <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
         <v>470</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>288</v>
+        <v>472</v>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
     </row>
-    <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="s">
         <v>470</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>291</v>
+        <v>474</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
     </row>
-    <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="s">
         <v>470</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>294</v>
+        <v>476</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
@@ -11877,24 +11334,24 @@
         <v>470</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
     </row>
-    <row r="107" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="s">
         <v>470</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>472</v>
+        <v>297</v>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
@@ -11905,10 +11362,10 @@
         <v>470</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
@@ -11919,189 +11376,203 @@
         <v>470</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
     </row>
-    <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="13" t="s">
         <v>470</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>271</v>
+        <v>482</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
     </row>
-    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
+    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="13" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="13" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>479</v>
+        <v>302</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
     </row>
-    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="13" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>271</v>
+        <v>485</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
     </row>
-    <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="B118" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>482</v>
-      </c>
+    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C120" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="B122" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>489</v>
+      <c r="B121" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="B126" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>338</v>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B127" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B128" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C128" s="0" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="31" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>496</v>
+        <v>250</v>
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -12130,47 +11601,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.1275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.6071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C2" s="32" t="n">
         <f aca="true">NOW()</f>
-        <v>44281.3987149428</v>
+        <v>44293.6328580211</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F2" s="13"/>
     </row>

--- a/config/default/forms/app/hts_initial_test.xlsx
+++ b/config/default/forms/app/hts_initial_test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="522">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -686,6 +686,15 @@
     <t xml:space="preserve">selected(${_160481_referralFacility_99DCT},'_164407_otherFacility_99DCT')</t>
   </si>
   <si>
+    <t xml:space="preserve">_160592_consentForPns_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consent for PNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${_159427_finalResults_99DCT}, '_703_positive_99DCT’)</t>
+  </si>
+  <si>
     <t xml:space="preserve">_163042_remarks_99DCT</t>
   </si>
   <si>
@@ -1104,6 +1113,24 @@
   </si>
   <si>
     <t xml:space="preserve">selected(../../observation/_1659_tbScreening_99DCT, '_1111_onTreatment_99DCT’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_pns_summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**_Consented for PNS_**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pns_consent_yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../../observation/_160592_consentForPns_99DCT, '_1065_yes_99DCT’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pns_consent_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../../observation/_160592_consentForPns_99DCT, '_1066_no_99DCT’)</t>
   </si>
   <si>
     <t xml:space="preserve">r_followup_positive</t>
@@ -1908,115 +1935,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -2131,7 +2050,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL156"/>
+  <dimension ref="A1:AL160"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -2141,18 +2060,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.7755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.2448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="138.051020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="112.581632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="94.765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="215.357142857143"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="71.9948979591837"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="67.9438775510204"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="86.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.219387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.3163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="143.091836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.6071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="116.632653061224"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="98.0918367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="223.183673469388"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="74.6071428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="70.3775510204082"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="89.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5353,18 +5274,22 @@
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
     </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
+      <c r="D94" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>222</v>
+      </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
@@ -5388,10 +5313,14 @@
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>224</v>
+      </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
@@ -5416,20 +5345,14 @@
       <c r="Y95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>223</v>
-      </c>
+      <c r="A96" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="9" t="s">
-        <v>224</v>
-      </c>
+      <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
@@ -5452,7 +5375,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>225</v>
@@ -5462,7 +5385,9 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
+      <c r="F97" s="9" t="s">
+        <v>227</v>
+      </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
@@ -5488,16 +5413,14 @@
         <v>195</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C98" s="10" t="s">
         <v>228</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="9" t="s">
-        <v>229</v>
-      </c>
+      <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
@@ -5518,7 +5441,7 @@
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
     </row>
-    <row r="99" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
         <v>195</v>
       </c>
@@ -5530,7 +5453,9 @@
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
+      <c r="F99" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
@@ -5551,21 +5476,19 @@
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
     </row>
-    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C100" s="9" t="s">
         <v>233</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="9" t="s">
-        <v>234</v>
-      </c>
+      <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
@@ -5590,52 +5513,50 @@
       <c r="A101" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="T101" s="4"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="4"/>
-      <c r="W101" s="4"/>
-      <c r="X101" s="4"/>
-      <c r="Y101" s="4"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+      <c r="W101" s="9"/>
+      <c r="X101" s="9"/>
+      <c r="Y101" s="9"/>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C102" s="13" t="s">
+      <c r="B102" s="12" t="s">
         <v>238</v>
       </c>
+      <c r="C102" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="D102" s="4"/>
-      <c r="E102" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>240</v>
-      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -5656,22 +5577,22 @@
       <c r="X102" s="4"/>
       <c r="Y102" s="4"/>
     </row>
-    <row r="103" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>242</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -5693,7 +5614,7 @@
       <c r="X103" s="4"/>
       <c r="Y103" s="4"/>
     </row>
-    <row r="104" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
         <v>195</v>
       </c>
@@ -5708,7 +5629,7 @@
         <v>246</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -5730,75 +5651,75 @@
       <c r="X104" s="4"/>
       <c r="Y104" s="4"/>
     </row>
-    <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="9" t="s">
+    <row r="105" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="9"/>
-      <c r="O105" s="9"/>
-      <c r="P105" s="9"/>
-      <c r="Q105" s="9"/>
-      <c r="R105" s="9"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="9"/>
-      <c r="U105" s="9"/>
-      <c r="V105" s="9"/>
-      <c r="W105" s="9"/>
-      <c r="X105" s="9"/>
-      <c r="Y105" s="9"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B106" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C106" s="13" t="s">
+      <c r="B106" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4" t="s">
+      <c r="C106" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="4"/>
-      <c r="S106" s="4"/>
-      <c r="T106" s="4"/>
-      <c r="U106" s="4"/>
-      <c r="V106" s="4"/>
-      <c r="W106" s="4"/>
-      <c r="X106" s="4"/>
-      <c r="Y106" s="4"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+      <c r="W106" s="9"/>
+      <c r="X106" s="9"/>
+      <c r="Y106" s="9"/>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
@@ -5815,7 +5736,7 @@
         <v>254</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -5852,7 +5773,7 @@
         <v>257</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -5889,7 +5810,7 @@
         <v>260</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -5926,7 +5847,7 @@
         <v>263</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -5963,7 +5884,7 @@
         <v>266</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -6000,7 +5921,7 @@
         <v>269</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -6037,7 +5958,7 @@
         <v>272</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -6060,74 +5981,74 @@
       <c r="Y113" s="4"/>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
-      <c r="O114" s="9"/>
-      <c r="P114" s="9"/>
-      <c r="Q114" s="9"/>
-      <c r="R114" s="9"/>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
-      <c r="U114" s="9"/>
-      <c r="V114" s="9"/>
-      <c r="W114" s="9"/>
-      <c r="X114" s="9"/>
-      <c r="Y114" s="9"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B115" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C115" s="13" t="s">
+      <c r="B115" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4" t="s">
+      <c r="C115" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4"/>
-      <c r="P115" s="4"/>
-      <c r="Q115" s="4"/>
-      <c r="R115" s="4"/>
-      <c r="S115" s="4"/>
-      <c r="T115" s="4"/>
-      <c r="U115" s="4"/>
-      <c r="V115" s="4"/>
-      <c r="W115" s="4"/>
-      <c r="X115" s="4"/>
-      <c r="Y115" s="4"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+      <c r="U115" s="9"/>
+      <c r="V115" s="9"/>
+      <c r="W115" s="9"/>
+      <c r="X115" s="9"/>
+      <c r="Y115" s="9"/>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="s">
@@ -6144,7 +6065,7 @@
         <v>280</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -6181,7 +6102,7 @@
         <v>283</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -6218,7 +6139,7 @@
         <v>286</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -6255,7 +6176,7 @@
         <v>289</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -6292,7 +6213,7 @@
         <v>292</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -6329,7 +6250,7 @@
         <v>295</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -6366,7 +6287,7 @@
         <v>298</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -6396,14 +6317,14 @@
         <v>299</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -6430,17 +6351,17 @@
         <v>195</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
         <v>303</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -6470,14 +6391,14 @@
         <v>304</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -6503,52 +6424,52 @@
       <c r="A126" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B126" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C126" s="9" t="s">
+      <c r="B126" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="D126" s="9"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
-      <c r="M126" s="9"/>
-      <c r="N126" s="9"/>
-      <c r="O126" s="9"/>
-      <c r="P126" s="9"/>
-      <c r="Q126" s="9"/>
-      <c r="R126" s="9"/>
-      <c r="S126" s="9"/>
-      <c r="T126" s="9"/>
-      <c r="U126" s="9"/>
-      <c r="V126" s="9"/>
-      <c r="W126" s="9"/>
-      <c r="X126" s="9"/>
-      <c r="Y126" s="9"/>
+      <c r="C126" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="4"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4"/>
+      <c r="Y126" s="4"/>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="9" t="s">
         <v>195</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D127" s="9"/>
-      <c r="E127" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>240</v>
-      </c>
+      <c r="E127" s="4"/>
+      <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
@@ -6584,7 +6505,7 @@
         <v>313</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
@@ -6621,7 +6542,7 @@
         <v>316</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -6644,7 +6565,7 @@
       <c r="Y129" s="9"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B130" s="9" t="s">
@@ -6654,8 +6575,12 @@
         <v>318</v>
       </c>
       <c r="D130" s="9"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="9"/>
+      <c r="E130" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
@@ -6677,22 +6602,18 @@
       <c r="Y130" s="9"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="9" t="s">
         <v>195</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="D131" s="9"/>
-      <c r="E131" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>240</v>
-      </c>
+      <c r="E131" s="4"/>
+      <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
@@ -6718,17 +6639,17 @@
         <v>195</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>312</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
@@ -6755,17 +6676,17 @@
         <v>195</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>315</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
@@ -6788,18 +6709,22 @@
       <c r="Y133" s="9"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D134" s="9"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="9"/>
+      <c r="E134" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
@@ -6821,22 +6746,18 @@
       <c r="Y134" s="9"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="9" t="s">
         <v>195</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D135" s="9"/>
-      <c r="E135" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>240</v>
-      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="9"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
@@ -6862,17 +6783,17 @@
         <v>195</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>312</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
@@ -6899,17 +6820,17 @@
         <v>195</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="4" t="s">
         <v>333</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
@@ -6931,8 +6852,8 @@
       <c r="X137" s="9"/>
       <c r="Y137" s="9"/>
     </row>
-    <row r="138" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="9" t="s">
+    <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B138" s="9" t="s">
@@ -6945,7 +6866,9 @@
       <c r="E138" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F138" s="9"/>
+      <c r="F138" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
@@ -6966,42 +6889,40 @@
       <c r="X138" s="9"/>
       <c r="Y138" s="9"/>
     </row>
-    <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="14" t="s">
+    <row r="139" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="D139" s="4"/>
+      <c r="D139" s="9"/>
       <c r="E139" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="F139" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="15"/>
-      <c r="L139" s="15"/>
-      <c r="M139" s="15"/>
-      <c r="N139" s="15"/>
-      <c r="O139" s="15"/>
-      <c r="P139" s="15"/>
-      <c r="Q139" s="15"/>
-      <c r="R139" s="15"/>
-      <c r="S139" s="15"/>
-      <c r="T139" s="15"/>
-      <c r="U139" s="15"/>
-      <c r="V139" s="15"/>
-      <c r="W139" s="15"/>
-      <c r="X139" s="15"/>
-      <c r="Y139" s="15"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
+      <c r="O139" s="9"/>
+      <c r="P139" s="9"/>
+      <c r="Q139" s="9"/>
+      <c r="R139" s="9"/>
+      <c r="S139" s="9"/>
+      <c r="T139" s="9"/>
+      <c r="U139" s="9"/>
+      <c r="V139" s="9"/>
+      <c r="W139" s="9"/>
+      <c r="X139" s="9"/>
+      <c r="Y139" s="9"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="14" t="s">
@@ -7013,12 +6934,12 @@
       <c r="C140" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="D140" s="15"/>
+      <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
         <v>342</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
@@ -7055,7 +6976,7 @@
         <v>345</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G141" s="15"/>
       <c r="H141" s="15"/>
@@ -7078,74 +6999,74 @@
       <c r="Y141" s="15"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-      <c r="L142" s="9"/>
-      <c r="M142" s="9"/>
-      <c r="N142" s="9"/>
-      <c r="O142" s="9"/>
-      <c r="P142" s="9"/>
-      <c r="Q142" s="9"/>
-      <c r="R142" s="9"/>
-      <c r="S142" s="9"/>
-      <c r="T142" s="9"/>
-      <c r="U142" s="9"/>
-      <c r="V142" s="9"/>
-      <c r="W142" s="9"/>
-      <c r="X142" s="9"/>
-      <c r="Y142" s="9"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="15"/>
+      <c r="O142" s="15"/>
+      <c r="P142" s="15"/>
+      <c r="Q142" s="15"/>
+      <c r="R142" s="15"/>
+      <c r="S142" s="15"/>
+      <c r="T142" s="15"/>
+      <c r="U142" s="15"/>
+      <c r="V142" s="15"/>
+      <c r="W142" s="15"/>
+      <c r="X142" s="15"/>
+      <c r="Y142" s="15"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B143" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C143" s="13" t="s">
+      <c r="B143" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4" t="s">
+      <c r="C143" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="F143" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="15"/>
-      <c r="L143" s="15"/>
-      <c r="M143" s="15"/>
-      <c r="N143" s="15"/>
-      <c r="O143" s="15"/>
-      <c r="P143" s="15"/>
-      <c r="Q143" s="15"/>
-      <c r="R143" s="15"/>
-      <c r="S143" s="15"/>
-      <c r="T143" s="15"/>
-      <c r="U143" s="15"/>
-      <c r="V143" s="15"/>
-      <c r="W143" s="15"/>
-      <c r="X143" s="15"/>
-      <c r="Y143" s="15"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="9"/>
+      <c r="R143" s="9"/>
+      <c r="S143" s="9"/>
+      <c r="T143" s="9"/>
+      <c r="U143" s="9"/>
+      <c r="V143" s="9"/>
+      <c r="W143" s="9"/>
+      <c r="X143" s="9"/>
+      <c r="Y143" s="9"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="14" t="s">
@@ -7157,12 +7078,12 @@
       <c r="C144" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="D144" s="15"/>
+      <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
         <v>353</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G144" s="15"/>
       <c r="H144" s="15"/>
@@ -7199,7 +7120,7 @@
         <v>356</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G145" s="15"/>
       <c r="H145" s="15"/>
@@ -7231,193 +7152,193 @@
       <c r="C146" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="D146" s="4"/>
+      <c r="D146" s="15"/>
       <c r="E146" s="4" t="s">
         <v>359</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
-      <c r="Q146" s="4"/>
-      <c r="R146" s="4"/>
-      <c r="S146" s="4"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="W146" s="4"/>
-      <c r="X146" s="4"/>
-      <c r="Y146" s="4"/>
-    </row>
-    <row r="147" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="15"/>
+      <c r="O146" s="15"/>
+      <c r="P146" s="15"/>
+      <c r="Q146" s="15"/>
+      <c r="R146" s="15"/>
+      <c r="S146" s="15"/>
+      <c r="T146" s="15"/>
+      <c r="U146" s="15"/>
+      <c r="V146" s="15"/>
+      <c r="W146" s="15"/>
+      <c r="X146" s="15"/>
+      <c r="Y146" s="15"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B147" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="D147" s="16"/>
-      <c r="E147" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="F147" s="16" t="s">
+      <c r="D147" s="4"/>
+      <c r="E147" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="G147" s="16"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="16"/>
-      <c r="J147" s="16"/>
-      <c r="K147" s="16"/>
-      <c r="L147" s="16"/>
-      <c r="M147" s="16"/>
-      <c r="N147" s="16"/>
-      <c r="O147" s="16"/>
-      <c r="P147" s="16"/>
-      <c r="Q147" s="16"/>
-      <c r="R147" s="16"/>
-      <c r="S147" s="16"/>
-      <c r="T147" s="16"/>
-      <c r="U147" s="16"/>
-      <c r="V147" s="16"/>
-      <c r="W147" s="16"/>
-      <c r="X147" s="16"/>
-      <c r="Y147" s="16"/>
-    </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="20" t="s">
+      <c r="F147" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="4"/>
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B148" s="20" t="s">
+      <c r="B148" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C148" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="D148" s="5"/>
-      <c r="E148" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="F148" s="20"/>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20"/>
-      <c r="I148" s="20"/>
-      <c r="J148" s="20"/>
-      <c r="K148" s="20"/>
-      <c r="L148" s="20"/>
-      <c r="M148" s="20"/>
-      <c r="N148" s="20"/>
-      <c r="O148" s="20"/>
-      <c r="P148" s="20"/>
-      <c r="Q148" s="20"/>
-      <c r="R148" s="20"/>
-      <c r="S148" s="20"/>
-      <c r="T148" s="20"/>
-      <c r="U148" s="20"/>
-      <c r="V148" s="20"/>
-      <c r="W148" s="20"/>
-      <c r="X148" s="20"/>
-      <c r="Y148" s="20"/>
-    </row>
-    <row r="149" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="16" t="s">
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="9"/>
+      <c r="O148" s="9"/>
+      <c r="P148" s="9"/>
+      <c r="Q148" s="9"/>
+      <c r="R148" s="9"/>
+      <c r="S148" s="9"/>
+      <c r="T148" s="9"/>
+      <c r="U148" s="9"/>
+      <c r="V148" s="9"/>
+      <c r="W148" s="9"/>
+      <c r="X148" s="9"/>
+      <c r="Y148" s="9"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C149" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="D149" s="16"/>
-      <c r="E149" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="F149" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="16"/>
-      <c r="J149" s="16"/>
-      <c r="K149" s="16"/>
-      <c r="L149" s="16"/>
-      <c r="M149" s="16"/>
-      <c r="N149" s="16"/>
-      <c r="O149" s="16"/>
-      <c r="P149" s="16"/>
-      <c r="Q149" s="16"/>
-      <c r="R149" s="16"/>
-      <c r="S149" s="16"/>
-      <c r="T149" s="16"/>
-      <c r="U149" s="16"/>
-      <c r="V149" s="16"/>
-      <c r="W149" s="16"/>
-      <c r="X149" s="16"/>
-      <c r="Y149" s="16"/>
-    </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="20" t="s">
+      <c r="C149" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+      <c r="M149" s="15"/>
+      <c r="N149" s="15"/>
+      <c r="O149" s="15"/>
+      <c r="P149" s="15"/>
+      <c r="Q149" s="15"/>
+      <c r="R149" s="15"/>
+      <c r="S149" s="15"/>
+      <c r="T149" s="15"/>
+      <c r="U149" s="15"/>
+      <c r="V149" s="15"/>
+      <c r="W149" s="15"/>
+      <c r="X149" s="15"/>
+      <c r="Y149" s="15"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B150" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="C150" s="20" t="s">
+      <c r="B150" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="D150" s="5"/>
-      <c r="E150" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20"/>
-      <c r="J150" s="20"/>
-      <c r="K150" s="20"/>
-      <c r="L150" s="20"/>
-      <c r="M150" s="20"/>
-      <c r="N150" s="20"/>
-      <c r="O150" s="20"/>
-      <c r="P150" s="20"/>
-      <c r="Q150" s="20"/>
-      <c r="R150" s="20"/>
-      <c r="S150" s="20"/>
-      <c r="T150" s="20"/>
-      <c r="U150" s="20"/>
-      <c r="V150" s="20"/>
-      <c r="W150" s="20"/>
-      <c r="X150" s="20"/>
-      <c r="Y150" s="20"/>
+      <c r="C150" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D150" s="15"/>
+      <c r="E150" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+      <c r="M150" s="15"/>
+      <c r="N150" s="15"/>
+      <c r="O150" s="15"/>
+      <c r="P150" s="15"/>
+      <c r="Q150" s="15"/>
+      <c r="R150" s="15"/>
+      <c r="S150" s="15"/>
+      <c r="T150" s="15"/>
+      <c r="U150" s="15"/>
+      <c r="V150" s="15"/>
+      <c r="W150" s="15"/>
+      <c r="X150" s="15"/>
+      <c r="Y150" s="15"/>
     </row>
     <row r="151" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="16" t="s">
         <v>195</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D151" s="16"/>
       <c r="E151" s="18" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="G151" s="16"/>
       <c r="H151" s="16"/>
@@ -7444,14 +7365,14 @@
         <v>195</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="21" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
@@ -7474,100 +7395,244 @@
       <c r="X152" s="20"/>
       <c r="Y152" s="20"/>
     </row>
-    <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="4" t="s">
+    <row r="153" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D153" s="16"/>
+      <c r="E153" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="F153" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="16"/>
+      <c r="N153" s="16"/>
+      <c r="O153" s="16"/>
+      <c r="P153" s="16"/>
+      <c r="Q153" s="16"/>
+      <c r="R153" s="16"/>
+      <c r="S153" s="16"/>
+      <c r="T153" s="16"/>
+      <c r="U153" s="16"/>
+      <c r="V153" s="16"/>
+      <c r="W153" s="16"/>
+      <c r="X153" s="16"/>
+      <c r="Y153" s="16"/>
+    </row>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="20"/>
+      <c r="O154" s="20"/>
+      <c r="P154" s="20"/>
+      <c r="Q154" s="20"/>
+      <c r="R154" s="20"/>
+      <c r="S154" s="20"/>
+      <c r="T154" s="20"/>
+      <c r="U154" s="20"/>
+      <c r="V154" s="20"/>
+      <c r="W154" s="20"/>
+      <c r="X154" s="20"/>
+      <c r="Y154" s="20"/>
+    </row>
+    <row r="155" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D155" s="16"/>
+      <c r="E155" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F155" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
+      <c r="J155" s="16"/>
+      <c r="K155" s="16"/>
+      <c r="L155" s="16"/>
+      <c r="M155" s="16"/>
+      <c r="N155" s="16"/>
+      <c r="O155" s="16"/>
+      <c r="P155" s="16"/>
+      <c r="Q155" s="16"/>
+      <c r="R155" s="16"/>
+      <c r="S155" s="16"/>
+      <c r="T155" s="16"/>
+      <c r="U155" s="16"/>
+      <c r="V155" s="16"/>
+      <c r="W155" s="16"/>
+      <c r="X155" s="16"/>
+      <c r="Y155" s="16"/>
+    </row>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B156" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="20"/>
+      <c r="N156" s="20"/>
+      <c r="O156" s="20"/>
+      <c r="P156" s="20"/>
+      <c r="Q156" s="20"/>
+      <c r="R156" s="20"/>
+      <c r="S156" s="20"/>
+      <c r="T156" s="20"/>
+      <c r="U156" s="20"/>
+      <c r="V156" s="20"/>
+      <c r="W156" s="20"/>
+      <c r="X156" s="20"/>
+      <c r="Y156" s="20"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="9"/>
-      <c r="J153" s="9"/>
-      <c r="K153" s="9"/>
-      <c r="L153" s="9"/>
-      <c r="M153" s="9"/>
-      <c r="N153" s="9"/>
-      <c r="O153" s="9"/>
-      <c r="P153" s="9"/>
-      <c r="Q153" s="9"/>
-      <c r="R153" s="9"/>
-      <c r="S153" s="9"/>
-      <c r="T153" s="9"/>
-      <c r="U153" s="9"/>
-      <c r="V153" s="9"/>
-      <c r="W153" s="9"/>
-      <c r="X153" s="9"/>
-      <c r="Y153" s="9"/>
-    </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="22" t="s">
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c r="L157" s="9"/>
+      <c r="M157" s="9"/>
+      <c r="N157" s="9"/>
+      <c r="O157" s="9"/>
+      <c r="P157" s="9"/>
+      <c r="Q157" s="9"/>
+      <c r="R157" s="9"/>
+      <c r="S157" s="9"/>
+      <c r="T157" s="9"/>
+      <c r="U157" s="9"/>
+      <c r="V157" s="9"/>
+      <c r="W157" s="9"/>
+      <c r="X157" s="9"/>
+      <c r="Y157" s="9"/>
+    </row>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B154" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="C154" s="22" t="s">
+      <c r="B158" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C158" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
-      <c r="F154" s="22" t="s">
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G154" s="23"/>
-      <c r="H154" s="23"/>
-      <c r="I154" s="23"/>
-      <c r="J154" s="23"/>
-      <c r="K154" s="23"/>
-      <c r="L154" s="23"/>
-      <c r="M154" s="23"/>
-      <c r="N154" s="23"/>
-    </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="24" t="s">
+      <c r="G158" s="23"/>
+      <c r="H158" s="23"/>
+      <c r="I158" s="23"/>
+      <c r="J158" s="23"/>
+      <c r="K158" s="23"/>
+      <c r="L158" s="23"/>
+      <c r="M158" s="23"/>
+      <c r="N158" s="23"/>
+    </row>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C155" s="4" t="s">
+      <c r="B159" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D155" s="25"/>
-      <c r="E155" s="26"/>
-      <c r="F155" s="26"/>
-      <c r="G155" s="26"/>
-      <c r="H155" s="26"/>
-      <c r="I155" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="J155" s="26"/>
-      <c r="K155" s="26"/>
-      <c r="L155" s="26"/>
-      <c r="M155" s="26"/>
-      <c r="N155" s="26"/>
-    </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="27" t="s">
+      <c r="D159" s="25"/>
+      <c r="E159" s="26"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="26"/>
+      <c r="I159" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="J159" s="26"/>
+      <c r="K159" s="26"/>
+      <c r="L159" s="26"/>
+      <c r="M159" s="26"/>
+      <c r="N159" s="26"/>
+    </row>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B156" s="23"/>
-      <c r="C156" s="23"/>
-      <c r="D156" s="23"/>
-      <c r="E156" s="23"/>
-      <c r="F156" s="23"/>
-      <c r="G156" s="23"/>
-      <c r="H156" s="23"/>
-      <c r="I156" s="23"/>
-      <c r="J156" s="23"/>
-      <c r="K156" s="23"/>
-      <c r="L156" s="23"/>
-      <c r="M156" s="23"/>
-      <c r="N156" s="23"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="23"/>
+      <c r="I160" s="23"/>
+      <c r="J160" s="23"/>
+      <c r="K160" s="23"/>
+      <c r="L160" s="23"/>
+      <c r="M160" s="23"/>
+      <c r="N160" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
@@ -7650,2286 +7715,2286 @@
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E115:E126">
+  <conditionalFormatting sqref="E116:E127">
     <cfRule type="containsText" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E115:E126">
+  <conditionalFormatting sqref="E116:E127">
     <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A115="begin group", NOT($B115 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115:E126">
+      <formula>AND($A116="begin group", NOT($B116 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116:E127">
     <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A115="end group", $B115 = "", $C115 = "", $D115 = "", $E115 = "", $F115 = "", $G115 = "", $H115 = "", $I115 = "", $J115 = "", $K115 = "", $L115 = "", $M115 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115:E126">
+      <formula>AND($A116="end group", $B116 = "", $C116 = "", $D116 = "", $E116 = "", $F116 = "", $G116 = "", $H116 = "", $I116 = "", $J116 = "", $K116 = "", $L116 = "", $M116 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116:E127">
     <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E115:E126">
+  <conditionalFormatting sqref="E116:E127">
     <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A115="begin repeat", NOT($B115 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115:E126">
+      <formula>AND($A116="begin repeat", NOT($B116 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116:E127">
     <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A115="end repeat", $B115 = "", $C115 = "", $D115 = "", $E115 = "", $F115 = "", $G115 = "", $H115 = "", $I115 = "", $J115 = "", $K115 = "", $L115 = "", $M115 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
+      <formula>AND($A116="end repeat", $B116 = "", $C116 = "", $D116 = "", $E116 = "", $F116 = "", $G116 = "", $H116 = "", $I116 = "", $J116 = "", $K116 = "", $L116 = "", $M116 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127">
     <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128:Y128">
+  <conditionalFormatting sqref="A129:Y129">
     <cfRule type="containsText" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128:Y128">
+  <conditionalFormatting sqref="A129:Y129">
     <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A128="begin group", NOT($B128 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:Y128">
+      <formula>AND($A129="begin group", NOT($B129 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129:Y129">
     <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A128="end group", $B128 = "", $C128 = "", $D128 = "", $E128 = "", $F128 = "", $G128 = "", $H128 = "", $I128 = "", $J128 = "", $K128 = "", $L128 = "", $M128 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:Y128">
+      <formula>AND($A129="end group", $B129 = "", $C129 = "", $D129 = "", $E129 = "", $F129 = "", $G129 = "", $H129 = "", $I129 = "", $J129 = "", $K129 = "", $L129 = "", $M129 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129:Y129">
     <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
+  <conditionalFormatting sqref="A129">
     <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128:Y128">
+  <conditionalFormatting sqref="A129:Y129">
     <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A128="begin repeat", NOT($B128 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:Y128">
+      <formula>AND($A129="begin repeat", NOT($B129 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129:Y129">
     <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A128="end repeat", $B128 = "", $C128 = "", $D128 = "", $E128 = "", $F128 = "", $G128 = "", $H128 = "", $I128 = "", $J128 = "", $K128 = "", $L128 = "", $M128 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129:Y129">
+      <formula>AND($A129="end repeat", $B129 = "", $C129 = "", $D129 = "", $E129 = "", $F129 = "", $G129 = "", $H129 = "", $I129 = "", $J129 = "", $K129 = "", $L129 = "", $M129 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130:Y130">
     <cfRule type="containsText" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A129:Y129">
+  <conditionalFormatting sqref="A130:Y130">
     <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A129="begin group", NOT($B129 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129:Y129">
+      <formula>AND($A130="begin group", NOT($B130 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130:Y130">
     <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A129="end group", $B129 = "", $C129 = "", $D129 = "", $E129 = "", $F129 = "", $G129 = "", $H129 = "", $I129 = "", $J129 = "", $K129 = "", $L129 = "", $M129 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129:Y129">
+      <formula>AND($A130="end group", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130:Y130">
     <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I129">
+  <conditionalFormatting sqref="I130">
     <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I129 = "", $A129 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
+      <formula>AND($I130 = "", $A130 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
     <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A129 = "end group"), NOT($A129 = "end repeat"), NOT($A129 = "")), $C129 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129">
+      <formula>AND(AND(NOT($A130 = "end group"), NOT($A130 = "end repeat"), NOT($A130 = "")), $C130 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
     <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A129 = "end group"), NOT($A129 = "end repeat"), NOT($A129 = "")), $B129 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
+      <formula>AND(AND(NOT($A130 = "end group"), NOT($A130 = "end repeat"), NOT($A130 = "")), $B130 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130">
     <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
+  <conditionalFormatting sqref="H130">
     <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G129 = ""), $H129 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129:Y129">
+      <formula>AND(NOT($G130 = ""), $H130 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130:Y130">
     <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A129="begin repeat", NOT($B129 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129:Y129">
+      <formula>AND($A130="begin repeat", NOT($B130 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130:Y130">
     <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A129="end repeat", $B129 = "", $C129 = "", $D129 = "", $E129 = "", $F129 = "", $G129 = "", $H129 = "", $I129 = "", $J129 = "", $K129 = "", $L129 = "", $M129 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I131">
+      <formula>AND($A130="end repeat", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I132">
     <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I131 = "", $A131 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
+      <formula>AND($I132 = "", $A132 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
     <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A131 = "end group"), NOT($A131 = "end repeat"), NOT($A131 = "")), $C131 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
+      <formula>AND(AND(NOT($A132 = "end group"), NOT($A132 = "end repeat"), NOT($A132 = "")), $C132 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B132">
     <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A131 = "end group"), NOT($A131 = "end repeat"), NOT($A131 = "")), $B131 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131">
+      <formula>AND(AND(NOT($A132 = "end group"), NOT($A132 = "end repeat"), NOT($A132 = "")), $B132 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132">
     <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H131">
+  <conditionalFormatting sqref="H132">
     <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G131 = ""), $H131 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I132">
+      <formula>AND(NOT($G132 = ""), $H132 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I133">
     <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I132 = "", $A132 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
+      <formula>AND($I133 = "", $A133 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
     <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A132 = "end group"), NOT($A132 = "end repeat"), NOT($A132 = "")), $C132 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B132">
+      <formula>AND(AND(NOT($A133 = "end group"), NOT($A133 = "end repeat"), NOT($A133 = "")), $C133 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B133">
     <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A132 = "end group"), NOT($A132 = "end repeat"), NOT($A132 = "")), $B132 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A132">
+      <formula>AND(AND(NOT($A133 = "end group"), NOT($A133 = "end repeat"), NOT($A133 = "")), $B133 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133">
     <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H132">
+  <conditionalFormatting sqref="H133">
     <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G132 = ""), $H132 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I133">
+      <formula>AND(NOT($G133 = ""), $H133 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I134">
     <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I133 = "", $A133 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
+      <formula>AND($I134 = "", $A134 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
     <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A133 = "end group"), NOT($A133 = "end repeat"), NOT($A133 = "")), $C133 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B133">
+      <formula>AND(AND(NOT($A134 = "end group"), NOT($A134 = "end repeat"), NOT($A134 = "")), $C134 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134">
     <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A133 = "end group"), NOT($A133 = "end repeat"), NOT($A133 = "")), $B133 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133">
+      <formula>AND(AND(NOT($A134 = "end group"), NOT($A134 = "end repeat"), NOT($A134 = "")), $B134 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134">
     <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H133">
+  <conditionalFormatting sqref="H134">
     <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G133 = ""), $H133 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135:Y135">
+      <formula>AND(NOT($G134 = ""), $H134 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136:Y136">
     <cfRule type="containsText" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A135:Y135">
+  <conditionalFormatting sqref="A136:Y136">
     <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A135="begin group", NOT($B135 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135:Y135">
+      <formula>AND($A136="begin group", NOT($B136 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136:Y136">
     <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A135="end group", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135:Y135">
+      <formula>AND($A136="end group", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136:Y136">
     <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I135">
+  <conditionalFormatting sqref="I136">
     <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I135 = "", $A135 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
+      <formula>AND($I136 = "", $A136 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
     <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A135 = "end group"), NOT($A135 = "end repeat"), NOT($A135 = "")), $C135 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
+      <formula>AND(AND(NOT($A136 = "end group"), NOT($A136 = "end repeat"), NOT($A136 = "")), $C136 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
     <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A135 = "end group"), NOT($A135 = "end repeat"), NOT($A135 = "")), $B135 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135">
+      <formula>AND(AND(NOT($A136 = "end group"), NOT($A136 = "end repeat"), NOT($A136 = "")), $B136 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
     <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H135">
+  <conditionalFormatting sqref="H136">
     <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G135 = ""), $H135 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135:Y135">
+      <formula>AND(NOT($G136 = ""), $H136 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136:Y136">
     <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A135="begin repeat", NOT($B135 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135:Y135">
+      <formula>AND($A136="begin repeat", NOT($B136 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136:Y136">
     <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A135="end repeat", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136:Y136">
+      <formula>AND($A136="end repeat", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137:Y137">
     <cfRule type="containsText" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A136:Y136">
+  <conditionalFormatting sqref="A137:Y137">
     <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A136="begin group", NOT($B136 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136:Y136">
+      <formula>AND($A137="begin group", NOT($B137 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137:Y137">
     <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A136="end group", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136:Y136">
+      <formula>AND($A137="end group", $B137 = "", $C137 = "", $D137 = "", $E137 = "", $F137 = "", $G137 = "", $H137 = "", $I137 = "", $J137 = "", $K137 = "", $L137 = "", $M137 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137:Y137">
     <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I136">
+  <conditionalFormatting sqref="I137">
     <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I136 = "", $A136 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
+      <formula>AND($I137 = "", $A137 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
     <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A136 = "end group"), NOT($A136 = "end repeat"), NOT($A136 = "")), $C136 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
+      <formula>AND(AND(NOT($A137 = "end group"), NOT($A137 = "end repeat"), NOT($A137 = "")), $C137 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
     <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A136 = "end group"), NOT($A136 = "end repeat"), NOT($A136 = "")), $B136 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136">
+      <formula>AND(AND(NOT($A137 = "end group"), NOT($A137 = "end repeat"), NOT($A137 = "")), $B137 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137">
     <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H136">
+  <conditionalFormatting sqref="H137">
     <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G136 = ""), $H136 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136:Y136">
+      <formula>AND(NOT($G137 = ""), $H137 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137:Y137">
     <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A136="begin repeat", NOT($B136 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136:Y136">
+      <formula>AND($A137="begin repeat", NOT($B137 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137:Y137">
     <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A136="end repeat", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137:Y137">
+      <formula>AND($A137="end repeat", $B137 = "", $C137 = "", $D137 = "", $E137 = "", $F137 = "", $G137 = "", $H137 = "", $I137 = "", $J137 = "", $K137 = "", $L137 = "", $M137 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:Y138">
     <cfRule type="containsText" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A137:Y137">
+  <conditionalFormatting sqref="A138:Y138">
     <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A137="begin group", NOT($B137 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137:Y137">
+      <formula>AND($A138="begin group", NOT($B138 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:Y138">
     <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A137="end group", $B137 = "", $C137 = "", $D137 = "", $E137 = "", $F137 = "", $G137 = "", $H137 = "", $I137 = "", $J137 = "", $K137 = "", $L137 = "", $M137 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137:Y137">
+      <formula>AND($A138="end group", $B138 = "", $C138 = "", $D138 = "", $E138 = "", $F138 = "", $G138 = "", $H138 = "", $I138 = "", $J138 = "", $K138 = "", $L138 = "", $M138 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:Y138">
     <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I137">
+  <conditionalFormatting sqref="I138">
     <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I137 = "", $A137 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
+      <formula>AND($I138 = "", $A138 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138">
     <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A137 = "end group"), NOT($A137 = "end repeat"), NOT($A137 = "")), $C137 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
+      <formula>AND(AND(NOT($A138 = "end group"), NOT($A138 = "end repeat"), NOT($A138 = "")), $C138 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
     <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A137 = "end group"), NOT($A137 = "end repeat"), NOT($A137 = "")), $B137 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137">
+      <formula>AND(AND(NOT($A138 = "end group"), NOT($A138 = "end repeat"), NOT($A138 = "")), $B138 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138">
     <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H137">
+  <conditionalFormatting sqref="H138">
     <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G137 = ""), $H137 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137:Y137">
+      <formula>AND(NOT($G138 = ""), $H138 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:Y138">
     <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A137="begin repeat", NOT($B137 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137:Y137">
+      <formula>AND($A138="begin repeat", NOT($B138 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:Y138">
     <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A137="end repeat", $B137 = "", $C137 = "", $D137 = "", $E137 = "", $F137 = "", $G137 = "", $H137 = "", $I137 = "", $J137 = "", $K137 = "", $L137 = "", $M137 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142:Y142">
+      <formula>AND($A138="end repeat", $B138 = "", $C138 = "", $D138 = "", $E138 = "", $F138 = "", $G138 = "", $H138 = "", $I138 = "", $J138 = "", $K138 = "", $L138 = "", $M138 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143:Y143">
     <cfRule type="containsText" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A142:Y142">
+  <conditionalFormatting sqref="A143:Y143">
     <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A142="begin group", NOT($B142 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142:Y142">
+      <formula>AND($A143="begin group", NOT($B143 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143:Y143">
     <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A142="end group", $B142 = "", $C142 = "", $D142 = "", $E142 = "", $F142 = "", $G142 = "", $H142 = "", $I142 = "", $J142 = "", $K142 = "", $L142 = "", $M142 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142:Y142">
+      <formula>AND($A143="end group", $B143 = "", $C143 = "", $D143 = "", $E143 = "", $F143 = "", $G143 = "", $H143 = "", $I143 = "", $J143 = "", $K143 = "", $L143 = "", $M143 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143:Y143">
     <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I142">
+  <conditionalFormatting sqref="I143">
     <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I142 = "", $A142 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
+      <formula>AND($I143 = "", $A143 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
     <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A142 = "end group"), NOT($A142 = "end repeat"), NOT($A142 = "")), $C142 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B142">
+      <formula>AND(AND(NOT($A143 = "end group"), NOT($A143 = "end repeat"), NOT($A143 = "")), $C143 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B143">
     <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A142 = "end group"), NOT($A142 = "end repeat"), NOT($A142 = "")), $B142 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
+      <formula>AND(AND(NOT($A143 = "end group"), NOT($A143 = "end repeat"), NOT($A143 = "")), $B143 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143">
     <cfRule type="cellIs" priority="100" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H142">
+  <conditionalFormatting sqref="H143">
     <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G142 = ""), $H142 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142:Y142">
+      <formula>AND(NOT($G143 = ""), $H143 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143:Y143">
     <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A142="begin repeat", NOT($B142 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142:Y142">
+      <formula>AND($A143="begin repeat", NOT($B143 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143:Y143">
     <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A142="end repeat", $B142 = "", $C142 = "", $D142 = "", $E142 = "", $F142 = "", $G142 = "", $H142 = "", $I142 = "", $J142 = "", $K142 = "", $L142 = "", $M142 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
+      <formula>AND($A143="end repeat", $B143 = "", $C143 = "", $D143 = "", $E143 = "", $F143 = "", $G143 = "", $H143 = "", $I143 = "", $J143 = "", $K143 = "", $L143 = "", $M143 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157">
     <cfRule type="containsText" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
+  <conditionalFormatting sqref="A157">
     <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A153="begin group", NOT($B153 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
+      <formula>AND($A157="begin group", NOT($B157 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157">
     <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A153="end group", $B153 = "", $C153 = "", $D153 = "", $E153 = "", $F153 = "", $G153 = "", $H153 = "", $I153 = "", $J153 = "", $K153 = "", $L153 = "", $M153 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
+      <formula>AND($A157="end group", $B157 = "", $C157 = "", $D157 = "", $E157 = "", $F157 = "", $G157 = "", $H157 = "", $I157 = "", $J157 = "", $K157 = "", $L157 = "", $M157 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157">
     <cfRule type="cellIs" priority="107" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
+  <conditionalFormatting sqref="A157">
     <cfRule type="cellIs" priority="108" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
+  <conditionalFormatting sqref="A157">
     <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A153="begin repeat", NOT($B153 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
+      <formula>AND($A157="begin repeat", NOT($B157 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157">
     <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A153="end repeat", $B153 = "", $C153 = "", $D153 = "", $E153 = "", $F153 = "", $G153 = "", $H153 = "", $I153 = "", $J153 = "", $K153 = "", $L153 = "", $M153 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I139:I141">
+      <formula>AND($A157="end repeat", $B157 = "", $C157 = "", $D157 = "", $E157 = "", $F157 = "", $G157 = "", $H157 = "", $I157 = "", $J157 = "", $K157 = "", $L157 = "", $M157 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I140:I142">
     <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I139 = "", $A139 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140:C141">
+      <formula>AND($I140 = "", $A140 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141:C142">
     <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A140 = "end group"), NOT($A140 = "end repeat"), NOT($A140 = "")), $C140 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B140:B141">
+      <formula>AND(AND(NOT($A141 = "end group"), NOT($A141 = "end repeat"), NOT($A141 = "")), $C141 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B141:B142">
     <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A140 = "end group"), NOT($A140 = "end repeat"), NOT($A140 = "")), $B140 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A139:A141">
+      <formula>AND(AND(NOT($A141 = "end group"), NOT($A141 = "end repeat"), NOT($A141 = "")), $B141 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A140:A142">
     <cfRule type="cellIs" priority="114" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H139:H141">
+  <conditionalFormatting sqref="H140:H142">
     <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G139 = ""), $H139 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138:Y138">
+      <formula>AND(NOT($G140 = ""), $H140 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139:Y139">
     <cfRule type="containsText" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A138:Y138">
+  <conditionalFormatting sqref="A139:Y139">
     <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A138="begin group", NOT($B138 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138:Y138">
+      <formula>AND($A139="begin group", NOT($B139 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139:Y139">
     <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A138="end group", $B138 = "", $C138 = "", $D138 = "", $E138 = "", $F138 = "", $G138 = "", $H138 = "", $I138 = "", $J138 = "", $K138 = "", $L138 = "", $M138 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138:Y138">
+      <formula>AND($A139="end group", $B139 = "", $C139 = "", $D139 = "", $E139 = "", $F139 = "", $G139 = "", $H139 = "", $I139 = "", $J139 = "", $K139 = "", $L139 = "", $M139 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139:Y139">
     <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I138">
+  <conditionalFormatting sqref="I139">
     <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I138 = "", $A138 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
+      <formula>AND($I139 = "", $A139 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139">
     <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A138 = "end group"), NOT($A138 = "end repeat"), NOT($A138 = "")), $C138 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
+      <formula>AND(AND(NOT($A139 = "end group"), NOT($A139 = "end repeat"), NOT($A139 = "")), $C139 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B139">
     <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A138 = "end group"), NOT($A138 = "end repeat"), NOT($A138 = "")), $B138 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138">
+      <formula>AND(AND(NOT($A139 = "end group"), NOT($A139 = "end repeat"), NOT($A139 = "")), $B139 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139">
     <cfRule type="cellIs" priority="123" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H138">
+  <conditionalFormatting sqref="H139">
     <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G138 = ""), $H138 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138:Y138">
+      <formula>AND(NOT($G139 = ""), $H139 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139:Y139">
     <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A138="begin repeat", NOT($B138 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138:Y138">
+      <formula>AND($A139="begin repeat", NOT($B139 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139:Y139">
     <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A138="end repeat", $B138 = "", $C138 = "", $D138 = "", $E138 = "", $F138 = "", $G138 = "", $H138 = "", $I138 = "", $J138 = "", $K138 = "", $L138 = "", $M138 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+      <formula>AND($A139="end repeat", $B139 = "", $C139 = "", $D139 = "", $E139 = "", $F139 = "", $G139 = "", $H139 = "", $I139 = "", $J139 = "", $K139 = "", $L139 = "", $M139 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
     <cfRule type="containsText" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+  <conditionalFormatting sqref="E131">
     <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A130="begin group", NOT($B130 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+      <formula>AND($A131="begin group", NOT($B131 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
     <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A130="end group", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+      <formula>AND($A131="end group", $B131 = "", $C131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $I131 = "", $J131 = "", $K131 = "", $L131 = "", $M131 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
     <cfRule type="cellIs" priority="130" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+  <conditionalFormatting sqref="E131">
     <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A130="begin repeat", NOT($B130 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+      <formula>AND($A131="begin repeat", NOT($B131 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
     <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A130="end repeat", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+      <formula>AND($A131="end repeat", $B131 = "", $C131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $I131 = "", $J131 = "", $K131 = "", $L131 = "", $M131 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
     <cfRule type="containsText" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+  <conditionalFormatting sqref="E131">
     <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A130="begin group", NOT($B130 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+      <formula>AND($A131="begin group", NOT($B131 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
     <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A130="end group", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+      <formula>AND($A131="end group", $B131 = "", $C131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $I131 = "", $J131 = "", $K131 = "", $L131 = "", $M131 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
     <cfRule type="cellIs" priority="136" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+  <conditionalFormatting sqref="E131">
     <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A130="begin repeat", NOT($B130 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+      <formula>AND($A131="begin repeat", NOT($B131 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
     <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A130="end repeat", $B130 = "", $C130 = "", $D130 = "", $E130 = "", $F130 = "", $G130 = "", $H130 = "", $I130 = "", $J130 = "", $K130 = "", $L130 = "", $M130 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I130">
+      <formula>AND($A131="end repeat", $B131 = "", $C131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $I131 = "", $J131 = "", $K131 = "", $L131 = "", $M131 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I131">
     <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I130 = "", $A130 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
+      <formula>AND($I131 = "", $A131 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
     <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A130 = "end group"), NOT($A130 = "end repeat"), NOT($A130 = "")), $C130 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
+      <formula>AND(AND(NOT($A131 = "end group"), NOT($A131 = "end repeat"), NOT($A131 = "")), $C131 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
     <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A130 = "end group"), NOT($A130 = "end repeat"), NOT($A130 = "")), $B130 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A130">
+      <formula>AND(AND(NOT($A131 = "end group"), NOT($A131 = "end repeat"), NOT($A131 = "")), $B131 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131">
     <cfRule type="cellIs" priority="142" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130">
-    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G130 = ""), $H130 = "")</formula>
+  <conditionalFormatting sqref="H131">
+    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G131 = ""), $H131 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="containsText" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A135="begin group", NOT($B135 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A135="end group", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" priority="147" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A135="begin repeat", NOT($B135 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A135="end repeat", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="containsText" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A135="begin group", NOT($B135 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A135="end group", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" priority="153" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A135="begin repeat", NOT($B135 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A135="end repeat", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I135">
+    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I135 = "", $A135 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A135 = "end group"), NOT($A135 = "end repeat"), NOT($A135 = "")), $C135 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A135 = "end group"), NOT($A135 = "end repeat"), NOT($A135 = "")), $B135 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135">
+    <cfRule type="cellIs" priority="159" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H135">
+    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G135 = ""), $H135 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="containsText" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" priority="164" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I46 = "", $A46 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C47">
+    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:A47">
+    <cfRule type="cellIs" priority="169" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46:H47">
+    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G46 = ""), $H46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="containsText" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" priority="174" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="containsText" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" priority="180" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="cellIs" priority="184" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="containsText" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $I50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" priority="189" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $I50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="containsText" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" priority="193" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $I48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" priority="195" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $I48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="expression" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I60 = "", $A60 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="cellIs" priority="200" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="containsText" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" priority="205" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" priority="207" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="expression" priority="208" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I67 = "", $A67 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" priority="209" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="cellIs" priority="210" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G67 = ""), $H67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="containsText" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" priority="215" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68:I69">
+    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I68 = "", $A68 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C69">
+    <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:B69">
+    <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:A69">
+    <cfRule type="cellIs" priority="221" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68:H69">
+    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68:E69">
+    <cfRule type="containsText" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68:E69">
+    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68:E69">
+    <cfRule type="expression" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68:E69">
+    <cfRule type="cellIs" priority="226" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68:E69">
+    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68:E69">
+    <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I64 = "", $A64 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:A64">
+    <cfRule type="cellIs" priority="231" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="containsText" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" priority="234" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" priority="236" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="cellIs" priority="239" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:Y74">
+    <cfRule type="containsText" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:Y74">
+    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:Y74">
+    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:Y74">
+    <cfRule type="cellIs" priority="243" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72:I74">
+    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I72 = "", $A72 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72:C74">
+    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:B74">
+    <cfRule type="expression" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $B72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A74">
+    <cfRule type="cellIs" priority="247" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72:H74">
+    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G72 = ""), $H72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:Y74">
+    <cfRule type="expression" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:Y74">
+    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="containsText" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="expression" priority="252" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="expression" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="cellIs" priority="254" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="cellIs" priority="255" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="containsText" priority="258" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" priority="261" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="cellIs" priority="264" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79:I81">
+    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I79 = "", $A79 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79:C81">
+    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A79 = "end group"), NOT($A79 = "end repeat"), NOT($A79 = "")), $C79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80:B81">
+    <cfRule type="expression" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A80 = "end group"), NOT($A80 = "end repeat"), NOT($A80 = "")), $B80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79:A81">
+    <cfRule type="cellIs" priority="268" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79:H81">
+    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G79 = ""), $H79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I87">
+    <cfRule type="expression" priority="270" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I87 = "", $A87 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $C87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87">
+    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $B87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87">
+    <cfRule type="cellIs" priority="273" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G87 = ""), $H87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="containsText" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" priority="276" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A87="end group", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" priority="278" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A87="end repeat", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I95,I88:I93">
+    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I88 = "", $A88 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95,C88:C93">
+    <cfRule type="expression" priority="282" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A88 = "end group"), NOT($A88 = "end repeat"), NOT($A88 = "")), $C88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95,A88:A93">
+    <cfRule type="cellIs" priority="283" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95,H88:H93">
+    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G88 = ""), $H88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="containsText" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="cellIs" priority="288" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="cellIs" priority="289" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I43 = "", $A43 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" priority="293" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="cellIs" priority="295" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="containsText" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" priority="300" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I49 = "", $A49 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $B49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="cellIs" priority="306" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G49 = ""), $H49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="containsText" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" priority="311" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61:I63">
+    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I61 = "", $A61 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:C63">
+    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $C61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:B63">
+    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $B61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="cellIs" priority="317" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61:H63">
+    <cfRule type="expression" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G61 = ""), $H61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="containsText" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" priority="322" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:Y38">
+    <cfRule type="containsText" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:Y38">
+    <cfRule type="cellIs" priority="326" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="cellIs" priority="327" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I48">
+    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I47 = "", $A47 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="containsText" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A85="end group", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" priority="332" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A85="end repeat", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="containsText" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" priority="336" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A83="begin group", NOT($B83 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A83="end group", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="cellIs" priority="338" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A83 = "end group"), NOT($A83 = "end repeat"), NOT($A83 = "")), $B83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A83="begin repeat", NOT($B83 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A83="end repeat", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="containsText" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A84="begin group", NOT($B84 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A84="end group", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" priority="345" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" priority="346" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A84="begin repeat", NOT($B84 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="expression" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A84="end repeat", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="containsText" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A84="begin group", NOT($B84 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A84="end group", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="cellIs" priority="352" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A84 = "end group"), NOT($A84 = "end repeat"), NOT($A84 = "")), $B84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A84="begin repeat", NOT($B84 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A84="end repeat", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="containsText" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A132="begin group", NOT($B132 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A132="end group", $B132 = "", $C132 = "", $D132 = "", $E132 = "", $F132 = "", $G132 = "", $H132 = "", $I132 = "", $J132 = "", $K132 = "", $L132 = "", $M132 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="cellIs" priority="359" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A132="begin repeat", NOT($B132 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="expression" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A132="end repeat", $B132 = "", $C132 = "", $D132 = "", $E132 = "", $F132 = "", $G132 = "", $H132 = "", $I132 = "", $J132 = "", $K132 = "", $L132 = "", $M132 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="containsText" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A133="begin group", NOT($B133 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A133="end group", $B133 = "", $C133 = "", $D133 = "", $E133 = "", $F133 = "", $G133 = "", $H133 = "", $I133 = "", $J133 = "", $K133 = "", $L133 = "", $M133 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" priority="365" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A133="begin repeat", NOT($B133 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A133="end repeat", $B133 = "", $C133 = "", $D133 = "", $E133 = "", $F133 = "", $G133 = "", $H133 = "", $I133 = "", $J133 = "", $K133 = "", $L133 = "", $M133 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="containsText" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
+    <cfRule type="containsText" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A134="begin group", NOT($B134 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A134="end group", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" priority="147" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="371" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A134="begin repeat", NOT($B134 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A134="end repeat", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="containsText" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A134="begin group", NOT($B134 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A134="end group", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" priority="153" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="I75">
+    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I75 = "", $A75 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="expression" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $C75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $B75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="cellIs" priority="377" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G75 = ""), $H75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I86">
+    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I86 = "", $A86 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
+    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A86 = "end group"), NOT($A86 = "end repeat"), NOT($A86 = "")), $C86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="cellIs" priority="381" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G86 = ""), $H86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="containsText" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A86="begin group", NOT($B86 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A86="end group", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" priority="386" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A134="begin repeat", NOT($B134 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A134="end repeat", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I134">
-    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I134 = "", $A134 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
-    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A134 = "end group"), NOT($A134 = "end repeat"), NOT($A134 = "")), $C134 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134">
-    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A134 = "end group"), NOT($A134 = "end repeat"), NOT($A134 = "")), $B134 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134">
-    <cfRule type="cellIs" priority="159" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A86="begin repeat", NOT($B86 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A86="end repeat", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>COUNTIF($B$2:$B$1095,B137)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B132">
+    <cfRule type="expression" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>COUNTIF($B$2:$B$1099,B132)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B133">
+    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>COUNTIF($B$2:$B$1098,B133)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:B69">
+    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>COUNTIF($B$2:$B$1087,B68)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80:B81">
+    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>COUNTIF($B$2:$B$1078,B80)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>COUNTIF($B$2:$B$999,B43)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:B84">
+    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>COUNTIF($B$2:$B$1100,B83)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:A63">
+    <cfRule type="cellIs" priority="396" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H134">
-    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G134 = ""), $H134 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" priority="164" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="E92">
+    <cfRule type="containsText" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" priority="400" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I46 = "", $A46 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C47">
-    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:A47">
-    <cfRule type="cellIs" priority="169" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:Y37">
+    <cfRule type="containsText" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:Y37">
+    <cfRule type="cellIs" priority="404" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="cellIs" priority="405" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46:H47">
-    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G46 = ""), $H46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="containsText" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" priority="174" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="containsText" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="cellIs" priority="409" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" priority="180" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($I14 = "", $A14 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="cellIs" priority="413" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:Y14">
+    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($I42 = "", $A42 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="containsText" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" priority="421" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" priority="184" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($I65 = "", $A65 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="cellIs" priority="427" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $I50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" priority="189" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="H65">
+    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(NOT($G65 = ""), $H65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="containsText" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" priority="432" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $I50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="containsText" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="193" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $I48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" priority="195" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($I66 = "", $A66 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="cellIs" priority="438" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="containsText" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="441" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" priority="443" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $I48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
-    <cfRule type="expression" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I60 = "", $A60 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" priority="200" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="expression" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($I44 = "", $A44 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="cellIs" priority="449" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="containsText" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" priority="205" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="H44">
+    <cfRule type="expression" priority="450" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="containsText" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" priority="454" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="207" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="expression" priority="208" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I67 = "", $A67 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" priority="209" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="cellIs" priority="210" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="455" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="456" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="expression" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($I45 = "", $A45 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $C45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $B45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="cellIs" priority="460" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G67 = ""), $H67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="containsText" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" priority="215" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="H45">
+    <cfRule type="expression" priority="461" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="containsText" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="464" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" priority="465" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68:I69">
-    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I68 = "", $A68 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68:C69">
-    <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68:B69">
-    <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:A69">
-    <cfRule type="cellIs" priority="221" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="467" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="expression" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($I53 = "", $A53 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" priority="469" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" priority="470" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68:H69">
-    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="containsText" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="cellIs" priority="226" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" priority="471" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="containsText" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" priority="473" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" priority="474" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" priority="475" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I64 = "", $A64 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A64">
-    <cfRule type="cellIs" priority="231" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" priority="476" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A55">
+    <cfRule type="cellIs" priority="478" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="234" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" priority="236" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="E54:E55">
+    <cfRule type="containsText" priority="479" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E55">
+    <cfRule type="cellIs" priority="480" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" priority="239" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="containsText" priority="481" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="cellIs" priority="482" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="cellIs" priority="483" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:Y74">
-    <cfRule type="containsText" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:Y74">
-    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:Y74">
-    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:Y74">
-    <cfRule type="cellIs" priority="243" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" priority="484" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>COUNTIF($B$2:$B$998,B49)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="485" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1103, "begin group") = COUNTIF($A$1:$A$1103, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="486" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1094, "begin group") = COUNTIF($A$1:$A$1103, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="expression" priority="487" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($I57 = "", $A57 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" priority="488" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="cellIs" priority="489" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="expression" priority="490" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(NOT($G57 = ""), $H57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="containsText" priority="491" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" priority="492" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" priority="493" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" priority="494" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72:I74">
-    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I72 = "", $A72 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C74">
-    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B74">
-    <cfRule type="expression" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $B72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A74">
-    <cfRule type="cellIs" priority="247" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72:H74">
-    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G72 = ""), $H72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:Y74">
-    <cfRule type="expression" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:Y74">
-    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="containsText" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="expression" priority="252" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="expression" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" priority="254" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" priority="255" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="containsText" priority="258" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" priority="261" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="cellIs" priority="264" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79:I81">
-    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I79 = "", $A79 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79:C81">
-    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A79 = "end group"), NOT($A79 = "end repeat"), NOT($A79 = "")), $C79 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80:B81">
-    <cfRule type="expression" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A80 = "end group"), NOT($A80 = "end repeat"), NOT($A80 = "")), $B80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A81">
-    <cfRule type="cellIs" priority="268" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79:H81">
-    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G79 = ""), $H79 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I87">
-    <cfRule type="expression" priority="270" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I87 = "", $A87 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $C87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
-    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $B87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
-    <cfRule type="cellIs" priority="273" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G87 = ""), $H87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="containsText" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" priority="276" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A87="end group", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" priority="278" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A87="end repeat", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I88:I94">
-    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I88 = "", $A88 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88:C94">
-    <cfRule type="expression" priority="282" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A88 = "end group"), NOT($A88 = "end repeat"), NOT($A88 = "")), $C88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88:A94">
-    <cfRule type="cellIs" priority="283" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88:H94">
-    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G88 = ""), $H88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="containsText" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="expression" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" priority="288" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" priority="289" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="expression" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I43 = "", $A43 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" priority="293" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" priority="295" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="containsText" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" priority="300" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I49 = "", $A49 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $B49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" priority="306" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G49 = ""), $H49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" priority="311" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61:I63">
-    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I61 = "", $A61 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C63">
-    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $C61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B63">
-    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $B61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" priority="317" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:H63">
-    <cfRule type="expression" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G61 = ""), $H61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" priority="322" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:Y38">
-    <cfRule type="containsText" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:Y38">
-    <cfRule type="cellIs" priority="326" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" priority="327" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:I48">
-    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I47 = "", $A47 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="containsText" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A85="end group", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" priority="332" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A85="end repeat", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="containsText" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="expression" priority="336" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A83="begin group", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="expression" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A83="end group", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" priority="338" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="expression" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A83 = "end group"), NOT($A83 = "end repeat"), NOT($A83 = "")), $B83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A83="begin repeat", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A83="end repeat", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="containsText" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A84="begin group", NOT($B84 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A84="end group", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" priority="345" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" priority="346" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A84="begin repeat", NOT($B84 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="expression" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A84="end repeat", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="containsText" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A84="begin group", NOT($B84 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A84="end group", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" priority="352" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A84 = "end group"), NOT($A84 = "end repeat"), NOT($A84 = "")), $B84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A84="begin repeat", NOT($B84 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A84="end repeat", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="containsText" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A131="begin group", NOT($B131 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A131="end group", $B131 = "", $C131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $I131 = "", $J131 = "", $K131 = "", $L131 = "", $M131 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" priority="359" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A131="begin repeat", NOT($B131 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="expression" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A131="end repeat", $B131 = "", $C131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $I131 = "", $J131 = "", $K131 = "", $L131 = "", $M131 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="containsText" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A132="begin group", NOT($B132 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A132="end group", $B132 = "", $C132 = "", $D132 = "", $E132 = "", $F132 = "", $G132 = "", $H132 = "", $I132 = "", $J132 = "", $K132 = "", $L132 = "", $M132 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="cellIs" priority="365" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A132="begin repeat", NOT($B132 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A132="end repeat", $B132 = "", $C132 = "", $D132 = "", $E132 = "", $F132 = "", $G132 = "", $H132 = "", $I132 = "", $J132 = "", $K132 = "", $L132 = "", $M132 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="containsText" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A133="begin group", NOT($B133 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A133="end group", $B133 = "", $C133 = "", $D133 = "", $E133 = "", $F133 = "", $G133 = "", $H133 = "", $I133 = "", $J133 = "", $K133 = "", $L133 = "", $M133 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" priority="371" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A133="begin repeat", NOT($B133 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A133="end repeat", $B133 = "", $C133 = "", $D133 = "", $E133 = "", $F133 = "", $G133 = "", $H133 = "", $I133 = "", $J133 = "", $K133 = "", $L133 = "", $M133 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I75 = "", $A75 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="expression" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $C75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
-    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $B75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" priority="377" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G75 = ""), $H75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I86">
-    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($I86 = "", $A86 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(AND(NOT($A86 = "end group"), NOT($A86 = "end repeat"), NOT($A86 = "")), $C86 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
-    <cfRule type="cellIs" priority="381" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(NOT($G86 = ""), $H86 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="containsText" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A86="begin group", NOT($B86 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A86="end group", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" priority="386" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="expression" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A86="begin repeat", NOT($B86 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A86="end repeat", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>COUNTIF($B$2:$B$1091,B136)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="expression" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>COUNTIF($B$2:$B$1095,B131)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B132">
-    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>COUNTIF($B$2:$B$1094,B132)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68:B69">
-    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>COUNTIF($B$2:$B$1083,B68)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80:B81">
-    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>COUNTIF($B$2:$B$1074,B80)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>COUNTIF($B$2:$B$995,B43)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B84">
-    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>COUNTIF($B$2:$B$1096,B83)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:A63">
-    <cfRule type="cellIs" priority="396" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="containsText" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" priority="400" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="containsText" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="cellIs" priority="404" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" priority="405" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="containsText" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="cellIs" priority="409" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($I14 = "", $A14 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" priority="413" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:Y14">
-    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($I42 = "", $A42 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" priority="421" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
-    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($I65 = "", $A65 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" priority="427" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(NOT($G65 = ""), $H65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="containsText" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" priority="432" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($I66 = "", $A66 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" priority="438" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="441" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" priority="443" operator="equal" abo